--- a/SITA Project/File/file.xlsx
+++ b/SITA Project/File/file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="150">
   <si>
     <t>Site ID</t>
   </si>
@@ -459,9 +459,6 @@
   </si>
   <si>
     <t>COMCASE</t>
-  </si>
-  <si>
-    <t>NOMOR</t>
   </si>
   <si>
     <t>MAX 6 karakter</t>
@@ -518,7 +515,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,12 +594,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -631,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -726,6 +717,33 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -735,15 +753,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -755,27 +764,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1059,662 +1047,657 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="EE9" sqref="EE9"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14" customWidth="1"/>
-    <col min="2" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="13" width="16.7109375" style="14" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" style="21" customWidth="1"/>
-    <col min="15" max="17" width="16.7109375" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" style="14" customWidth="1"/>
-    <col min="19" max="23" width="16.7109375" customWidth="1"/>
-    <col min="24" max="25" width="16.7109375" style="21" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" style="14" customWidth="1"/>
-    <col min="27" max="27" width="16.7109375" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" style="14" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" customWidth="1"/>
-    <col min="30" max="30" width="16.7109375" style="14" customWidth="1"/>
-    <col min="31" max="31" width="16.7109375" customWidth="1"/>
-    <col min="32" max="32" width="16.7109375" style="21" customWidth="1"/>
-    <col min="33" max="33" width="16.7109375" customWidth="1"/>
-    <col min="34" max="34" width="16.7109375" style="21" customWidth="1"/>
-    <col min="35" max="35" width="16.7109375" style="14" customWidth="1"/>
-    <col min="36" max="37" width="16.7109375" customWidth="1"/>
-    <col min="38" max="40" width="16.7109375" style="21" customWidth="1"/>
-    <col min="41" max="92" width="16.7109375" customWidth="1"/>
-    <col min="93" max="95" width="16.7109375" style="14" customWidth="1"/>
-    <col min="96" max="96" width="16.7109375" style="21" customWidth="1"/>
-    <col min="97" max="97" width="16.7109375" customWidth="1"/>
-    <col min="98" max="100" width="16.7109375" style="14" customWidth="1"/>
-    <col min="101" max="102" width="16.7109375" customWidth="1"/>
-    <col min="103" max="103" width="16.7109375" style="14" customWidth="1"/>
-    <col min="104" max="104" width="16.7109375" style="21" customWidth="1"/>
-    <col min="105" max="105" width="16.7109375" style="14" customWidth="1"/>
-    <col min="106" max="109" width="16.7109375" customWidth="1"/>
-    <col min="110" max="112" width="16.7109375" style="21" customWidth="1"/>
-    <col min="113" max="115" width="16.7109375" customWidth="1"/>
-    <col min="116" max="117" width="16.7109375" style="21" customWidth="1"/>
-    <col min="118" max="118" width="16.7109375" customWidth="1"/>
-    <col min="119" max="120" width="16.7109375" style="21" customWidth="1"/>
-    <col min="121" max="121" width="16.7109375" customWidth="1"/>
-    <col min="122" max="123" width="16.7109375" style="21" customWidth="1"/>
-    <col min="124" max="124" width="16.7109375" customWidth="1"/>
-    <col min="125" max="126" width="16.7109375" style="21" customWidth="1"/>
-    <col min="127" max="127" width="16.7109375" customWidth="1"/>
-    <col min="128" max="129" width="16.7109375" style="21" customWidth="1"/>
-    <col min="130" max="131" width="16.7109375" customWidth="1"/>
-    <col min="132" max="134" width="16.7109375" style="21" customWidth="1"/>
-    <col min="135" max="138" width="16.7109375" customWidth="1"/>
-    <col min="139" max="165" width="9.140625" hidden="1"/>
+    <col min="1" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="12" width="16.7109375" style="14" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="21" customWidth="1"/>
+    <col min="14" max="16" width="16.7109375" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" style="14" customWidth="1"/>
+    <col min="18" max="22" width="16.7109375" customWidth="1"/>
+    <col min="23" max="24" width="16.7109375" style="21" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" style="14" customWidth="1"/>
+    <col min="26" max="26" width="16.7109375" customWidth="1"/>
+    <col min="27" max="27" width="16.7109375" style="14" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" style="14" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" style="21" customWidth="1"/>
+    <col min="32" max="32" width="16.7109375" customWidth="1"/>
+    <col min="33" max="33" width="16.7109375" style="21" customWidth="1"/>
+    <col min="34" max="34" width="16.7109375" style="14" customWidth="1"/>
+    <col min="35" max="36" width="16.7109375" customWidth="1"/>
+    <col min="37" max="39" width="16.7109375" style="21" customWidth="1"/>
+    <col min="40" max="91" width="16.7109375" customWidth="1"/>
+    <col min="92" max="94" width="16.7109375" style="14" customWidth="1"/>
+    <col min="95" max="95" width="16.7109375" style="21" customWidth="1"/>
+    <col min="96" max="96" width="16.7109375" customWidth="1"/>
+    <col min="97" max="99" width="16.7109375" style="14" customWidth="1"/>
+    <col min="100" max="101" width="16.7109375" customWidth="1"/>
+    <col min="102" max="102" width="16.7109375" style="14" customWidth="1"/>
+    <col min="103" max="103" width="16.7109375" style="21" customWidth="1"/>
+    <col min="104" max="104" width="16.7109375" style="14" customWidth="1"/>
+    <col min="105" max="108" width="16.7109375" customWidth="1"/>
+    <col min="109" max="111" width="16.7109375" style="21" customWidth="1"/>
+    <col min="112" max="114" width="16.7109375" customWidth="1"/>
+    <col min="115" max="116" width="16.7109375" style="21" customWidth="1"/>
+    <col min="117" max="117" width="16.7109375" customWidth="1"/>
+    <col min="118" max="119" width="16.7109375" style="21" customWidth="1"/>
+    <col min="120" max="120" width="16.7109375" customWidth="1"/>
+    <col min="121" max="122" width="16.7109375" style="21" customWidth="1"/>
+    <col min="123" max="123" width="16.7109375" customWidth="1"/>
+    <col min="124" max="125" width="16.7109375" style="21" customWidth="1"/>
+    <col min="126" max="126" width="16.7109375" customWidth="1"/>
+    <col min="127" max="128" width="16.7109375" style="21" customWidth="1"/>
+    <col min="129" max="130" width="16.7109375" customWidth="1"/>
+    <col min="131" max="133" width="16.7109375" style="21" customWidth="1"/>
+    <col min="134" max="137" width="16.7109375" customWidth="1"/>
+    <col min="138" max="164" width="9.140625" hidden="1"/>
     <col min="16384" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:138" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="39"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="39"/>
+      <c r="BG1" s="39"/>
+      <c r="BH1" s="39"/>
+      <c r="BI1" s="39"/>
+      <c r="BJ1" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK1" s="40"/>
+      <c r="BL1" s="40"/>
+      <c r="BM1" s="40"/>
+      <c r="BN1" s="40"/>
+      <c r="BO1" s="40"/>
+      <c r="BP1" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="BQ1" s="34"/>
+      <c r="BR1" s="34"/>
+      <c r="BS1" s="34"/>
+      <c r="BT1" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU1" s="41"/>
+      <c r="BV1" s="41"/>
+      <c r="BW1" s="41"/>
+      <c r="BX1" s="41"/>
+      <c r="BY1" s="41"/>
+      <c r="BZ1" s="41"/>
+      <c r="CA1" s="41"/>
+      <c r="CB1" s="41"/>
+      <c r="CC1" s="41"/>
+      <c r="CD1" s="41"/>
+      <c r="CE1" s="41"/>
+      <c r="CF1" s="41"/>
+      <c r="CG1" s="41"/>
+      <c r="CH1" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI1" s="42"/>
+      <c r="CJ1" s="42"/>
+      <c r="CK1" s="42"/>
+      <c r="CL1" s="42"/>
+      <c r="CM1" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="CN1" s="37"/>
+      <c r="CO1" s="37"/>
+      <c r="CP1" s="37"/>
+      <c r="CQ1" s="37"/>
+      <c r="CR1" s="37"/>
+      <c r="CS1" s="37"/>
+      <c r="CT1" s="37"/>
+      <c r="CU1" s="37"/>
+      <c r="CV1" s="37"/>
+      <c r="CW1" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="CX1" s="34"/>
+      <c r="CY1" s="34"/>
+      <c r="CZ1" s="34"/>
+      <c r="DA1" s="34"/>
+      <c r="DB1" s="34"/>
+      <c r="DC1" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="DD1" s="36"/>
+      <c r="DE1" s="36"/>
+      <c r="DF1" s="36"/>
+      <c r="DG1" s="36"/>
+      <c r="DH1" s="36"/>
+      <c r="DI1" s="36"/>
+      <c r="DJ1" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="DK1" s="38"/>
+      <c r="DL1" s="38"/>
+      <c r="DM1" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="DN1" s="46"/>
+      <c r="DO1" s="46"/>
+      <c r="DP1" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="DQ1" s="47"/>
+      <c r="DR1" s="47"/>
+      <c r="DS1" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="DT1" s="48"/>
+      <c r="DU1" s="48"/>
+      <c r="DV1" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="DW1" s="49"/>
+      <c r="DX1" s="49"/>
+      <c r="DY1" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="DZ1" s="43"/>
+      <c r="EA1" s="43"/>
+      <c r="EB1" s="43"/>
+      <c r="EC1" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="ED1" s="45"/>
+      <c r="EE1" s="45"/>
+      <c r="EF1" s="45"/>
+      <c r="EG1" s="45"/>
+    </row>
+    <row r="2" spans="1:137" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH2" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK2" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM2" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="BX2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BZ2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CA2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="CD2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="CF2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="CI2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="CJ2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="CM2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="CN2" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="CO2" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="CP2" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="CQ2" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="CR2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="CT2" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="CU2" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="CV2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CW2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="CX2" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="CY2" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="CZ2" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="DA2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="DB2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="DC2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="DD2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="DE2" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="DF2" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="DG2" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="DH2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="DI2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="DJ2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="DK2" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="DL2" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="DM2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="DN2" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="DO2" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="DP2" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="DQ2" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="DR2" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="DS2" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="DT2" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="DU2" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="DV2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="DW2" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="DX2" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="DY2" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="DZ2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="EA2" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="EB2" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="EC2" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="ED2" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="EE2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="EF2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="EG2" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:137" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="39"/>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="39"/>
-      <c r="AY1" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="50"/>
-      <c r="BG1" s="50"/>
-      <c r="BH1" s="50"/>
-      <c r="BI1" s="50"/>
-      <c r="BJ1" s="50"/>
-      <c r="BK1" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL1" s="44"/>
-      <c r="BM1" s="44"/>
-      <c r="BN1" s="44"/>
-      <c r="BO1" s="44"/>
-      <c r="BP1" s="44"/>
-      <c r="BQ1" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR1" s="45"/>
-      <c r="BS1" s="45"/>
-      <c r="BT1" s="45"/>
-      <c r="BU1" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV1" s="46"/>
-      <c r="BW1" s="46"/>
-      <c r="BX1" s="46"/>
-      <c r="BY1" s="46"/>
-      <c r="BZ1" s="46"/>
-      <c r="CA1" s="46"/>
-      <c r="CB1" s="46"/>
-      <c r="CC1" s="46"/>
-      <c r="CD1" s="46"/>
-      <c r="CE1" s="46"/>
-      <c r="CF1" s="46"/>
-      <c r="CG1" s="46"/>
-      <c r="CH1" s="46"/>
-      <c r="CI1" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="CJ1" s="47"/>
-      <c r="CK1" s="47"/>
-      <c r="CL1" s="47"/>
-      <c r="CM1" s="47"/>
-      <c r="CN1" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="CO1" s="48"/>
-      <c r="CP1" s="48"/>
-      <c r="CQ1" s="48"/>
-      <c r="CR1" s="48"/>
-      <c r="CS1" s="48"/>
-      <c r="CT1" s="48"/>
-      <c r="CU1" s="48"/>
-      <c r="CV1" s="48"/>
-      <c r="CW1" s="48"/>
-      <c r="CX1" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="CY1" s="45"/>
-      <c r="CZ1" s="45"/>
-      <c r="DA1" s="45"/>
-      <c r="DB1" s="45"/>
-      <c r="DC1" s="45"/>
-      <c r="DD1" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="DE1" s="38"/>
-      <c r="DF1" s="38"/>
-      <c r="DG1" s="38"/>
-      <c r="DH1" s="38"/>
-      <c r="DI1" s="38"/>
-      <c r="DJ1" s="38"/>
-      <c r="DK1" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="DL1" s="39"/>
-      <c r="DM1" s="39"/>
-      <c r="DN1" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="DO1" s="40"/>
-      <c r="DP1" s="40"/>
-      <c r="DQ1" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="DR1" s="41"/>
-      <c r="DS1" s="41"/>
-      <c r="DT1" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="DU1" s="42"/>
-      <c r="DV1" s="42"/>
-      <c r="DW1" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="DX1" s="43"/>
-      <c r="DY1" s="43"/>
-      <c r="DZ1" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="EA1" s="34"/>
-      <c r="EB1" s="34"/>
-      <c r="EC1" s="34"/>
-      <c r="ED1" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="EE1" s="36"/>
-      <c r="EF1" s="36"/>
-      <c r="EG1" s="36"/>
-      <c r="EH1" s="36"/>
-    </row>
-    <row r="2" spans="1:138" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB2" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD2" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF2" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH2" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI2" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL2" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM2" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN2" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BI2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BJ2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BM2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="BN2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="BP2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="BQ2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="BT2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BU2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="BV2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="BX2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="BY2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="BZ2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="CA2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="CB2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="CC2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="CD2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="CE2" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="CF2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="CG2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="CH2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="CI2" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="CJ2" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="CK2" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="CL2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="CM2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="CN2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="CO2" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="CP2" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="CQ2" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="CR2" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="CS2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="CU2" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="CV2" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="CW2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="CX2" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="CY2" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="CZ2" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="DA2" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="DB2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="DC2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="DD2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="DE2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="DF2" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="DG2" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="DH2" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="DI2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="DJ2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="DK2" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="DL2" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="DM2" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="DN2" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="DO2" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="DP2" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="DQ2" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="DR2" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="DS2" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="DT2" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="DU2" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="DV2" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="DW2" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="DX2" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="DY2" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="DZ2" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="EA2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="EB2" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="EC2" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="ED2" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="EE2" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="EF2" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="EG2" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="EH2" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:138" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="16" t="s">
-        <v>146</v>
-      </c>
+      <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -1723,70 +1706,70 @@
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="K3" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="L3" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="O3" s="20"/>
+        <v>146</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="N3" s="20"/>
+      <c r="O3" s="16"/>
       <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="18" t="s">
-        <v>147</v>
-      </c>
+      <c r="Q3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="W3" s="20" t="s">
+        <v>147</v>
+      </c>
       <c r="X3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z3" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG3" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI3" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG3" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK3" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="AL3" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN3" s="20" t="s">
-        <v>148</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="AN3" s="16"/>
       <c r="AO3" s="16"/>
       <c r="AP3" s="16"/>
       <c r="AQ3" s="16"/>
@@ -1795,280 +1778,278 @@
       <c r="AT3" s="16"/>
       <c r="AU3" s="16"/>
       <c r="AV3" s="16"/>
-      <c r="AW3" s="16"/>
+      <c r="AW3" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="AX3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AY3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AZ3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BA3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BB3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BC3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BD3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BE3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BF3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BG3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BH3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BI3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BJ3" s="16" t="s">
         <v>149</v>
       </c>
       <c r="BK3" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BL3" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BM3" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BN3" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BO3" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BP3" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BQ3" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BR3" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BS3" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BT3" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BU3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BV3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BW3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BX3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BY3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BZ3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CA3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CB3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CC3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CD3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CE3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CF3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CG3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CH3" s="16" t="s">
         <v>149</v>
       </c>
       <c r="CI3" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CJ3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CK3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CL3" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CM3" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="CN3" s="16" t="s">
-        <v>150</v>
+      <c r="CN3" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="CO3" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CP3" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="CQ3" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="CR3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="CS3" s="16"/>
+        <v>146</v>
+      </c>
+      <c r="CQ3" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="CR3" s="16"/>
+      <c r="CS3" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="CT3" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CU3" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="CV3" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="CW3" s="16"/>
-      <c r="CX3" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="CY3" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="CZ3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="DA3" s="18" t="s">
-        <v>147</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="CV3" s="16"/>
+      <c r="CW3" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="CX3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="CY3" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="CZ3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="DA3" s="16"/>
       <c r="DB3" s="16"/>
-      <c r="DC3" s="16"/>
-      <c r="DD3" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="DE3" s="16"/>
+      <c r="DC3" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="DD3" s="16"/>
+      <c r="DE3" s="20" t="s">
+        <v>147</v>
+      </c>
       <c r="DF3" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DG3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="DH3" s="20" t="s">
-        <v>148</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="DH3" s="16"/>
       <c r="DI3" s="16"/>
-      <c r="DJ3" s="16"/>
-      <c r="DK3" s="16" t="s">
-        <v>150</v>
+      <c r="DJ3" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="DK3" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="DL3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="DM3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="DN3" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="DM3" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="DN3" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="DO3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="DP3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="DQ3" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="DP3" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="DQ3" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="DR3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="DS3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="DT3" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="DS3" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="DT3" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="DU3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="DV3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="DW3" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="DV3" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="DW3" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="DX3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="DY3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="DZ3" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="EA3" s="16"/>
+        <v>147</v>
+      </c>
+      <c r="DY3" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="DZ3" s="16"/>
+      <c r="EA3" s="20" t="s">
+        <v>147</v>
+      </c>
       <c r="EB3" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EC3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="ED3" s="20" t="s">
-        <v>148</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="ED3" s="16"/>
       <c r="EE3" s="16"/>
       <c r="EF3" s="16"/>
       <c r="EG3" s="16"/>
-      <c r="EH3" s="16"/>
     </row>
-    <row r="6" spans="1:138" x14ac:dyDescent="0.25">
-      <c r="D6" s="15"/>
+    <row r="6" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="C6" s="15"/>
     </row>
-    <row r="9" spans="1:138" x14ac:dyDescent="0.25">
-      <c r="D9" s="15"/>
+    <row r="9" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="C9" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AP1:AX1"/>
-    <mergeCell ref="AY1:BJ1"/>
-    <mergeCell ref="DZ1:EC1"/>
-    <mergeCell ref="ED1:EH1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="DD1:DJ1"/>
-    <mergeCell ref="DK1:DM1"/>
-    <mergeCell ref="DN1:DP1"/>
-    <mergeCell ref="DQ1:DS1"/>
-    <mergeCell ref="DT1:DV1"/>
-    <mergeCell ref="DW1:DY1"/>
-    <mergeCell ref="BK1:BP1"/>
-    <mergeCell ref="BQ1:BT1"/>
-    <mergeCell ref="BU1:CH1"/>
-    <mergeCell ref="CI1:CM1"/>
-    <mergeCell ref="CN1:CW1"/>
-    <mergeCell ref="CX1:DC1"/>
-    <mergeCell ref="B1:AA1"/>
+  <mergeCells count="20">
+    <mergeCell ref="DY1:EB1"/>
+    <mergeCell ref="EC1:EG1"/>
+    <mergeCell ref="DC1:DI1"/>
+    <mergeCell ref="DJ1:DL1"/>
+    <mergeCell ref="DM1:DO1"/>
+    <mergeCell ref="DP1:DR1"/>
+    <mergeCell ref="DS1:DU1"/>
+    <mergeCell ref="DV1:DX1"/>
+    <mergeCell ref="CW1:DB1"/>
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AW1"/>
+    <mergeCell ref="AX1:BI1"/>
+    <mergeCell ref="BJ1:BO1"/>
+    <mergeCell ref="BP1:BS1"/>
+    <mergeCell ref="BT1:CG1"/>
+    <mergeCell ref="CH1:CL1"/>
+    <mergeCell ref="CM1:CV1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SITA Project/File/file.xlsx
+++ b/SITA Project/File/file.xlsx
@@ -717,21 +717,42 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,27 +763,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,11 +1045,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFC9"/>
+  <dimension ref="A1:XFC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="DW1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="EC10" sqref="EC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,54 +1102,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="36" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="34" t="s">
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
       <c r="AO1" s="38" t="s">
         <v>53</v>
       </c>
@@ -1161,124 +1161,124 @@
       <c r="AU1" s="38"/>
       <c r="AV1" s="38"/>
       <c r="AW1" s="38"/>
-      <c r="AX1" s="39" t="s">
+      <c r="AX1" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="39"/>
-      <c r="BC1" s="39"/>
-      <c r="BD1" s="39"/>
-      <c r="BE1" s="39"/>
-      <c r="BF1" s="39"/>
-      <c r="BG1" s="39"/>
-      <c r="BH1" s="39"/>
-      <c r="BI1" s="39"/>
-      <c r="BJ1" s="40" t="s">
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="46"/>
+      <c r="BB1" s="46"/>
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="46"/>
+      <c r="BE1" s="46"/>
+      <c r="BF1" s="46"/>
+      <c r="BG1" s="46"/>
+      <c r="BH1" s="46"/>
+      <c r="BI1" s="46"/>
+      <c r="BJ1" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="BK1" s="40"/>
-      <c r="BL1" s="40"/>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="40"/>
-      <c r="BP1" s="34" t="s">
+      <c r="BK1" s="47"/>
+      <c r="BL1" s="47"/>
+      <c r="BM1" s="47"/>
+      <c r="BN1" s="47"/>
+      <c r="BO1" s="47"/>
+      <c r="BP1" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="BQ1" s="34"/>
-      <c r="BR1" s="34"/>
-      <c r="BS1" s="34"/>
-      <c r="BT1" s="41" t="s">
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
+      <c r="BS1" s="43"/>
+      <c r="BT1" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="BU1" s="41"/>
-      <c r="BV1" s="41"/>
-      <c r="BW1" s="41"/>
-      <c r="BX1" s="41"/>
-      <c r="BY1" s="41"/>
-      <c r="BZ1" s="41"/>
-      <c r="CA1" s="41"/>
-      <c r="CB1" s="41"/>
-      <c r="CC1" s="41"/>
-      <c r="CD1" s="41"/>
-      <c r="CE1" s="41"/>
-      <c r="CF1" s="41"/>
-      <c r="CG1" s="41"/>
-      <c r="CH1" s="42" t="s">
+      <c r="BU1" s="48"/>
+      <c r="BV1" s="48"/>
+      <c r="BW1" s="48"/>
+      <c r="BX1" s="48"/>
+      <c r="BY1" s="48"/>
+      <c r="BZ1" s="48"/>
+      <c r="CA1" s="48"/>
+      <c r="CB1" s="48"/>
+      <c r="CC1" s="48"/>
+      <c r="CD1" s="48"/>
+      <c r="CE1" s="48"/>
+      <c r="CF1" s="48"/>
+      <c r="CG1" s="48"/>
+      <c r="CH1" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="CI1" s="42"/>
-      <c r="CJ1" s="42"/>
-      <c r="CK1" s="42"/>
-      <c r="CL1" s="42"/>
-      <c r="CM1" s="37" t="s">
+      <c r="CI1" s="49"/>
+      <c r="CJ1" s="49"/>
+      <c r="CK1" s="49"/>
+      <c r="CL1" s="49"/>
+      <c r="CM1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="CN1" s="37"/>
-      <c r="CO1" s="37"/>
-      <c r="CP1" s="37"/>
-      <c r="CQ1" s="37"/>
-      <c r="CR1" s="37"/>
-      <c r="CS1" s="37"/>
-      <c r="CT1" s="37"/>
-      <c r="CU1" s="37"/>
-      <c r="CV1" s="37"/>
-      <c r="CW1" s="34" t="s">
+      <c r="CN1" s="45"/>
+      <c r="CO1" s="45"/>
+      <c r="CP1" s="45"/>
+      <c r="CQ1" s="45"/>
+      <c r="CR1" s="45"/>
+      <c r="CS1" s="45"/>
+      <c r="CT1" s="45"/>
+      <c r="CU1" s="45"/>
+      <c r="CV1" s="45"/>
+      <c r="CW1" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="CX1" s="34"/>
-      <c r="CY1" s="34"/>
-      <c r="CZ1" s="34"/>
-      <c r="DA1" s="34"/>
-      <c r="DB1" s="34"/>
-      <c r="DC1" s="36" t="s">
+      <c r="CX1" s="43"/>
+      <c r="CY1" s="43"/>
+      <c r="CZ1" s="43"/>
+      <c r="DA1" s="43"/>
+      <c r="DB1" s="43"/>
+      <c r="DC1" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="DD1" s="36"/>
-      <c r="DE1" s="36"/>
-      <c r="DF1" s="36"/>
-      <c r="DG1" s="36"/>
-      <c r="DH1" s="36"/>
-      <c r="DI1" s="36"/>
+      <c r="DD1" s="37"/>
+      <c r="DE1" s="37"/>
+      <c r="DF1" s="37"/>
+      <c r="DG1" s="37"/>
+      <c r="DH1" s="37"/>
+      <c r="DI1" s="37"/>
       <c r="DJ1" s="38" t="s">
         <v>127</v>
       </c>
       <c r="DK1" s="38"/>
       <c r="DL1" s="38"/>
-      <c r="DM1" s="46" t="s">
+      <c r="DM1" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="DN1" s="46"/>
-      <c r="DO1" s="46"/>
-      <c r="DP1" s="47" t="s">
+      <c r="DN1" s="39"/>
+      <c r="DO1" s="39"/>
+      <c r="DP1" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="DQ1" s="47"/>
-      <c r="DR1" s="47"/>
-      <c r="DS1" s="48" t="s">
+      <c r="DQ1" s="40"/>
+      <c r="DR1" s="40"/>
+      <c r="DS1" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="DT1" s="48"/>
-      <c r="DU1" s="48"/>
-      <c r="DV1" s="49" t="s">
+      <c r="DT1" s="41"/>
+      <c r="DU1" s="41"/>
+      <c r="DV1" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="DW1" s="49"/>
-      <c r="DX1" s="49"/>
-      <c r="DY1" s="43" t="s">
+      <c r="DW1" s="42"/>
+      <c r="DX1" s="42"/>
+      <c r="DY1" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="DZ1" s="43"/>
-      <c r="EA1" s="43"/>
-      <c r="EB1" s="43"/>
-      <c r="EC1" s="44" t="s">
+      <c r="DZ1" s="34"/>
+      <c r="EA1" s="34"/>
+      <c r="EB1" s="34"/>
+      <c r="EC1" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="ED1" s="45"/>
-      <c r="EE1" s="45"/>
-      <c r="EF1" s="45"/>
-      <c r="EG1" s="45"/>
+      <c r="ED1" s="36"/>
+      <c r="EE1" s="36"/>
+      <c r="EF1" s="36"/>
+      <c r="EG1" s="36"/>
     </row>
     <row r="2" spans="1:137" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2028,16 +2028,421 @@
     <row r="9" spans="1:137" x14ac:dyDescent="0.25">
       <c r="C9" s="15"/>
     </row>
+    <row r="11" spans="1:137" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>11</v>
+      </c>
+      <c r="M11">
+        <v>12</v>
+      </c>
+      <c r="N11">
+        <v>13</v>
+      </c>
+      <c r="O11">
+        <v>14</v>
+      </c>
+      <c r="P11">
+        <v>15</v>
+      </c>
+      <c r="Q11">
+        <v>16</v>
+      </c>
+      <c r="R11">
+        <v>17</v>
+      </c>
+      <c r="S11">
+        <v>18</v>
+      </c>
+      <c r="T11">
+        <v>19</v>
+      </c>
+      <c r="U11">
+        <v>20</v>
+      </c>
+      <c r="V11">
+        <v>21</v>
+      </c>
+      <c r="W11">
+        <v>22</v>
+      </c>
+      <c r="X11">
+        <v>23</v>
+      </c>
+      <c r="Y11">
+        <v>24</v>
+      </c>
+      <c r="Z11">
+        <v>25</v>
+      </c>
+      <c r="AA11">
+        <v>26</v>
+      </c>
+      <c r="AB11">
+        <v>27</v>
+      </c>
+      <c r="AC11">
+        <v>28</v>
+      </c>
+      <c r="AD11">
+        <v>29</v>
+      </c>
+      <c r="AE11">
+        <v>30</v>
+      </c>
+      <c r="AF11">
+        <v>31</v>
+      </c>
+      <c r="AG11">
+        <v>32</v>
+      </c>
+      <c r="AH11">
+        <v>33</v>
+      </c>
+      <c r="AI11">
+        <v>34</v>
+      </c>
+      <c r="AJ11">
+        <v>35</v>
+      </c>
+      <c r="AK11">
+        <v>36</v>
+      </c>
+      <c r="AL11">
+        <v>37</v>
+      </c>
+      <c r="AM11">
+        <v>38</v>
+      </c>
+      <c r="AN11">
+        <v>39</v>
+      </c>
+      <c r="AO11">
+        <v>40</v>
+      </c>
+      <c r="AP11">
+        <v>41</v>
+      </c>
+      <c r="AQ11">
+        <v>42</v>
+      </c>
+      <c r="AR11">
+        <v>43</v>
+      </c>
+      <c r="AS11">
+        <v>44</v>
+      </c>
+      <c r="AT11">
+        <v>45</v>
+      </c>
+      <c r="AU11">
+        <v>46</v>
+      </c>
+      <c r="AV11">
+        <v>47</v>
+      </c>
+      <c r="AW11">
+        <v>48</v>
+      </c>
+      <c r="AX11">
+        <v>49</v>
+      </c>
+      <c r="AY11">
+        <v>50</v>
+      </c>
+      <c r="AZ11">
+        <v>51</v>
+      </c>
+      <c r="BA11">
+        <v>52</v>
+      </c>
+      <c r="BB11">
+        <v>53</v>
+      </c>
+      <c r="BC11">
+        <v>54</v>
+      </c>
+      <c r="BD11">
+        <v>55</v>
+      </c>
+      <c r="BE11">
+        <v>56</v>
+      </c>
+      <c r="BF11">
+        <v>57</v>
+      </c>
+      <c r="BG11">
+        <v>58</v>
+      </c>
+      <c r="BH11">
+        <v>59</v>
+      </c>
+      <c r="BI11">
+        <v>60</v>
+      </c>
+      <c r="BJ11">
+        <v>61</v>
+      </c>
+      <c r="BK11">
+        <v>62</v>
+      </c>
+      <c r="BL11">
+        <v>63</v>
+      </c>
+      <c r="BM11">
+        <v>64</v>
+      </c>
+      <c r="BN11">
+        <v>65</v>
+      </c>
+      <c r="BO11">
+        <v>66</v>
+      </c>
+      <c r="BP11">
+        <v>67</v>
+      </c>
+      <c r="BQ11">
+        <v>68</v>
+      </c>
+      <c r="BR11">
+        <v>69</v>
+      </c>
+      <c r="BS11">
+        <v>70</v>
+      </c>
+      <c r="BT11">
+        <v>71</v>
+      </c>
+      <c r="BU11">
+        <v>72</v>
+      </c>
+      <c r="BV11">
+        <v>73</v>
+      </c>
+      <c r="BW11">
+        <v>74</v>
+      </c>
+      <c r="BX11">
+        <v>75</v>
+      </c>
+      <c r="BY11">
+        <v>76</v>
+      </c>
+      <c r="BZ11">
+        <v>77</v>
+      </c>
+      <c r="CA11">
+        <v>78</v>
+      </c>
+      <c r="CB11">
+        <v>79</v>
+      </c>
+      <c r="CC11">
+        <v>80</v>
+      </c>
+      <c r="CD11">
+        <v>81</v>
+      </c>
+      <c r="CE11">
+        <v>82</v>
+      </c>
+      <c r="CF11">
+        <v>83</v>
+      </c>
+      <c r="CG11">
+        <v>84</v>
+      </c>
+      <c r="CH11">
+        <v>85</v>
+      </c>
+      <c r="CI11">
+        <v>86</v>
+      </c>
+      <c r="CJ11">
+        <v>87</v>
+      </c>
+      <c r="CK11">
+        <v>88</v>
+      </c>
+      <c r="CL11">
+        <v>89</v>
+      </c>
+      <c r="CM11">
+        <v>90</v>
+      </c>
+      <c r="CN11">
+        <v>91</v>
+      </c>
+      <c r="CO11">
+        <v>92</v>
+      </c>
+      <c r="CP11">
+        <v>93</v>
+      </c>
+      <c r="CQ11">
+        <v>94</v>
+      </c>
+      <c r="CR11">
+        <v>95</v>
+      </c>
+      <c r="CS11">
+        <v>96</v>
+      </c>
+      <c r="CT11">
+        <v>97</v>
+      </c>
+      <c r="CU11">
+        <v>98</v>
+      </c>
+      <c r="CV11">
+        <v>99</v>
+      </c>
+      <c r="CW11">
+        <v>100</v>
+      </c>
+      <c r="CX11">
+        <v>101</v>
+      </c>
+      <c r="CY11">
+        <v>102</v>
+      </c>
+      <c r="CZ11">
+        <v>103</v>
+      </c>
+      <c r="DA11">
+        <v>104</v>
+      </c>
+      <c r="DB11">
+        <v>105</v>
+      </c>
+      <c r="DC11">
+        <v>106</v>
+      </c>
+      <c r="DD11">
+        <v>107</v>
+      </c>
+      <c r="DE11">
+        <v>108</v>
+      </c>
+      <c r="DF11">
+        <v>109</v>
+      </c>
+      <c r="DG11">
+        <v>110</v>
+      </c>
+      <c r="DH11">
+        <v>111</v>
+      </c>
+      <c r="DI11">
+        <v>112</v>
+      </c>
+      <c r="DJ11">
+        <v>113</v>
+      </c>
+      <c r="DK11">
+        <v>114</v>
+      </c>
+      <c r="DL11">
+        <v>115</v>
+      </c>
+      <c r="DM11">
+        <v>116</v>
+      </c>
+      <c r="DN11">
+        <v>117</v>
+      </c>
+      <c r="DO11">
+        <v>118</v>
+      </c>
+      <c r="DP11">
+        <v>119</v>
+      </c>
+      <c r="DQ11">
+        <v>120</v>
+      </c>
+      <c r="DR11">
+        <v>121</v>
+      </c>
+      <c r="DS11">
+        <v>122</v>
+      </c>
+      <c r="DT11">
+        <v>123</v>
+      </c>
+      <c r="DU11">
+        <v>124</v>
+      </c>
+      <c r="DV11">
+        <v>125</v>
+      </c>
+      <c r="DW11">
+        <v>126</v>
+      </c>
+      <c r="DX11">
+        <v>127</v>
+      </c>
+      <c r="DY11">
+        <v>128</v>
+      </c>
+      <c r="DZ11">
+        <v>129</v>
+      </c>
+      <c r="EA11">
+        <v>130</v>
+      </c>
+      <c r="EB11">
+        <v>131</v>
+      </c>
+      <c r="EC11">
+        <v>132</v>
+      </c>
+      <c r="ED11">
+        <v>133</v>
+      </c>
+      <c r="EE11">
+        <v>134</v>
+      </c>
+      <c r="EF11">
+        <v>135</v>
+      </c>
+      <c r="EG11">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="DY1:EB1"/>
-    <mergeCell ref="EC1:EG1"/>
-    <mergeCell ref="DC1:DI1"/>
-    <mergeCell ref="DJ1:DL1"/>
-    <mergeCell ref="DM1:DO1"/>
-    <mergeCell ref="DP1:DR1"/>
-    <mergeCell ref="DS1:DU1"/>
-    <mergeCell ref="DV1:DX1"/>
     <mergeCell ref="CW1:DB1"/>
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="AA1:AE1"/>
@@ -2050,6 +2455,14 @@
     <mergeCell ref="BT1:CG1"/>
     <mergeCell ref="CH1:CL1"/>
     <mergeCell ref="CM1:CV1"/>
+    <mergeCell ref="DY1:EB1"/>
+    <mergeCell ref="EC1:EG1"/>
+    <mergeCell ref="DC1:DI1"/>
+    <mergeCell ref="DJ1:DL1"/>
+    <mergeCell ref="DM1:DO1"/>
+    <mergeCell ref="DP1:DR1"/>
+    <mergeCell ref="DS1:DU1"/>
+    <mergeCell ref="DV1:DX1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SITA Project/File/file.xlsx
+++ b/SITA Project/File/file.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Telkom\SITA Project\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PROJECT\Telkom\SITA Project\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -732,32 +732,11 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -766,6 +745,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,11 +765,26 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,9 +1068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DS1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="DA3" sqref="DA3"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,182 +1123,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="36" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="37" t="s">
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="34" t="s">
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="38" t="s">
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="39" t="s">
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="39"/>
-      <c r="BC1" s="39"/>
-      <c r="BD1" s="39"/>
-      <c r="BE1" s="39"/>
-      <c r="BF1" s="39"/>
-      <c r="BG1" s="39"/>
-      <c r="BH1" s="39"/>
-      <c r="BI1" s="39"/>
-      <c r="BJ1" s="40" t="s">
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="48"/>
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48"/>
+      <c r="BG1" s="48"/>
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="48"/>
+      <c r="BJ1" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="BK1" s="40"/>
-      <c r="BL1" s="40"/>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="40"/>
-      <c r="BP1" s="34" t="s">
+      <c r="BK1" s="49"/>
+      <c r="BL1" s="49"/>
+      <c r="BM1" s="49"/>
+      <c r="BN1" s="49"/>
+      <c r="BO1" s="49"/>
+      <c r="BP1" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="BQ1" s="34"/>
-      <c r="BR1" s="34"/>
-      <c r="BS1" s="34"/>
-      <c r="BT1" s="41" t="s">
+      <c r="BQ1" s="45"/>
+      <c r="BR1" s="45"/>
+      <c r="BS1" s="45"/>
+      <c r="BT1" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="BU1" s="41"/>
-      <c r="BV1" s="41"/>
-      <c r="BW1" s="41"/>
-      <c r="BX1" s="41"/>
-      <c r="BY1" s="41"/>
-      <c r="BZ1" s="41"/>
-      <c r="CA1" s="41"/>
-      <c r="CB1" s="41"/>
-      <c r="CC1" s="41"/>
-      <c r="CD1" s="41"/>
-      <c r="CE1" s="41"/>
-      <c r="CF1" s="41"/>
-      <c r="CG1" s="41"/>
-      <c r="CH1" s="42" t="s">
+      <c r="BU1" s="50"/>
+      <c r="BV1" s="50"/>
+      <c r="BW1" s="50"/>
+      <c r="BX1" s="50"/>
+      <c r="BY1" s="50"/>
+      <c r="BZ1" s="50"/>
+      <c r="CA1" s="50"/>
+      <c r="CB1" s="50"/>
+      <c r="CC1" s="50"/>
+      <c r="CD1" s="50"/>
+      <c r="CE1" s="50"/>
+      <c r="CF1" s="50"/>
+      <c r="CG1" s="50"/>
+      <c r="CH1" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="CI1" s="42"/>
-      <c r="CJ1" s="42"/>
-      <c r="CK1" s="42"/>
-      <c r="CL1" s="42"/>
-      <c r="CM1" s="37" t="s">
+      <c r="CI1" s="51"/>
+      <c r="CJ1" s="51"/>
+      <c r="CK1" s="51"/>
+      <c r="CL1" s="51"/>
+      <c r="CM1" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="CN1" s="37"/>
-      <c r="CO1" s="37"/>
-      <c r="CP1" s="37"/>
-      <c r="CQ1" s="37"/>
-      <c r="CR1" s="37"/>
-      <c r="CS1" s="37"/>
-      <c r="CT1" s="37"/>
-      <c r="CU1" s="37"/>
-      <c r="CV1" s="37"/>
-      <c r="CW1" s="34" t="s">
+      <c r="CN1" s="47"/>
+      <c r="CO1" s="47"/>
+      <c r="CP1" s="47"/>
+      <c r="CQ1" s="47"/>
+      <c r="CR1" s="47"/>
+      <c r="CS1" s="47"/>
+      <c r="CT1" s="47"/>
+      <c r="CU1" s="47"/>
+      <c r="CV1" s="47"/>
+      <c r="CW1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="CX1" s="34"/>
-      <c r="CY1" s="34"/>
-      <c r="CZ1" s="34"/>
-      <c r="DA1" s="34"/>
-      <c r="DB1" s="36" t="s">
+      <c r="CX1" s="45"/>
+      <c r="CY1" s="45"/>
+      <c r="CZ1" s="45"/>
+      <c r="DA1" s="45"/>
+      <c r="DB1" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="DC1" s="36"/>
-      <c r="DD1" s="36"/>
-      <c r="DE1" s="36"/>
-      <c r="DF1" s="36"/>
-      <c r="DG1" s="36"/>
-      <c r="DH1" s="36"/>
-      <c r="DI1" s="38" t="s">
+      <c r="DC1" s="39"/>
+      <c r="DD1" s="39"/>
+      <c r="DE1" s="39"/>
+      <c r="DF1" s="39"/>
+      <c r="DG1" s="39"/>
+      <c r="DH1" s="39"/>
+      <c r="DI1" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="DJ1" s="38"/>
-      <c r="DK1" s="38"/>
-      <c r="DL1" s="46" t="s">
+      <c r="DJ1" s="40"/>
+      <c r="DK1" s="40"/>
+      <c r="DL1" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="DM1" s="46"/>
-      <c r="DN1" s="46"/>
-      <c r="DO1" s="47" t="s">
+      <c r="DM1" s="41"/>
+      <c r="DN1" s="41"/>
+      <c r="DO1" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="DP1" s="47"/>
-      <c r="DQ1" s="47"/>
-      <c r="DR1" s="48" t="s">
+      <c r="DP1" s="42"/>
+      <c r="DQ1" s="42"/>
+      <c r="DR1" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="DS1" s="48"/>
-      <c r="DT1" s="48"/>
-      <c r="DU1" s="49" t="s">
+      <c r="DS1" s="43"/>
+      <c r="DT1" s="43"/>
+      <c r="DU1" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="DV1" s="49"/>
-      <c r="DW1" s="49"/>
-      <c r="DX1" s="43" t="s">
+      <c r="DV1" s="44"/>
+      <c r="DW1" s="44"/>
+      <c r="DX1" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="DY1" s="43"/>
-      <c r="DZ1" s="43"/>
-      <c r="EA1" s="43"/>
-      <c r="EB1" s="44" t="s">
+      <c r="DY1" s="36"/>
+      <c r="DZ1" s="36"/>
+      <c r="EA1" s="36"/>
+      <c r="EB1" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="EC1" s="45"/>
-      <c r="ED1" s="45"/>
-      <c r="EE1" s="45"/>
-      <c r="EF1" s="45"/>
+      <c r="EC1" s="38"/>
+      <c r="ED1" s="38"/>
+      <c r="EE1" s="38"/>
+      <c r="EF1" s="38"/>
     </row>
     <row r="2" spans="1:16384" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1719,12 +1719,12 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="35" t="s">
         <v>149</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="35" t="s">
         <v>149</v>
       </c>
       <c r="K3" s="18" t="s">
@@ -1759,15 +1759,15 @@
       <c r="X3" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="Y3" s="50" t="s">
+      <c r="Y3" s="34" t="s">
         <v>151</v>
       </c>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="50" t="s">
+      <c r="AA3" s="34" t="s">
         <v>151</v>
       </c>
       <c r="AB3" s="16"/>
-      <c r="AC3" s="50" t="s">
+      <c r="AC3" s="34" t="s">
         <v>151</v>
       </c>
       <c r="AD3" s="16"/>
@@ -1797,16 +1797,16 @@
         <v>146</v>
       </c>
       <c r="AN3" s="16"/>
-      <c r="AO3" s="50" t="s">
+      <c r="AO3" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="AP3" s="50" t="s">
+      <c r="AP3" s="34" t="s">
         <v>151</v>
       </c>
       <c r="AQ3" s="16"/>
       <c r="AR3" s="16"/>
       <c r="AS3" s="16"/>
-      <c r="AT3" s="50" t="s">
+      <c r="AT3" s="34" t="s">
         <v>153</v>
       </c>
       <c r="AU3" s="16"/>
@@ -1940,39 +1940,39 @@
       <c r="CM3" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="CN3" s="50" t="s">
+      <c r="CN3" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="CO3" s="50" t="s">
+      <c r="CO3" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="CP3" s="50" t="s">
+      <c r="CP3" s="34" t="s">
         <v>151</v>
       </c>
       <c r="CQ3" s="20" t="s">
         <v>146</v>
       </c>
       <c r="CR3" s="16"/>
-      <c r="CS3" s="50" t="s">
+      <c r="CS3" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="CT3" s="50" t="s">
+      <c r="CT3" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="CU3" s="50" t="s">
+      <c r="CU3" s="34" t="s">
         <v>154</v>
       </c>
       <c r="CV3" s="16"/>
       <c r="CW3" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="CX3" s="50" t="s">
+      <c r="CX3" s="34" t="s">
         <v>151</v>
       </c>
       <c r="CY3" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="CZ3" s="50" t="s">
+      <c r="CZ3" s="34" t="s">
         <v>154</v>
       </c>
       <c r="DA3" s="16"/>
@@ -2053,6 +2053,416 @@
       <c r="ED3" s="16"/>
       <c r="EE3" s="16"/>
       <c r="EF3" s="16"/>
+    </row>
+    <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4">
+        <v>13</v>
+      </c>
+      <c r="O4">
+        <v>14</v>
+      </c>
+      <c r="P4">
+        <v>15</v>
+      </c>
+      <c r="Q4">
+        <v>16</v>
+      </c>
+      <c r="R4">
+        <v>17</v>
+      </c>
+      <c r="S4">
+        <v>18</v>
+      </c>
+      <c r="T4">
+        <v>19</v>
+      </c>
+      <c r="U4">
+        <v>20</v>
+      </c>
+      <c r="V4">
+        <v>21</v>
+      </c>
+      <c r="W4">
+        <v>22</v>
+      </c>
+      <c r="X4">
+        <v>23</v>
+      </c>
+      <c r="Y4">
+        <v>24</v>
+      </c>
+      <c r="Z4">
+        <v>25</v>
+      </c>
+      <c r="AA4">
+        <v>26</v>
+      </c>
+      <c r="AB4">
+        <v>27</v>
+      </c>
+      <c r="AC4">
+        <v>28</v>
+      </c>
+      <c r="AD4">
+        <v>29</v>
+      </c>
+      <c r="AE4">
+        <v>30</v>
+      </c>
+      <c r="AF4">
+        <v>31</v>
+      </c>
+      <c r="AG4">
+        <v>32</v>
+      </c>
+      <c r="AH4">
+        <v>33</v>
+      </c>
+      <c r="AI4">
+        <v>34</v>
+      </c>
+      <c r="AJ4">
+        <v>35</v>
+      </c>
+      <c r="AK4">
+        <v>36</v>
+      </c>
+      <c r="AL4">
+        <v>37</v>
+      </c>
+      <c r="AM4">
+        <v>38</v>
+      </c>
+      <c r="AN4">
+        <v>39</v>
+      </c>
+      <c r="AO4">
+        <v>40</v>
+      </c>
+      <c r="AP4">
+        <v>41</v>
+      </c>
+      <c r="AQ4">
+        <v>42</v>
+      </c>
+      <c r="AR4">
+        <v>43</v>
+      </c>
+      <c r="AS4">
+        <v>44</v>
+      </c>
+      <c r="AT4">
+        <v>45</v>
+      </c>
+      <c r="AU4">
+        <v>46</v>
+      </c>
+      <c r="AV4">
+        <v>47</v>
+      </c>
+      <c r="AW4">
+        <v>48</v>
+      </c>
+      <c r="AX4">
+        <v>49</v>
+      </c>
+      <c r="AY4">
+        <v>50</v>
+      </c>
+      <c r="AZ4">
+        <v>51</v>
+      </c>
+      <c r="BA4">
+        <v>52</v>
+      </c>
+      <c r="BB4">
+        <v>53</v>
+      </c>
+      <c r="BC4">
+        <v>54</v>
+      </c>
+      <c r="BD4">
+        <v>55</v>
+      </c>
+      <c r="BE4">
+        <v>56</v>
+      </c>
+      <c r="BF4">
+        <v>57</v>
+      </c>
+      <c r="BG4">
+        <v>58</v>
+      </c>
+      <c r="BH4">
+        <v>59</v>
+      </c>
+      <c r="BI4">
+        <v>60</v>
+      </c>
+      <c r="BJ4">
+        <v>61</v>
+      </c>
+      <c r="BK4">
+        <v>62</v>
+      </c>
+      <c r="BL4">
+        <v>63</v>
+      </c>
+      <c r="BM4">
+        <v>64</v>
+      </c>
+      <c r="BN4">
+        <v>65</v>
+      </c>
+      <c r="BO4">
+        <v>66</v>
+      </c>
+      <c r="BP4">
+        <v>67</v>
+      </c>
+      <c r="BQ4">
+        <v>68</v>
+      </c>
+      <c r="BR4">
+        <v>69</v>
+      </c>
+      <c r="BS4">
+        <v>70</v>
+      </c>
+      <c r="BT4">
+        <v>71</v>
+      </c>
+      <c r="BU4">
+        <v>72</v>
+      </c>
+      <c r="BV4">
+        <v>73</v>
+      </c>
+      <c r="BW4">
+        <v>74</v>
+      </c>
+      <c r="BX4">
+        <v>75</v>
+      </c>
+      <c r="BY4">
+        <v>76</v>
+      </c>
+      <c r="BZ4">
+        <v>77</v>
+      </c>
+      <c r="CA4">
+        <v>78</v>
+      </c>
+      <c r="CB4">
+        <v>79</v>
+      </c>
+      <c r="CC4">
+        <v>80</v>
+      </c>
+      <c r="CD4">
+        <v>81</v>
+      </c>
+      <c r="CE4">
+        <v>82</v>
+      </c>
+      <c r="CF4">
+        <v>83</v>
+      </c>
+      <c r="CG4">
+        <v>84</v>
+      </c>
+      <c r="CH4">
+        <v>85</v>
+      </c>
+      <c r="CI4">
+        <v>86</v>
+      </c>
+      <c r="CJ4">
+        <v>87</v>
+      </c>
+      <c r="CK4">
+        <v>88</v>
+      </c>
+      <c r="CL4">
+        <v>89</v>
+      </c>
+      <c r="CM4">
+        <v>90</v>
+      </c>
+      <c r="CN4">
+        <v>91</v>
+      </c>
+      <c r="CO4">
+        <v>92</v>
+      </c>
+      <c r="CP4">
+        <v>93</v>
+      </c>
+      <c r="CQ4">
+        <v>94</v>
+      </c>
+      <c r="CR4">
+        <v>95</v>
+      </c>
+      <c r="CS4">
+        <v>96</v>
+      </c>
+      <c r="CT4">
+        <v>97</v>
+      </c>
+      <c r="CU4">
+        <v>98</v>
+      </c>
+      <c r="CV4">
+        <v>99</v>
+      </c>
+      <c r="CW4">
+        <v>100</v>
+      </c>
+      <c r="CX4">
+        <v>101</v>
+      </c>
+      <c r="CY4">
+        <v>102</v>
+      </c>
+      <c r="CZ4">
+        <v>103</v>
+      </c>
+      <c r="DA4">
+        <v>104</v>
+      </c>
+      <c r="DB4">
+        <v>105</v>
+      </c>
+      <c r="DC4">
+        <v>106</v>
+      </c>
+      <c r="DD4">
+        <v>107</v>
+      </c>
+      <c r="DE4">
+        <v>108</v>
+      </c>
+      <c r="DF4">
+        <v>109</v>
+      </c>
+      <c r="DG4">
+        <v>110</v>
+      </c>
+      <c r="DH4">
+        <v>111</v>
+      </c>
+      <c r="DI4">
+        <v>112</v>
+      </c>
+      <c r="DJ4">
+        <v>113</v>
+      </c>
+      <c r="DK4">
+        <v>114</v>
+      </c>
+      <c r="DL4">
+        <v>115</v>
+      </c>
+      <c r="DM4">
+        <v>116</v>
+      </c>
+      <c r="DN4">
+        <v>117</v>
+      </c>
+      <c r="DO4">
+        <v>118</v>
+      </c>
+      <c r="DP4">
+        <v>119</v>
+      </c>
+      <c r="DQ4">
+        <v>120</v>
+      </c>
+      <c r="DR4">
+        <v>121</v>
+      </c>
+      <c r="DS4">
+        <v>122</v>
+      </c>
+      <c r="DT4">
+        <v>123</v>
+      </c>
+      <c r="DU4">
+        <v>124</v>
+      </c>
+      <c r="DV4">
+        <v>125</v>
+      </c>
+      <c r="DW4">
+        <v>126</v>
+      </c>
+      <c r="DX4">
+        <v>127</v>
+      </c>
+      <c r="DY4">
+        <v>128</v>
+      </c>
+      <c r="DZ4">
+        <v>129</v>
+      </c>
+      <c r="EA4">
+        <v>130</v>
+      </c>
+      <c r="EB4">
+        <v>131</v>
+      </c>
+      <c r="EC4">
+        <v>132</v>
+      </c>
+      <c r="ED4">
+        <v>133</v>
+      </c>
+      <c r="EE4">
+        <v>134</v>
+      </c>
+      <c r="EF4">
+        <v>135</v>
+      </c>
     </row>
     <row r="6" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="C6" s="15"/>
@@ -2061,414 +2471,6 @@
       <c r="C9" s="15"/>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-      <c r="I11">
-        <v>8</v>
-      </c>
-      <c r="J11">
-        <v>9</v>
-      </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-      <c r="L11">
-        <v>11</v>
-      </c>
-      <c r="M11">
-        <v>12</v>
-      </c>
-      <c r="N11">
-        <v>13</v>
-      </c>
-      <c r="O11">
-        <v>14</v>
-      </c>
-      <c r="P11">
-        <v>15</v>
-      </c>
-      <c r="Q11">
-        <v>16</v>
-      </c>
-      <c r="R11">
-        <v>17</v>
-      </c>
-      <c r="S11">
-        <v>18</v>
-      </c>
-      <c r="T11">
-        <v>19</v>
-      </c>
-      <c r="U11">
-        <v>20</v>
-      </c>
-      <c r="V11">
-        <v>21</v>
-      </c>
-      <c r="W11">
-        <v>22</v>
-      </c>
-      <c r="X11">
-        <v>23</v>
-      </c>
-      <c r="Y11">
-        <v>24</v>
-      </c>
-      <c r="Z11">
-        <v>25</v>
-      </c>
-      <c r="AA11">
-        <v>26</v>
-      </c>
-      <c r="AB11">
-        <v>27</v>
-      </c>
-      <c r="AC11">
-        <v>28</v>
-      </c>
-      <c r="AD11">
-        <v>29</v>
-      </c>
-      <c r="AE11">
-        <v>30</v>
-      </c>
-      <c r="AF11">
-        <v>31</v>
-      </c>
-      <c r="AG11">
-        <v>32</v>
-      </c>
-      <c r="AH11">
-        <v>33</v>
-      </c>
-      <c r="AI11">
-        <v>34</v>
-      </c>
-      <c r="AJ11">
-        <v>35</v>
-      </c>
-      <c r="AK11">
-        <v>36</v>
-      </c>
-      <c r="AL11">
-        <v>37</v>
-      </c>
-      <c r="AM11">
-        <v>38</v>
-      </c>
-      <c r="AN11">
-        <v>39</v>
-      </c>
-      <c r="AO11">
-        <v>40</v>
-      </c>
-      <c r="AP11">
-        <v>41</v>
-      </c>
-      <c r="AQ11">
-        <v>42</v>
-      </c>
-      <c r="AR11">
-        <v>43</v>
-      </c>
-      <c r="AS11">
-        <v>44</v>
-      </c>
-      <c r="AT11">
-        <v>45</v>
-      </c>
-      <c r="AU11">
-        <v>46</v>
-      </c>
-      <c r="AV11">
-        <v>47</v>
-      </c>
-      <c r="AW11">
-        <v>48</v>
-      </c>
-      <c r="AX11">
-        <v>49</v>
-      </c>
-      <c r="AY11">
-        <v>50</v>
-      </c>
-      <c r="AZ11">
-        <v>51</v>
-      </c>
-      <c r="BA11">
-        <v>52</v>
-      </c>
-      <c r="BB11">
-        <v>53</v>
-      </c>
-      <c r="BC11">
-        <v>54</v>
-      </c>
-      <c r="BD11">
-        <v>55</v>
-      </c>
-      <c r="BE11">
-        <v>56</v>
-      </c>
-      <c r="BF11">
-        <v>57</v>
-      </c>
-      <c r="BG11">
-        <v>58</v>
-      </c>
-      <c r="BH11">
-        <v>59</v>
-      </c>
-      <c r="BI11">
-        <v>60</v>
-      </c>
-      <c r="BJ11">
-        <v>61</v>
-      </c>
-      <c r="BK11">
-        <v>62</v>
-      </c>
-      <c r="BL11">
-        <v>63</v>
-      </c>
-      <c r="BM11">
-        <v>64</v>
-      </c>
-      <c r="BN11">
-        <v>65</v>
-      </c>
-      <c r="BO11">
-        <v>66</v>
-      </c>
-      <c r="BP11">
-        <v>67</v>
-      </c>
-      <c r="BQ11">
-        <v>68</v>
-      </c>
-      <c r="BR11">
-        <v>69</v>
-      </c>
-      <c r="BS11">
-        <v>70</v>
-      </c>
-      <c r="BT11">
-        <v>71</v>
-      </c>
-      <c r="BU11">
-        <v>72</v>
-      </c>
-      <c r="BV11">
-        <v>73</v>
-      </c>
-      <c r="BW11">
-        <v>74</v>
-      </c>
-      <c r="BX11">
-        <v>75</v>
-      </c>
-      <c r="BY11">
-        <v>76</v>
-      </c>
-      <c r="BZ11">
-        <v>77</v>
-      </c>
-      <c r="CA11">
-        <v>78</v>
-      </c>
-      <c r="CB11">
-        <v>79</v>
-      </c>
-      <c r="CC11">
-        <v>80</v>
-      </c>
-      <c r="CD11">
-        <v>81</v>
-      </c>
-      <c r="CE11">
-        <v>82</v>
-      </c>
-      <c r="CF11">
-        <v>83</v>
-      </c>
-      <c r="CG11">
-        <v>84</v>
-      </c>
-      <c r="CH11">
-        <v>85</v>
-      </c>
-      <c r="CI11">
-        <v>86</v>
-      </c>
-      <c r="CJ11">
-        <v>87</v>
-      </c>
-      <c r="CK11">
-        <v>88</v>
-      </c>
-      <c r="CL11">
-        <v>89</v>
-      </c>
-      <c r="CM11">
-        <v>90</v>
-      </c>
-      <c r="CN11">
-        <v>91</v>
-      </c>
-      <c r="CO11">
-        <v>92</v>
-      </c>
-      <c r="CP11">
-        <v>93</v>
-      </c>
-      <c r="CQ11">
-        <v>94</v>
-      </c>
-      <c r="CR11">
-        <v>95</v>
-      </c>
-      <c r="CS11">
-        <v>96</v>
-      </c>
-      <c r="CT11">
-        <v>97</v>
-      </c>
-      <c r="CU11">
-        <v>98</v>
-      </c>
-      <c r="CV11">
-        <v>99</v>
-      </c>
-      <c r="CW11">
-        <v>100</v>
-      </c>
-      <c r="CX11">
-        <v>101</v>
-      </c>
-      <c r="CY11">
-        <v>102</v>
-      </c>
-      <c r="CZ11">
-        <v>103</v>
-      </c>
-      <c r="DA11">
-        <v>104</v>
-      </c>
-      <c r="DB11">
-        <v>105</v>
-      </c>
-      <c r="DC11">
-        <v>106</v>
-      </c>
-      <c r="DD11">
-        <v>107</v>
-      </c>
-      <c r="DE11">
-        <v>108</v>
-      </c>
-      <c r="DF11">
-        <v>109</v>
-      </c>
-      <c r="DG11">
-        <v>110</v>
-      </c>
-      <c r="DH11">
-        <v>111</v>
-      </c>
-      <c r="DI11">
-        <v>112</v>
-      </c>
-      <c r="DJ11">
-        <v>113</v>
-      </c>
-      <c r="DK11">
-        <v>114</v>
-      </c>
-      <c r="DL11">
-        <v>115</v>
-      </c>
-      <c r="DM11">
-        <v>116</v>
-      </c>
-      <c r="DN11">
-        <v>117</v>
-      </c>
-      <c r="DO11">
-        <v>118</v>
-      </c>
-      <c r="DP11">
-        <v>119</v>
-      </c>
-      <c r="DQ11">
-        <v>120</v>
-      </c>
-      <c r="DR11">
-        <v>121</v>
-      </c>
-      <c r="DS11">
-        <v>122</v>
-      </c>
-      <c r="DT11">
-        <v>123</v>
-      </c>
-      <c r="DU11">
-        <v>124</v>
-      </c>
-      <c r="DV11">
-        <v>125</v>
-      </c>
-      <c r="DW11">
-        <v>126</v>
-      </c>
-      <c r="DX11">
-        <v>127</v>
-      </c>
-      <c r="DY11">
-        <v>128</v>
-      </c>
-      <c r="DZ11">
-        <v>129</v>
-      </c>
-      <c r="EA11">
-        <v>130</v>
-      </c>
-      <c r="EB11">
-        <v>131</v>
-      </c>
-      <c r="EC11">
-        <v>132</v>
-      </c>
-      <c r="ED11">
-        <v>133</v>
-      </c>
-      <c r="EE11">
-        <v>134</v>
-      </c>
-      <c r="EF11">
-        <v>135</v>
-      </c>
       <c r="EG11">
         <v>136</v>
       </c>
@@ -51216,14 +51218,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="DX1:EA1"/>
-    <mergeCell ref="EB1:EF1"/>
-    <mergeCell ref="DB1:DH1"/>
-    <mergeCell ref="DI1:DK1"/>
-    <mergeCell ref="DL1:DN1"/>
-    <mergeCell ref="DO1:DQ1"/>
-    <mergeCell ref="DR1:DT1"/>
-    <mergeCell ref="DU1:DW1"/>
     <mergeCell ref="CW1:DA1"/>
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="AA1:AE1"/>
@@ -51236,6 +51230,14 @@
     <mergeCell ref="BT1:CG1"/>
     <mergeCell ref="CH1:CL1"/>
     <mergeCell ref="CM1:CV1"/>
+    <mergeCell ref="DX1:EA1"/>
+    <mergeCell ref="EB1:EF1"/>
+    <mergeCell ref="DB1:DH1"/>
+    <mergeCell ref="DI1:DK1"/>
+    <mergeCell ref="DL1:DN1"/>
+    <mergeCell ref="DO1:DQ1"/>
+    <mergeCell ref="DR1:DT1"/>
+    <mergeCell ref="DU1:DW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SITA Project/File/file.xlsx
+++ b/SITA Project/File/file.xlsx
@@ -738,6 +738,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -745,12 +772,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -763,27 +784,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1068,9 +1068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,54 +1123,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="39" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="47" t="s">
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="45" t="s">
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
       <c r="AO1" s="40" t="s">
         <v>53</v>
       </c>
@@ -1182,123 +1182,123 @@
       <c r="AU1" s="40"/>
       <c r="AV1" s="40"/>
       <c r="AW1" s="40"/>
-      <c r="AX1" s="48" t="s">
+      <c r="AX1" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="48"/>
-      <c r="BA1" s="48"/>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="48"/>
-      <c r="BD1" s="48"/>
-      <c r="BE1" s="48"/>
-      <c r="BF1" s="48"/>
-      <c r="BG1" s="48"/>
-      <c r="BH1" s="48"/>
-      <c r="BI1" s="48"/>
-      <c r="BJ1" s="49" t="s">
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="41"/>
+      <c r="BB1" s="41"/>
+      <c r="BC1" s="41"/>
+      <c r="BD1" s="41"/>
+      <c r="BE1" s="41"/>
+      <c r="BF1" s="41"/>
+      <c r="BG1" s="41"/>
+      <c r="BH1" s="41"/>
+      <c r="BI1" s="41"/>
+      <c r="BJ1" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="BK1" s="49"/>
-      <c r="BL1" s="49"/>
-      <c r="BM1" s="49"/>
-      <c r="BN1" s="49"/>
-      <c r="BO1" s="49"/>
-      <c r="BP1" s="45" t="s">
+      <c r="BK1" s="42"/>
+      <c r="BL1" s="42"/>
+      <c r="BM1" s="42"/>
+      <c r="BN1" s="42"/>
+      <c r="BO1" s="42"/>
+      <c r="BP1" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="BQ1" s="45"/>
-      <c r="BR1" s="45"/>
-      <c r="BS1" s="45"/>
-      <c r="BT1" s="50" t="s">
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="BU1" s="50"/>
-      <c r="BV1" s="50"/>
-      <c r="BW1" s="50"/>
-      <c r="BX1" s="50"/>
-      <c r="BY1" s="50"/>
-      <c r="BZ1" s="50"/>
-      <c r="CA1" s="50"/>
-      <c r="CB1" s="50"/>
-      <c r="CC1" s="50"/>
-      <c r="CD1" s="50"/>
-      <c r="CE1" s="50"/>
-      <c r="CF1" s="50"/>
-      <c r="CG1" s="50"/>
-      <c r="CH1" s="51" t="s">
+      <c r="BU1" s="43"/>
+      <c r="BV1" s="43"/>
+      <c r="BW1" s="43"/>
+      <c r="BX1" s="43"/>
+      <c r="BY1" s="43"/>
+      <c r="BZ1" s="43"/>
+      <c r="CA1" s="43"/>
+      <c r="CB1" s="43"/>
+      <c r="CC1" s="43"/>
+      <c r="CD1" s="43"/>
+      <c r="CE1" s="43"/>
+      <c r="CF1" s="43"/>
+      <c r="CG1" s="43"/>
+      <c r="CH1" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="CI1" s="51"/>
-      <c r="CJ1" s="51"/>
-      <c r="CK1" s="51"/>
-      <c r="CL1" s="51"/>
-      <c r="CM1" s="47" t="s">
+      <c r="CI1" s="44"/>
+      <c r="CJ1" s="44"/>
+      <c r="CK1" s="44"/>
+      <c r="CL1" s="44"/>
+      <c r="CM1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="CN1" s="47"/>
-      <c r="CO1" s="47"/>
-      <c r="CP1" s="47"/>
-      <c r="CQ1" s="47"/>
-      <c r="CR1" s="47"/>
-      <c r="CS1" s="47"/>
-      <c r="CT1" s="47"/>
-      <c r="CU1" s="47"/>
-      <c r="CV1" s="47"/>
-      <c r="CW1" s="45" t="s">
+      <c r="CN1" s="39"/>
+      <c r="CO1" s="39"/>
+      <c r="CP1" s="39"/>
+      <c r="CQ1" s="39"/>
+      <c r="CR1" s="39"/>
+      <c r="CS1" s="39"/>
+      <c r="CT1" s="39"/>
+      <c r="CU1" s="39"/>
+      <c r="CV1" s="39"/>
+      <c r="CW1" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="CX1" s="45"/>
-      <c r="CY1" s="45"/>
-      <c r="CZ1" s="45"/>
-      <c r="DA1" s="45"/>
-      <c r="DB1" s="39" t="s">
+      <c r="CX1" s="36"/>
+      <c r="CY1" s="36"/>
+      <c r="CZ1" s="36"/>
+      <c r="DA1" s="36"/>
+      <c r="DB1" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="DC1" s="39"/>
-      <c r="DD1" s="39"/>
-      <c r="DE1" s="39"/>
-      <c r="DF1" s="39"/>
-      <c r="DG1" s="39"/>
-      <c r="DH1" s="39"/>
+      <c r="DC1" s="38"/>
+      <c r="DD1" s="38"/>
+      <c r="DE1" s="38"/>
+      <c r="DF1" s="38"/>
+      <c r="DG1" s="38"/>
+      <c r="DH1" s="38"/>
       <c r="DI1" s="40" t="s">
         <v>126</v>
       </c>
       <c r="DJ1" s="40"/>
       <c r="DK1" s="40"/>
-      <c r="DL1" s="41" t="s">
+      <c r="DL1" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="DM1" s="41"/>
-      <c r="DN1" s="41"/>
-      <c r="DO1" s="42" t="s">
+      <c r="DM1" s="48"/>
+      <c r="DN1" s="48"/>
+      <c r="DO1" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="DP1" s="42"/>
-      <c r="DQ1" s="42"/>
-      <c r="DR1" s="43" t="s">
+      <c r="DP1" s="49"/>
+      <c r="DQ1" s="49"/>
+      <c r="DR1" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="DS1" s="43"/>
-      <c r="DT1" s="43"/>
-      <c r="DU1" s="44" t="s">
+      <c r="DS1" s="50"/>
+      <c r="DT1" s="50"/>
+      <c r="DU1" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="DV1" s="44"/>
-      <c r="DW1" s="44"/>
-      <c r="DX1" s="36" t="s">
+      <c r="DV1" s="51"/>
+      <c r="DW1" s="51"/>
+      <c r="DX1" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="DY1" s="36"/>
-      <c r="DZ1" s="36"/>
-      <c r="EA1" s="36"/>
-      <c r="EB1" s="37" t="s">
+      <c r="DY1" s="45"/>
+      <c r="DZ1" s="45"/>
+      <c r="EA1" s="45"/>
+      <c r="EB1" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="EC1" s="38"/>
-      <c r="ED1" s="38"/>
-      <c r="EE1" s="38"/>
-      <c r="EF1" s="38"/>
+      <c r="EC1" s="47"/>
+      <c r="ED1" s="47"/>
+      <c r="EE1" s="47"/>
+      <c r="EF1" s="47"/>
     </row>
     <row r="2" spans="1:16384" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -51218,6 +51218,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="DX1:EA1"/>
+    <mergeCell ref="EB1:EF1"/>
+    <mergeCell ref="DB1:DH1"/>
+    <mergeCell ref="DI1:DK1"/>
+    <mergeCell ref="DL1:DN1"/>
+    <mergeCell ref="DO1:DQ1"/>
+    <mergeCell ref="DR1:DT1"/>
+    <mergeCell ref="DU1:DW1"/>
     <mergeCell ref="CW1:DA1"/>
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="AA1:AE1"/>
@@ -51230,14 +51238,6 @@
     <mergeCell ref="BT1:CG1"/>
     <mergeCell ref="CH1:CL1"/>
     <mergeCell ref="CM1:CV1"/>
-    <mergeCell ref="DX1:EA1"/>
-    <mergeCell ref="EB1:EF1"/>
-    <mergeCell ref="DB1:DH1"/>
-    <mergeCell ref="DI1:DK1"/>
-    <mergeCell ref="DL1:DN1"/>
-    <mergeCell ref="DO1:DQ1"/>
-    <mergeCell ref="DR1:DT1"/>
-    <mergeCell ref="DU1:DW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SITA Project/File/file.xlsx
+++ b/SITA Project/File/file.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rigold NAINGGOLAN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Telkomsel\SITA Project\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="163">
   <si>
     <t>INFORMASI SITE</t>
   </si>
@@ -502,11 +502,23 @@
   <si>
     <t>Tanggal Keluar PKS</t>
   </si>
+  <si>
+    <t>Comcase No. FPP</t>
+  </si>
+  <si>
+    <t>Comcase Kelengkapan Dokumen</t>
+  </si>
+  <si>
+    <t>Comcase Total Biaya</t>
+  </si>
+  <si>
+    <t>Comcase Status Pembayaran</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
@@ -747,7 +759,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -926,25 +938,10 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -954,6 +951,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -971,10 +974,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1310,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EK345"/>
+  <dimension ref="A1:EP345"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="EA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="EO4" sqref="EL4:EO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,196 +1465,201 @@
     <col min="134" max="134" width="6.42578125" style="40" bestFit="1" customWidth="1"/>
     <col min="135" max="135" width="12.28515625" style="40" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="13.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="16.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="19.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="14.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="14.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="14.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="142" max="16384" width="9.140625" style="5" hidden="1"/>
+    <col min="137" max="141" width="13.5703125" style="40" customWidth="1"/>
+    <col min="142" max="142" width="16.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="19.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="14.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="14.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="14.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="147" max="16384" width="9.140625" style="5" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:141" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:146" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="67" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="61" t="s">
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="62" t="s">
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="62"/>
-      <c r="BA1" s="62"/>
-      <c r="BB1" s="62"/>
-      <c r="BC1" s="62"/>
-      <c r="BD1" s="63" t="s">
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="66"/>
+      <c r="BD1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="63"/>
-      <c r="BG1" s="63"/>
-      <c r="BH1" s="63"/>
-      <c r="BI1" s="63"/>
-      <c r="BJ1" s="63"/>
-      <c r="BK1" s="63"/>
-      <c r="BL1" s="63"/>
-      <c r="BM1" s="63"/>
-      <c r="BN1" s="63"/>
-      <c r="BO1" s="63"/>
-      <c r="BP1" s="74" t="s">
+      <c r="BE1" s="65"/>
+      <c r="BF1" s="65"/>
+      <c r="BG1" s="65"/>
+      <c r="BH1" s="65"/>
+      <c r="BI1" s="65"/>
+      <c r="BJ1" s="65"/>
+      <c r="BK1" s="65"/>
+      <c r="BL1" s="65"/>
+      <c r="BM1" s="65"/>
+      <c r="BN1" s="65"/>
+      <c r="BO1" s="65"/>
+      <c r="BP1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="74"/>
-      <c r="BR1" s="74"/>
-      <c r="BS1" s="74"/>
-      <c r="BT1" s="74"/>
-      <c r="BU1" s="74"/>
-      <c r="BV1" s="61" t="s">
+      <c r="BQ1" s="71"/>
+      <c r="BR1" s="71"/>
+      <c r="BS1" s="71"/>
+      <c r="BT1" s="71"/>
+      <c r="BU1" s="71"/>
+      <c r="BV1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="BW1" s="61"/>
-      <c r="BX1" s="61"/>
-      <c r="BY1" s="61"/>
-      <c r="BZ1" s="75" t="s">
+      <c r="BW1" s="72"/>
+      <c r="BX1" s="72"/>
+      <c r="BY1" s="72"/>
+      <c r="BZ1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="CA1" s="75"/>
-      <c r="CB1" s="75"/>
-      <c r="CC1" s="75"/>
-      <c r="CD1" s="75"/>
-      <c r="CE1" s="75"/>
-      <c r="CF1" s="75"/>
-      <c r="CG1" s="75"/>
-      <c r="CH1" s="75"/>
-      <c r="CI1" s="75"/>
-      <c r="CJ1" s="75"/>
-      <c r="CK1" s="75"/>
-      <c r="CL1" s="75"/>
-      <c r="CM1" s="75"/>
-      <c r="CN1" s="76" t="s">
+      <c r="CA1" s="73"/>
+      <c r="CB1" s="73"/>
+      <c r="CC1" s="73"/>
+      <c r="CD1" s="73"/>
+      <c r="CE1" s="73"/>
+      <c r="CF1" s="73"/>
+      <c r="CG1" s="73"/>
+      <c r="CH1" s="73"/>
+      <c r="CI1" s="73"/>
+      <c r="CJ1" s="73"/>
+      <c r="CK1" s="73"/>
+      <c r="CL1" s="73"/>
+      <c r="CM1" s="73"/>
+      <c r="CN1" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="CO1" s="76"/>
-      <c r="CP1" s="76"/>
-      <c r="CQ1" s="76"/>
-      <c r="CR1" s="74" t="s">
+      <c r="CO1" s="74"/>
+      <c r="CP1" s="74"/>
+      <c r="CQ1" s="74"/>
+      <c r="CR1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="CS1" s="74"/>
-      <c r="CT1" s="74"/>
-      <c r="CU1" s="74"/>
-      <c r="CV1" s="74"/>
-      <c r="CW1" s="74"/>
-      <c r="CX1" s="74"/>
-      <c r="CY1" s="74"/>
-      <c r="CZ1" s="74"/>
-      <c r="DA1" s="74"/>
-      <c r="DB1" s="61" t="s">
+      <c r="CS1" s="71"/>
+      <c r="CT1" s="71"/>
+      <c r="CU1" s="71"/>
+      <c r="CV1" s="71"/>
+      <c r="CW1" s="71"/>
+      <c r="CX1" s="71"/>
+      <c r="CY1" s="71"/>
+      <c r="CZ1" s="71"/>
+      <c r="DA1" s="71"/>
+      <c r="DB1" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="DC1" s="61"/>
-      <c r="DD1" s="61"/>
-      <c r="DE1" s="61"/>
-      <c r="DF1" s="61"/>
-      <c r="DG1" s="63" t="s">
+      <c r="DC1" s="72"/>
+      <c r="DD1" s="72"/>
+      <c r="DE1" s="72"/>
+      <c r="DF1" s="72"/>
+      <c r="DG1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="DH1" s="63"/>
-      <c r="DI1" s="63"/>
-      <c r="DJ1" s="63"/>
-      <c r="DK1" s="63"/>
-      <c r="DL1" s="63"/>
-      <c r="DM1" s="63"/>
-      <c r="DN1" s="62" t="s">
+      <c r="DH1" s="65"/>
+      <c r="DI1" s="65"/>
+      <c r="DJ1" s="65"/>
+      <c r="DK1" s="65"/>
+      <c r="DL1" s="65"/>
+      <c r="DM1" s="65"/>
+      <c r="DN1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="DO1" s="62"/>
-      <c r="DP1" s="62"/>
-      <c r="DQ1" s="70" t="s">
+      <c r="DO1" s="66"/>
+      <c r="DP1" s="66"/>
+      <c r="DQ1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="DR1" s="70"/>
-      <c r="DS1" s="70"/>
-      <c r="DT1" s="71" t="s">
+      <c r="DR1" s="67"/>
+      <c r="DS1" s="67"/>
+      <c r="DT1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="DU1" s="71"/>
-      <c r="DV1" s="71"/>
-      <c r="DW1" s="72" t="s">
+      <c r="DU1" s="68"/>
+      <c r="DV1" s="68"/>
+      <c r="DW1" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="DX1" s="72"/>
-      <c r="DY1" s="72"/>
-      <c r="DZ1" s="73" t="s">
+      <c r="DX1" s="69"/>
+      <c r="DY1" s="69"/>
+      <c r="DZ1" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="EA1" s="73"/>
-      <c r="EB1" s="73"/>
-      <c r="EC1" s="64" t="s">
+      <c r="EA1" s="70"/>
+      <c r="EB1" s="70"/>
+      <c r="EC1" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="ED1" s="64"/>
-      <c r="EE1" s="64"/>
-      <c r="EF1" s="64"/>
-      <c r="EG1" s="65" t="s">
+      <c r="ED1" s="76"/>
+      <c r="EE1" s="76"/>
+      <c r="EF1" s="76"/>
+      <c r="EG1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="EH1" s="66"/>
-      <c r="EI1" s="66"/>
-      <c r="EJ1" s="66"/>
-      <c r="EK1" s="66"/>
-    </row>
-    <row r="2" spans="1:141" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="EH1" s="61"/>
+      <c r="EI1" s="61"/>
+      <c r="EJ1" s="61"/>
+      <c r="EK1" s="61"/>
+      <c r="EL1" s="61"/>
+      <c r="EM1" s="61"/>
+      <c r="EN1" s="61"/>
+      <c r="EO1" s="61"/>
+    </row>
+    <row r="2" spans="1:146" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -2063,8 +2083,20 @@
       <c r="EK2" s="26" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:141" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="EL2" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="EM2" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="EN2" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="EO2" s="60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:146" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>142</v>
       </c>
@@ -2418,8 +2450,12 @@
       <c r="EI3" s="1"/>
       <c r="EJ3" s="1"/>
       <c r="EK3" s="1"/>
-    </row>
-    <row r="4" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="EL3" s="77"/>
+      <c r="EM3" s="77"/>
+      <c r="EN3" s="77"/>
+      <c r="EO3" s="77"/>
+    </row>
+    <row r="4" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -2843,8 +2879,20 @@
       <c r="EK4" s="5">
         <v>140</v>
       </c>
-    </row>
-    <row r="5" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL4" s="40">
+        <v>141</v>
+      </c>
+      <c r="EM4" s="40">
+        <v>142</v>
+      </c>
+      <c r="EN4" s="40">
+        <v>143</v>
+      </c>
+      <c r="EO4" s="40">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -2981,13 +3029,18 @@
       <c r="ED5" s="40"/>
       <c r="EE5" s="41"/>
       <c r="EF5" s="40"/>
-      <c r="EG5" s="41"/>
-      <c r="EH5" s="32"/>
+      <c r="EG5" s="40"/>
+      <c r="EH5" s="40"/>
       <c r="EI5" s="40"/>
       <c r="EJ5" s="40"/>
       <c r="EK5" s="40"/>
-    </row>
-    <row r="6" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL5" s="41"/>
+      <c r="EM5" s="32"/>
+      <c r="EN5" s="40"/>
+      <c r="EO5" s="40"/>
+      <c r="EP5" s="40"/>
+    </row>
+    <row r="6" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -3124,13 +3177,18 @@
       <c r="ED6" s="40"/>
       <c r="EE6" s="41"/>
       <c r="EF6" s="40"/>
-      <c r="EG6" s="41"/>
-      <c r="EH6" s="32"/>
+      <c r="EG6" s="40"/>
+      <c r="EH6" s="40"/>
       <c r="EI6" s="40"/>
       <c r="EJ6" s="40"/>
       <c r="EK6" s="40"/>
-    </row>
-    <row r="7" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL6" s="41"/>
+      <c r="EM6" s="32"/>
+      <c r="EN6" s="40"/>
+      <c r="EO6" s="40"/>
+      <c r="EP6" s="40"/>
+    </row>
+    <row r="7" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -3268,12 +3326,17 @@
       <c r="EE7" s="40"/>
       <c r="EF7" s="40"/>
       <c r="EG7" s="40"/>
-      <c r="EH7" s="32"/>
+      <c r="EH7" s="40"/>
       <c r="EI7" s="40"/>
       <c r="EJ7" s="40"/>
       <c r="EK7" s="40"/>
-    </row>
-    <row r="8" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL7" s="40"/>
+      <c r="EM7" s="32"/>
+      <c r="EN7" s="40"/>
+      <c r="EO7" s="40"/>
+      <c r="EP7" s="40"/>
+    </row>
+    <row r="8" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -3411,12 +3474,17 @@
       <c r="EE8" s="40"/>
       <c r="EF8" s="40"/>
       <c r="EG8" s="40"/>
-      <c r="EH8" s="32"/>
+      <c r="EH8" s="40"/>
       <c r="EI8" s="40"/>
       <c r="EJ8" s="40"/>
       <c r="EK8" s="40"/>
-    </row>
-    <row r="9" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL8" s="40"/>
+      <c r="EM8" s="32"/>
+      <c r="EN8" s="40"/>
+      <c r="EO8" s="40"/>
+      <c r="EP8" s="40"/>
+    </row>
+    <row r="9" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -3554,12 +3622,17 @@
       <c r="EE9" s="40"/>
       <c r="EF9" s="40"/>
       <c r="EG9" s="40"/>
-      <c r="EH9" s="32"/>
+      <c r="EH9" s="40"/>
       <c r="EI9" s="40"/>
       <c r="EJ9" s="40"/>
       <c r="EK9" s="40"/>
-    </row>
-    <row r="10" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL9" s="40"/>
+      <c r="EM9" s="32"/>
+      <c r="EN9" s="40"/>
+      <c r="EO9" s="40"/>
+      <c r="EP9" s="40"/>
+    </row>
+    <row r="10" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -3697,12 +3770,17 @@
       <c r="EE10" s="40"/>
       <c r="EF10" s="40"/>
       <c r="EG10" s="40"/>
-      <c r="EH10" s="32"/>
+      <c r="EH10" s="40"/>
       <c r="EI10" s="40"/>
       <c r="EJ10" s="40"/>
       <c r="EK10" s="40"/>
-    </row>
-    <row r="11" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL10" s="40"/>
+      <c r="EM10" s="32"/>
+      <c r="EN10" s="40"/>
+      <c r="EO10" s="40"/>
+      <c r="EP10" s="40"/>
+    </row>
+    <row r="11" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
@@ -3840,12 +3918,17 @@
       <c r="EE11" s="40"/>
       <c r="EF11" s="40"/>
       <c r="EG11" s="40"/>
-      <c r="EH11" s="32"/>
+      <c r="EH11" s="40"/>
       <c r="EI11" s="40"/>
       <c r="EJ11" s="40"/>
       <c r="EK11" s="40"/>
-    </row>
-    <row r="12" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL11" s="40"/>
+      <c r="EM11" s="32"/>
+      <c r="EN11" s="40"/>
+      <c r="EO11" s="40"/>
+      <c r="EP11" s="40"/>
+    </row>
+    <row r="12" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -3983,12 +4066,17 @@
       <c r="EE12" s="40"/>
       <c r="EF12" s="40"/>
       <c r="EG12" s="40"/>
-      <c r="EH12" s="32"/>
+      <c r="EH12" s="40"/>
       <c r="EI12" s="40"/>
       <c r="EJ12" s="40"/>
       <c r="EK12" s="40"/>
-    </row>
-    <row r="13" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL12" s="40"/>
+      <c r="EM12" s="32"/>
+      <c r="EN12" s="40"/>
+      <c r="EO12" s="40"/>
+      <c r="EP12" s="40"/>
+    </row>
+    <row r="13" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -4126,12 +4214,17 @@
       <c r="EE13" s="40"/>
       <c r="EF13" s="40"/>
       <c r="EG13" s="40"/>
-      <c r="EH13" s="32"/>
+      <c r="EH13" s="40"/>
       <c r="EI13" s="40"/>
       <c r="EJ13" s="40"/>
       <c r="EK13" s="40"/>
-    </row>
-    <row r="14" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL13" s="40"/>
+      <c r="EM13" s="32"/>
+      <c r="EN13" s="40"/>
+      <c r="EO13" s="40"/>
+      <c r="EP13" s="40"/>
+    </row>
+    <row r="14" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -4269,12 +4362,17 @@
       <c r="EE14" s="40"/>
       <c r="EF14" s="40"/>
       <c r="EG14" s="40"/>
-      <c r="EH14" s="32"/>
+      <c r="EH14" s="40"/>
       <c r="EI14" s="40"/>
       <c r="EJ14" s="40"/>
       <c r="EK14" s="40"/>
-    </row>
-    <row r="15" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL14" s="40"/>
+      <c r="EM14" s="32"/>
+      <c r="EN14" s="40"/>
+      <c r="EO14" s="40"/>
+      <c r="EP14" s="40"/>
+    </row>
+    <row r="15" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -4412,12 +4510,17 @@
       <c r="EE15" s="40"/>
       <c r="EF15" s="40"/>
       <c r="EG15" s="40"/>
-      <c r="EH15" s="32"/>
+      <c r="EH15" s="40"/>
       <c r="EI15" s="40"/>
       <c r="EJ15" s="40"/>
       <c r="EK15" s="40"/>
-    </row>
-    <row r="16" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL15" s="40"/>
+      <c r="EM15" s="32"/>
+      <c r="EN15" s="40"/>
+      <c r="EO15" s="40"/>
+      <c r="EP15" s="40"/>
+    </row>
+    <row r="16" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -4555,12 +4658,17 @@
       <c r="EE16" s="40"/>
       <c r="EF16" s="40"/>
       <c r="EG16" s="40"/>
-      <c r="EH16" s="32"/>
+      <c r="EH16" s="40"/>
       <c r="EI16" s="40"/>
       <c r="EJ16" s="40"/>
       <c r="EK16" s="40"/>
-    </row>
-    <row r="17" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL16" s="40"/>
+      <c r="EM16" s="32"/>
+      <c r="EN16" s="40"/>
+      <c r="EO16" s="40"/>
+      <c r="EP16" s="40"/>
+    </row>
+    <row r="17" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -4698,12 +4806,17 @@
       <c r="EE17" s="40"/>
       <c r="EF17" s="40"/>
       <c r="EG17" s="40"/>
-      <c r="EH17" s="32"/>
+      <c r="EH17" s="40"/>
       <c r="EI17" s="40"/>
       <c r="EJ17" s="40"/>
       <c r="EK17" s="40"/>
-    </row>
-    <row r="18" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL17" s="40"/>
+      <c r="EM17" s="32"/>
+      <c r="EN17" s="40"/>
+      <c r="EO17" s="40"/>
+      <c r="EP17" s="40"/>
+    </row>
+    <row r="18" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -4841,12 +4954,17 @@
       <c r="EE18" s="40"/>
       <c r="EF18" s="40"/>
       <c r="EG18" s="40"/>
-      <c r="EH18" s="32"/>
+      <c r="EH18" s="40"/>
       <c r="EI18" s="40"/>
       <c r="EJ18" s="40"/>
       <c r="EK18" s="40"/>
-    </row>
-    <row r="19" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL18" s="40"/>
+      <c r="EM18" s="32"/>
+      <c r="EN18" s="40"/>
+      <c r="EO18" s="40"/>
+      <c r="EP18" s="40"/>
+    </row>
+    <row r="19" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
@@ -4984,12 +5102,17 @@
       <c r="EE19" s="40"/>
       <c r="EF19" s="40"/>
       <c r="EG19" s="40"/>
-      <c r="EH19" s="32"/>
+      <c r="EH19" s="40"/>
       <c r="EI19" s="40"/>
       <c r="EJ19" s="40"/>
       <c r="EK19" s="40"/>
-    </row>
-    <row r="20" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL19" s="40"/>
+      <c r="EM19" s="32"/>
+      <c r="EN19" s="40"/>
+      <c r="EO19" s="40"/>
+      <c r="EP19" s="40"/>
+    </row>
+    <row r="20" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -5127,12 +5250,17 @@
       <c r="EE20" s="40"/>
       <c r="EF20" s="40"/>
       <c r="EG20" s="40"/>
-      <c r="EH20" s="32"/>
+      <c r="EH20" s="40"/>
       <c r="EI20" s="40"/>
       <c r="EJ20" s="40"/>
       <c r="EK20" s="40"/>
-    </row>
-    <row r="21" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL20" s="40"/>
+      <c r="EM20" s="32"/>
+      <c r="EN20" s="40"/>
+      <c r="EO20" s="40"/>
+      <c r="EP20" s="40"/>
+    </row>
+    <row r="21" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -5270,12 +5398,17 @@
       <c r="EE21" s="40"/>
       <c r="EF21" s="40"/>
       <c r="EG21" s="40"/>
-      <c r="EH21" s="32"/>
+      <c r="EH21" s="40"/>
       <c r="EI21" s="40"/>
       <c r="EJ21" s="40"/>
       <c r="EK21" s="40"/>
-    </row>
-    <row r="22" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL21" s="40"/>
+      <c r="EM21" s="32"/>
+      <c r="EN21" s="40"/>
+      <c r="EO21" s="40"/>
+      <c r="EP21" s="40"/>
+    </row>
+    <row r="22" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -5413,12 +5546,17 @@
       <c r="EE22" s="40"/>
       <c r="EF22" s="40"/>
       <c r="EG22" s="40"/>
-      <c r="EH22" s="32"/>
+      <c r="EH22" s="40"/>
       <c r="EI22" s="40"/>
       <c r="EJ22" s="40"/>
       <c r="EK22" s="40"/>
-    </row>
-    <row r="23" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL22" s="40"/>
+      <c r="EM22" s="32"/>
+      <c r="EN22" s="40"/>
+      <c r="EO22" s="40"/>
+      <c r="EP22" s="40"/>
+    </row>
+    <row r="23" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -5556,12 +5694,17 @@
       <c r="EE23" s="40"/>
       <c r="EF23" s="40"/>
       <c r="EG23" s="40"/>
-      <c r="EH23" s="32"/>
+      <c r="EH23" s="40"/>
       <c r="EI23" s="40"/>
       <c r="EJ23" s="40"/>
       <c r="EK23" s="40"/>
-    </row>
-    <row r="24" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL23" s="40"/>
+      <c r="EM23" s="32"/>
+      <c r="EN23" s="40"/>
+      <c r="EO23" s="40"/>
+      <c r="EP23" s="40"/>
+    </row>
+    <row r="24" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -5699,12 +5842,17 @@
       <c r="EE24" s="40"/>
       <c r="EF24" s="40"/>
       <c r="EG24" s="40"/>
-      <c r="EH24" s="32"/>
+      <c r="EH24" s="40"/>
       <c r="EI24" s="40"/>
       <c r="EJ24" s="40"/>
       <c r="EK24" s="40"/>
-    </row>
-    <row r="25" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL24" s="40"/>
+      <c r="EM24" s="32"/>
+      <c r="EN24" s="40"/>
+      <c r="EO24" s="40"/>
+      <c r="EP24" s="40"/>
+    </row>
+    <row r="25" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -5842,12 +5990,17 @@
       <c r="EE25" s="40"/>
       <c r="EF25" s="40"/>
       <c r="EG25" s="40"/>
-      <c r="EH25" s="32"/>
+      <c r="EH25" s="40"/>
       <c r="EI25" s="40"/>
       <c r="EJ25" s="40"/>
       <c r="EK25" s="40"/>
-    </row>
-    <row r="26" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL25" s="40"/>
+      <c r="EM25" s="32"/>
+      <c r="EN25" s="40"/>
+      <c r="EO25" s="40"/>
+      <c r="EP25" s="40"/>
+    </row>
+    <row r="26" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -5985,12 +6138,17 @@
       <c r="EE26" s="40"/>
       <c r="EF26" s="40"/>
       <c r="EG26" s="40"/>
-      <c r="EH26" s="32"/>
+      <c r="EH26" s="40"/>
       <c r="EI26" s="40"/>
       <c r="EJ26" s="40"/>
       <c r="EK26" s="40"/>
-    </row>
-    <row r="27" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL26" s="40"/>
+      <c r="EM26" s="32"/>
+      <c r="EN26" s="40"/>
+      <c r="EO26" s="40"/>
+      <c r="EP26" s="40"/>
+    </row>
+    <row r="27" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -6128,12 +6286,17 @@
       <c r="EE27" s="40"/>
       <c r="EF27" s="40"/>
       <c r="EG27" s="40"/>
-      <c r="EH27" s="32"/>
+      <c r="EH27" s="40"/>
       <c r="EI27" s="40"/>
       <c r="EJ27" s="40"/>
       <c r="EK27" s="40"/>
-    </row>
-    <row r="28" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL27" s="40"/>
+      <c r="EM27" s="32"/>
+      <c r="EN27" s="40"/>
+      <c r="EO27" s="40"/>
+      <c r="EP27" s="40"/>
+    </row>
+    <row r="28" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -6271,12 +6434,17 @@
       <c r="EE28" s="40"/>
       <c r="EF28" s="40"/>
       <c r="EG28" s="40"/>
-      <c r="EH28" s="32"/>
+      <c r="EH28" s="40"/>
       <c r="EI28" s="40"/>
       <c r="EJ28" s="40"/>
       <c r="EK28" s="40"/>
-    </row>
-    <row r="29" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL28" s="40"/>
+      <c r="EM28" s="32"/>
+      <c r="EN28" s="40"/>
+      <c r="EO28" s="40"/>
+      <c r="EP28" s="40"/>
+    </row>
+    <row r="29" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -6414,12 +6582,17 @@
       <c r="EE29" s="40"/>
       <c r="EF29" s="40"/>
       <c r="EG29" s="40"/>
-      <c r="EH29" s="32"/>
+      <c r="EH29" s="40"/>
       <c r="EI29" s="40"/>
       <c r="EJ29" s="40"/>
       <c r="EK29" s="40"/>
-    </row>
-    <row r="30" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL29" s="40"/>
+      <c r="EM29" s="32"/>
+      <c r="EN29" s="40"/>
+      <c r="EO29" s="40"/>
+      <c r="EP29" s="40"/>
+    </row>
+    <row r="30" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -6557,12 +6730,17 @@
       <c r="EE30" s="40"/>
       <c r="EF30" s="40"/>
       <c r="EG30" s="40"/>
-      <c r="EH30" s="32"/>
+      <c r="EH30" s="40"/>
       <c r="EI30" s="40"/>
       <c r="EJ30" s="40"/>
       <c r="EK30" s="40"/>
-    </row>
-    <row r="31" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL30" s="40"/>
+      <c r="EM30" s="32"/>
+      <c r="EN30" s="40"/>
+      <c r="EO30" s="40"/>
+      <c r="EP30" s="40"/>
+    </row>
+    <row r="31" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -6700,12 +6878,17 @@
       <c r="EE31" s="40"/>
       <c r="EF31" s="40"/>
       <c r="EG31" s="40"/>
-      <c r="EH31" s="32"/>
+      <c r="EH31" s="40"/>
       <c r="EI31" s="40"/>
       <c r="EJ31" s="40"/>
       <c r="EK31" s="40"/>
-    </row>
-    <row r="32" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL31" s="40"/>
+      <c r="EM31" s="32"/>
+      <c r="EN31" s="40"/>
+      <c r="EO31" s="40"/>
+      <c r="EP31" s="40"/>
+    </row>
+    <row r="32" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -6843,12 +7026,17 @@
       <c r="EE32" s="40"/>
       <c r="EF32" s="40"/>
       <c r="EG32" s="40"/>
-      <c r="EH32" s="32"/>
+      <c r="EH32" s="40"/>
       <c r="EI32" s="40"/>
       <c r="EJ32" s="40"/>
       <c r="EK32" s="40"/>
-    </row>
-    <row r="33" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL32" s="40"/>
+      <c r="EM32" s="32"/>
+      <c r="EN32" s="40"/>
+      <c r="EO32" s="40"/>
+      <c r="EP32" s="40"/>
+    </row>
+    <row r="33" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -6986,12 +7174,17 @@
       <c r="EE33" s="40"/>
       <c r="EF33" s="40"/>
       <c r="EG33" s="40"/>
-      <c r="EH33" s="32"/>
+      <c r="EH33" s="40"/>
       <c r="EI33" s="40"/>
       <c r="EJ33" s="40"/>
       <c r="EK33" s="40"/>
-    </row>
-    <row r="34" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL33" s="40"/>
+      <c r="EM33" s="32"/>
+      <c r="EN33" s="40"/>
+      <c r="EO33" s="40"/>
+      <c r="EP33" s="40"/>
+    </row>
+    <row r="34" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
@@ -7129,12 +7322,17 @@
       <c r="EE34" s="40"/>
       <c r="EF34" s="40"/>
       <c r="EG34" s="40"/>
-      <c r="EH34" s="32"/>
+      <c r="EH34" s="40"/>
       <c r="EI34" s="40"/>
       <c r="EJ34" s="40"/>
       <c r="EK34" s="40"/>
-    </row>
-    <row r="35" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL34" s="40"/>
+      <c r="EM34" s="32"/>
+      <c r="EN34" s="40"/>
+      <c r="EO34" s="40"/>
+      <c r="EP34" s="40"/>
+    </row>
+    <row r="35" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
@@ -7272,12 +7470,17 @@
       <c r="EE35" s="40"/>
       <c r="EF35" s="40"/>
       <c r="EG35" s="40"/>
-      <c r="EH35" s="32"/>
+      <c r="EH35" s="40"/>
       <c r="EI35" s="40"/>
       <c r="EJ35" s="40"/>
       <c r="EK35" s="40"/>
-    </row>
-    <row r="36" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL35" s="40"/>
+      <c r="EM35" s="32"/>
+      <c r="EN35" s="40"/>
+      <c r="EO35" s="40"/>
+      <c r="EP35" s="40"/>
+    </row>
+    <row r="36" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
@@ -7415,12 +7618,17 @@
       <c r="EE36" s="40"/>
       <c r="EF36" s="40"/>
       <c r="EG36" s="40"/>
-      <c r="EH36" s="32"/>
+      <c r="EH36" s="40"/>
       <c r="EI36" s="40"/>
       <c r="EJ36" s="40"/>
       <c r="EK36" s="40"/>
-    </row>
-    <row r="37" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL36" s="40"/>
+      <c r="EM36" s="32"/>
+      <c r="EN36" s="40"/>
+      <c r="EO36" s="40"/>
+      <c r="EP36" s="40"/>
+    </row>
+    <row r="37" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
@@ -7558,12 +7766,17 @@
       <c r="EE37" s="40"/>
       <c r="EF37" s="40"/>
       <c r="EG37" s="40"/>
-      <c r="EH37" s="32"/>
+      <c r="EH37" s="40"/>
       <c r="EI37" s="40"/>
       <c r="EJ37" s="40"/>
       <c r="EK37" s="40"/>
-    </row>
-    <row r="38" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL37" s="40"/>
+      <c r="EM37" s="32"/>
+      <c r="EN37" s="40"/>
+      <c r="EO37" s="40"/>
+      <c r="EP37" s="40"/>
+    </row>
+    <row r="38" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
@@ -7701,12 +7914,17 @@
       <c r="EE38" s="40"/>
       <c r="EF38" s="40"/>
       <c r="EG38" s="40"/>
-      <c r="EH38" s="32"/>
+      <c r="EH38" s="40"/>
       <c r="EI38" s="40"/>
       <c r="EJ38" s="40"/>
       <c r="EK38" s="40"/>
-    </row>
-    <row r="39" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL38" s="40"/>
+      <c r="EM38" s="32"/>
+      <c r="EN38" s="40"/>
+      <c r="EO38" s="40"/>
+      <c r="EP38" s="40"/>
+    </row>
+    <row r="39" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
@@ -7844,12 +8062,17 @@
       <c r="EE39" s="40"/>
       <c r="EF39" s="40"/>
       <c r="EG39" s="40"/>
-      <c r="EH39" s="32"/>
+      <c r="EH39" s="40"/>
       <c r="EI39" s="40"/>
       <c r="EJ39" s="40"/>
       <c r="EK39" s="40"/>
-    </row>
-    <row r="40" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL39" s="40"/>
+      <c r="EM39" s="32"/>
+      <c r="EN39" s="40"/>
+      <c r="EO39" s="40"/>
+      <c r="EP39" s="40"/>
+    </row>
+    <row r="40" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
@@ -7987,12 +8210,17 @@
       <c r="EE40" s="40"/>
       <c r="EF40" s="40"/>
       <c r="EG40" s="40"/>
-      <c r="EH40" s="32"/>
+      <c r="EH40" s="40"/>
       <c r="EI40" s="40"/>
       <c r="EJ40" s="40"/>
       <c r="EK40" s="40"/>
-    </row>
-    <row r="41" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL40" s="40"/>
+      <c r="EM40" s="32"/>
+      <c r="EN40" s="40"/>
+      <c r="EO40" s="40"/>
+      <c r="EP40" s="40"/>
+    </row>
+    <row r="41" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
@@ -8130,12 +8358,17 @@
       <c r="EE41" s="40"/>
       <c r="EF41" s="40"/>
       <c r="EG41" s="40"/>
-      <c r="EH41" s="32"/>
+      <c r="EH41" s="40"/>
       <c r="EI41" s="40"/>
       <c r="EJ41" s="40"/>
       <c r="EK41" s="40"/>
-    </row>
-    <row r="42" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL41" s="40"/>
+      <c r="EM41" s="32"/>
+      <c r="EN41" s="40"/>
+      <c r="EO41" s="40"/>
+      <c r="EP41" s="40"/>
+    </row>
+    <row r="42" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
@@ -8273,12 +8506,17 @@
       <c r="EE42" s="40"/>
       <c r="EF42" s="40"/>
       <c r="EG42" s="40"/>
-      <c r="EH42" s="32"/>
+      <c r="EH42" s="40"/>
       <c r="EI42" s="40"/>
       <c r="EJ42" s="40"/>
       <c r="EK42" s="40"/>
-    </row>
-    <row r="43" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL42" s="40"/>
+      <c r="EM42" s="32"/>
+      <c r="EN42" s="40"/>
+      <c r="EO42" s="40"/>
+      <c r="EP42" s="40"/>
+    </row>
+    <row r="43" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
@@ -8416,12 +8654,17 @@
       <c r="EE43" s="40"/>
       <c r="EF43" s="40"/>
       <c r="EG43" s="40"/>
-      <c r="EH43" s="32"/>
+      <c r="EH43" s="40"/>
       <c r="EI43" s="40"/>
       <c r="EJ43" s="40"/>
       <c r="EK43" s="40"/>
-    </row>
-    <row r="44" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL43" s="40"/>
+      <c r="EM43" s="32"/>
+      <c r="EN43" s="40"/>
+      <c r="EO43" s="40"/>
+      <c r="EP43" s="40"/>
+    </row>
+    <row r="44" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
@@ -8559,12 +8802,17 @@
       <c r="EE44" s="40"/>
       <c r="EF44" s="40"/>
       <c r="EG44" s="40"/>
-      <c r="EH44" s="32"/>
+      <c r="EH44" s="40"/>
       <c r="EI44" s="40"/>
       <c r="EJ44" s="40"/>
       <c r="EK44" s="40"/>
-    </row>
-    <row r="45" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL44" s="40"/>
+      <c r="EM44" s="32"/>
+      <c r="EN44" s="40"/>
+      <c r="EO44" s="40"/>
+      <c r="EP44" s="40"/>
+    </row>
+    <row r="45" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
@@ -8702,12 +8950,17 @@
       <c r="EE45" s="40"/>
       <c r="EF45" s="40"/>
       <c r="EG45" s="40"/>
-      <c r="EH45" s="32"/>
+      <c r="EH45" s="40"/>
       <c r="EI45" s="40"/>
       <c r="EJ45" s="40"/>
       <c r="EK45" s="40"/>
-    </row>
-    <row r="46" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL45" s="40"/>
+      <c r="EM45" s="32"/>
+      <c r="EN45" s="40"/>
+      <c r="EO45" s="40"/>
+      <c r="EP45" s="40"/>
+    </row>
+    <row r="46" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
@@ -8845,12 +9098,17 @@
       <c r="EE46" s="40"/>
       <c r="EF46" s="40"/>
       <c r="EG46" s="40"/>
-      <c r="EH46" s="32"/>
+      <c r="EH46" s="40"/>
       <c r="EI46" s="40"/>
       <c r="EJ46" s="40"/>
       <c r="EK46" s="40"/>
-    </row>
-    <row r="47" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL46" s="40"/>
+      <c r="EM46" s="32"/>
+      <c r="EN46" s="40"/>
+      <c r="EO46" s="40"/>
+      <c r="EP46" s="40"/>
+    </row>
+    <row r="47" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
@@ -8988,12 +9246,17 @@
       <c r="EE47" s="40"/>
       <c r="EF47" s="40"/>
       <c r="EG47" s="40"/>
-      <c r="EH47" s="32"/>
+      <c r="EH47" s="40"/>
       <c r="EI47" s="40"/>
       <c r="EJ47" s="40"/>
       <c r="EK47" s="40"/>
-    </row>
-    <row r="48" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL47" s="40"/>
+      <c r="EM47" s="32"/>
+      <c r="EN47" s="40"/>
+      <c r="EO47" s="40"/>
+      <c r="EP47" s="40"/>
+    </row>
+    <row r="48" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
@@ -9131,12 +9394,17 @@
       <c r="EE48" s="40"/>
       <c r="EF48" s="40"/>
       <c r="EG48" s="40"/>
-      <c r="EH48" s="32"/>
+      <c r="EH48" s="40"/>
       <c r="EI48" s="40"/>
       <c r="EJ48" s="40"/>
       <c r="EK48" s="40"/>
-    </row>
-    <row r="49" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL48" s="40"/>
+      <c r="EM48" s="32"/>
+      <c r="EN48" s="40"/>
+      <c r="EO48" s="40"/>
+      <c r="EP48" s="40"/>
+    </row>
+    <row r="49" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
@@ -9274,12 +9542,17 @@
       <c r="EE49" s="40"/>
       <c r="EF49" s="40"/>
       <c r="EG49" s="40"/>
-      <c r="EH49" s="32"/>
+      <c r="EH49" s="40"/>
       <c r="EI49" s="40"/>
       <c r="EJ49" s="40"/>
       <c r="EK49" s="40"/>
-    </row>
-    <row r="50" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL49" s="40"/>
+      <c r="EM49" s="32"/>
+      <c r="EN49" s="40"/>
+      <c r="EO49" s="40"/>
+      <c r="EP49" s="40"/>
+    </row>
+    <row r="50" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
@@ -9417,12 +9690,17 @@
       <c r="EE50" s="40"/>
       <c r="EF50" s="40"/>
       <c r="EG50" s="40"/>
-      <c r="EH50" s="32"/>
+      <c r="EH50" s="40"/>
       <c r="EI50" s="40"/>
       <c r="EJ50" s="40"/>
       <c r="EK50" s="40"/>
-    </row>
-    <row r="51" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL50" s="40"/>
+      <c r="EM50" s="32"/>
+      <c r="EN50" s="40"/>
+      <c r="EO50" s="40"/>
+      <c r="EP50" s="40"/>
+    </row>
+    <row r="51" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="35"/>
       <c r="B51" s="54"/>
       <c r="C51" s="32"/>
@@ -9560,12 +9838,17 @@
       <c r="EE51" s="40"/>
       <c r="EF51" s="40"/>
       <c r="EG51" s="40"/>
-      <c r="EH51" s="32"/>
+      <c r="EH51" s="40"/>
       <c r="EI51" s="40"/>
       <c r="EJ51" s="40"/>
       <c r="EK51" s="40"/>
-    </row>
-    <row r="52" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL51" s="40"/>
+      <c r="EM51" s="32"/>
+      <c r="EN51" s="40"/>
+      <c r="EO51" s="40"/>
+      <c r="EP51" s="40"/>
+    </row>
+    <row r="52" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35"/>
       <c r="B52" s="54"/>
       <c r="C52" s="32"/>
@@ -9703,12 +9986,17 @@
       <c r="EE52" s="40"/>
       <c r="EF52" s="40"/>
       <c r="EG52" s="40"/>
-      <c r="EH52" s="32"/>
+      <c r="EH52" s="40"/>
       <c r="EI52" s="40"/>
       <c r="EJ52" s="40"/>
       <c r="EK52" s="40"/>
-    </row>
-    <row r="53" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL52" s="40"/>
+      <c r="EM52" s="32"/>
+      <c r="EN52" s="40"/>
+      <c r="EO52" s="40"/>
+      <c r="EP52" s="40"/>
+    </row>
+    <row r="53" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
       <c r="B53" s="54"/>
       <c r="C53" s="32"/>
@@ -9846,12 +10134,17 @@
       <c r="EE53" s="40"/>
       <c r="EF53" s="40"/>
       <c r="EG53" s="40"/>
-      <c r="EH53" s="32"/>
+      <c r="EH53" s="40"/>
       <c r="EI53" s="40"/>
       <c r="EJ53" s="40"/>
       <c r="EK53" s="40"/>
-    </row>
-    <row r="54" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL53" s="40"/>
+      <c r="EM53" s="32"/>
+      <c r="EN53" s="40"/>
+      <c r="EO53" s="40"/>
+      <c r="EP53" s="40"/>
+    </row>
+    <row r="54" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32"/>
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
@@ -9989,12 +10282,17 @@
       <c r="EE54" s="40"/>
       <c r="EF54" s="40"/>
       <c r="EG54" s="40"/>
-      <c r="EH54" s="32"/>
+      <c r="EH54" s="40"/>
       <c r="EI54" s="40"/>
       <c r="EJ54" s="40"/>
       <c r="EK54" s="40"/>
-    </row>
-    <row r="55" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL54" s="40"/>
+      <c r="EM54" s="32"/>
+      <c r="EN54" s="40"/>
+      <c r="EO54" s="40"/>
+      <c r="EP54" s="40"/>
+    </row>
+    <row r="55" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
@@ -10132,12 +10430,17 @@
       <c r="EE55" s="40"/>
       <c r="EF55" s="40"/>
       <c r="EG55" s="40"/>
-      <c r="EH55" s="32"/>
+      <c r="EH55" s="40"/>
       <c r="EI55" s="40"/>
       <c r="EJ55" s="40"/>
       <c r="EK55" s="40"/>
-    </row>
-    <row r="56" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL55" s="40"/>
+      <c r="EM55" s="32"/>
+      <c r="EN55" s="40"/>
+      <c r="EO55" s="40"/>
+      <c r="EP55" s="40"/>
+    </row>
+    <row r="56" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32"/>
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
@@ -10275,12 +10578,17 @@
       <c r="EE56" s="40"/>
       <c r="EF56" s="40"/>
       <c r="EG56" s="40"/>
-      <c r="EH56" s="32"/>
+      <c r="EH56" s="40"/>
       <c r="EI56" s="40"/>
       <c r="EJ56" s="40"/>
       <c r="EK56" s="40"/>
-    </row>
-    <row r="57" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL56" s="40"/>
+      <c r="EM56" s="32"/>
+      <c r="EN56" s="40"/>
+      <c r="EO56" s="40"/>
+      <c r="EP56" s="40"/>
+    </row>
+    <row r="57" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="32"/>
       <c r="B57" s="32"/>
       <c r="C57" s="32"/>
@@ -10418,12 +10726,17 @@
       <c r="EE57" s="40"/>
       <c r="EF57" s="40"/>
       <c r="EG57" s="40"/>
-      <c r="EH57" s="32"/>
+      <c r="EH57" s="40"/>
       <c r="EI57" s="40"/>
       <c r="EJ57" s="40"/>
       <c r="EK57" s="40"/>
-    </row>
-    <row r="58" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL57" s="40"/>
+      <c r="EM57" s="32"/>
+      <c r="EN57" s="40"/>
+      <c r="EO57" s="40"/>
+      <c r="EP57" s="40"/>
+    </row>
+    <row r="58" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32"/>
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
@@ -10561,12 +10874,17 @@
       <c r="EE58" s="40"/>
       <c r="EF58" s="40"/>
       <c r="EG58" s="40"/>
-      <c r="EH58" s="32"/>
+      <c r="EH58" s="40"/>
       <c r="EI58" s="40"/>
       <c r="EJ58" s="40"/>
       <c r="EK58" s="40"/>
-    </row>
-    <row r="59" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL58" s="40"/>
+      <c r="EM58" s="32"/>
+      <c r="EN58" s="40"/>
+      <c r="EO58" s="40"/>
+      <c r="EP58" s="40"/>
+    </row>
+    <row r="59" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
@@ -10704,12 +11022,17 @@
       <c r="EE59" s="40"/>
       <c r="EF59" s="40"/>
       <c r="EG59" s="40"/>
-      <c r="EH59" s="32"/>
+      <c r="EH59" s="40"/>
       <c r="EI59" s="40"/>
       <c r="EJ59" s="40"/>
       <c r="EK59" s="40"/>
-    </row>
-    <row r="60" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL59" s="40"/>
+      <c r="EM59" s="32"/>
+      <c r="EN59" s="40"/>
+      <c r="EO59" s="40"/>
+      <c r="EP59" s="40"/>
+    </row>
+    <row r="60" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="32"/>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
@@ -10847,12 +11170,17 @@
       <c r="EE60" s="40"/>
       <c r="EF60" s="40"/>
       <c r="EG60" s="40"/>
-      <c r="EH60" s="32"/>
+      <c r="EH60" s="40"/>
       <c r="EI60" s="40"/>
       <c r="EJ60" s="40"/>
       <c r="EK60" s="40"/>
-    </row>
-    <row r="61" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL60" s="40"/>
+      <c r="EM60" s="32"/>
+      <c r="EN60" s="40"/>
+      <c r="EO60" s="40"/>
+      <c r="EP60" s="40"/>
+    </row>
+    <row r="61" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="32"/>
       <c r="B61" s="32"/>
       <c r="C61" s="32"/>
@@ -10990,12 +11318,17 @@
       <c r="EE61" s="40"/>
       <c r="EF61" s="40"/>
       <c r="EG61" s="40"/>
-      <c r="EH61" s="32"/>
+      <c r="EH61" s="40"/>
       <c r="EI61" s="40"/>
       <c r="EJ61" s="40"/>
       <c r="EK61" s="40"/>
-    </row>
-    <row r="62" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL61" s="40"/>
+      <c r="EM61" s="32"/>
+      <c r="EN61" s="40"/>
+      <c r="EO61" s="40"/>
+      <c r="EP61" s="40"/>
+    </row>
+    <row r="62" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32"/>
       <c r="B62" s="32"/>
       <c r="C62" s="32"/>
@@ -11133,12 +11466,17 @@
       <c r="EE62" s="40"/>
       <c r="EF62" s="40"/>
       <c r="EG62" s="40"/>
-      <c r="EH62" s="32"/>
+      <c r="EH62" s="40"/>
       <c r="EI62" s="40"/>
       <c r="EJ62" s="40"/>
       <c r="EK62" s="40"/>
-    </row>
-    <row r="63" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL62" s="40"/>
+      <c r="EM62" s="32"/>
+      <c r="EN62" s="40"/>
+      <c r="EO62" s="40"/>
+      <c r="EP62" s="40"/>
+    </row>
+    <row r="63" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="32"/>
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
@@ -11276,12 +11614,17 @@
       <c r="EE63" s="40"/>
       <c r="EF63" s="40"/>
       <c r="EG63" s="40"/>
-      <c r="EH63" s="32"/>
+      <c r="EH63" s="40"/>
       <c r="EI63" s="40"/>
       <c r="EJ63" s="40"/>
       <c r="EK63" s="40"/>
-    </row>
-    <row r="64" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL63" s="40"/>
+      <c r="EM63" s="32"/>
+      <c r="EN63" s="40"/>
+      <c r="EO63" s="40"/>
+      <c r="EP63" s="40"/>
+    </row>
+    <row r="64" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
       <c r="B64" s="32"/>
       <c r="C64" s="32"/>
@@ -11419,12 +11762,17 @@
       <c r="EE64" s="40"/>
       <c r="EF64" s="40"/>
       <c r="EG64" s="40"/>
-      <c r="EH64" s="32"/>
+      <c r="EH64" s="40"/>
       <c r="EI64" s="40"/>
       <c r="EJ64" s="40"/>
       <c r="EK64" s="40"/>
-    </row>
-    <row r="65" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL64" s="40"/>
+      <c r="EM64" s="32"/>
+      <c r="EN64" s="40"/>
+      <c r="EO64" s="40"/>
+      <c r="EP64" s="40"/>
+    </row>
+    <row r="65" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="32"/>
       <c r="B65" s="32"/>
       <c r="C65" s="32"/>
@@ -11562,12 +11910,17 @@
       <c r="EE65" s="40"/>
       <c r="EF65" s="40"/>
       <c r="EG65" s="40"/>
-      <c r="EH65" s="32"/>
+      <c r="EH65" s="40"/>
       <c r="EI65" s="40"/>
       <c r="EJ65" s="40"/>
       <c r="EK65" s="40"/>
-    </row>
-    <row r="66" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL65" s="40"/>
+      <c r="EM65" s="32"/>
+      <c r="EN65" s="40"/>
+      <c r="EO65" s="40"/>
+      <c r="EP65" s="40"/>
+    </row>
+    <row r="66" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
@@ -11705,12 +12058,17 @@
       <c r="EE66" s="40"/>
       <c r="EF66" s="40"/>
       <c r="EG66" s="40"/>
-      <c r="EH66" s="32"/>
+      <c r="EH66" s="40"/>
       <c r="EI66" s="40"/>
       <c r="EJ66" s="40"/>
       <c r="EK66" s="40"/>
-    </row>
-    <row r="67" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL66" s="40"/>
+      <c r="EM66" s="32"/>
+      <c r="EN66" s="40"/>
+      <c r="EO66" s="40"/>
+      <c r="EP66" s="40"/>
+    </row>
+    <row r="67" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="32"/>
       <c r="B67" s="32"/>
       <c r="C67" s="32"/>
@@ -11848,12 +12206,17 @@
       <c r="EE67" s="40"/>
       <c r="EF67" s="40"/>
       <c r="EG67" s="40"/>
-      <c r="EH67" s="32"/>
+      <c r="EH67" s="40"/>
       <c r="EI67" s="40"/>
       <c r="EJ67" s="40"/>
       <c r="EK67" s="40"/>
-    </row>
-    <row r="68" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL67" s="40"/>
+      <c r="EM67" s="32"/>
+      <c r="EN67" s="40"/>
+      <c r="EO67" s="40"/>
+      <c r="EP67" s="40"/>
+    </row>
+    <row r="68" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32"/>
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
@@ -11991,12 +12354,17 @@
       <c r="EE68" s="40"/>
       <c r="EF68" s="40"/>
       <c r="EG68" s="40"/>
-      <c r="EH68" s="32"/>
+      <c r="EH68" s="40"/>
       <c r="EI68" s="40"/>
       <c r="EJ68" s="40"/>
       <c r="EK68" s="40"/>
-    </row>
-    <row r="69" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL68" s="40"/>
+      <c r="EM68" s="32"/>
+      <c r="EN68" s="40"/>
+      <c r="EO68" s="40"/>
+      <c r="EP68" s="40"/>
+    </row>
+    <row r="69" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
@@ -12134,12 +12502,17 @@
       <c r="EE69" s="40"/>
       <c r="EF69" s="40"/>
       <c r="EG69" s="40"/>
-      <c r="EH69" s="32"/>
+      <c r="EH69" s="40"/>
       <c r="EI69" s="40"/>
       <c r="EJ69" s="40"/>
       <c r="EK69" s="40"/>
-    </row>
-    <row r="70" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL69" s="40"/>
+      <c r="EM69" s="32"/>
+      <c r="EN69" s="40"/>
+      <c r="EO69" s="40"/>
+      <c r="EP69" s="40"/>
+    </row>
+    <row r="70" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="32"/>
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
@@ -12277,12 +12650,17 @@
       <c r="EE70" s="40"/>
       <c r="EF70" s="40"/>
       <c r="EG70" s="40"/>
-      <c r="EH70" s="32"/>
+      <c r="EH70" s="40"/>
       <c r="EI70" s="40"/>
       <c r="EJ70" s="40"/>
       <c r="EK70" s="40"/>
-    </row>
-    <row r="71" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL70" s="40"/>
+      <c r="EM70" s="32"/>
+      <c r="EN70" s="40"/>
+      <c r="EO70" s="40"/>
+      <c r="EP70" s="40"/>
+    </row>
+    <row r="71" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="32"/>
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
@@ -12420,12 +12798,17 @@
       <c r="EE71" s="40"/>
       <c r="EF71" s="40"/>
       <c r="EG71" s="40"/>
-      <c r="EH71" s="32"/>
+      <c r="EH71" s="40"/>
       <c r="EI71" s="40"/>
       <c r="EJ71" s="40"/>
       <c r="EK71" s="40"/>
-    </row>
-    <row r="72" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL71" s="40"/>
+      <c r="EM71" s="32"/>
+      <c r="EN71" s="40"/>
+      <c r="EO71" s="40"/>
+      <c r="EP71" s="40"/>
+    </row>
+    <row r="72" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="32"/>
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
@@ -12563,12 +12946,17 @@
       <c r="EE72" s="40"/>
       <c r="EF72" s="40"/>
       <c r="EG72" s="40"/>
-      <c r="EH72" s="32"/>
+      <c r="EH72" s="40"/>
       <c r="EI72" s="40"/>
       <c r="EJ72" s="40"/>
       <c r="EK72" s="40"/>
-    </row>
-    <row r="73" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL72" s="40"/>
+      <c r="EM72" s="32"/>
+      <c r="EN72" s="40"/>
+      <c r="EO72" s="40"/>
+      <c r="EP72" s="40"/>
+    </row>
+    <row r="73" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="32"/>
       <c r="B73" s="32"/>
       <c r="C73" s="32"/>
@@ -12706,12 +13094,17 @@
       <c r="EE73" s="40"/>
       <c r="EF73" s="40"/>
       <c r="EG73" s="40"/>
-      <c r="EH73" s="32"/>
+      <c r="EH73" s="40"/>
       <c r="EI73" s="40"/>
       <c r="EJ73" s="40"/>
       <c r="EK73" s="40"/>
-    </row>
-    <row r="74" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL73" s="40"/>
+      <c r="EM73" s="32"/>
+      <c r="EN73" s="40"/>
+      <c r="EO73" s="40"/>
+      <c r="EP73" s="40"/>
+    </row>
+    <row r="74" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="32"/>
       <c r="B74" s="32"/>
       <c r="C74" s="32"/>
@@ -12849,12 +13242,17 @@
       <c r="EE74" s="40"/>
       <c r="EF74" s="40"/>
       <c r="EG74" s="40"/>
-      <c r="EH74" s="32"/>
+      <c r="EH74" s="40"/>
       <c r="EI74" s="40"/>
       <c r="EJ74" s="40"/>
       <c r="EK74" s="40"/>
-    </row>
-    <row r="75" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL74" s="40"/>
+      <c r="EM74" s="32"/>
+      <c r="EN74" s="40"/>
+      <c r="EO74" s="40"/>
+      <c r="EP74" s="40"/>
+    </row>
+    <row r="75" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="32"/>
       <c r="B75" s="32"/>
       <c r="C75" s="32"/>
@@ -12992,12 +13390,17 @@
       <c r="EE75" s="40"/>
       <c r="EF75" s="40"/>
       <c r="EG75" s="40"/>
-      <c r="EH75" s="32"/>
+      <c r="EH75" s="40"/>
       <c r="EI75" s="40"/>
       <c r="EJ75" s="40"/>
       <c r="EK75" s="40"/>
-    </row>
-    <row r="76" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL75" s="40"/>
+      <c r="EM75" s="32"/>
+      <c r="EN75" s="40"/>
+      <c r="EO75" s="40"/>
+      <c r="EP75" s="40"/>
+    </row>
+    <row r="76" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
       <c r="B76" s="32"/>
       <c r="C76" s="32"/>
@@ -13135,12 +13538,17 @@
       <c r="EE76" s="40"/>
       <c r="EF76" s="40"/>
       <c r="EG76" s="40"/>
-      <c r="EH76" s="32"/>
+      <c r="EH76" s="40"/>
       <c r="EI76" s="40"/>
       <c r="EJ76" s="40"/>
       <c r="EK76" s="40"/>
-    </row>
-    <row r="77" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL76" s="40"/>
+      <c r="EM76" s="32"/>
+      <c r="EN76" s="40"/>
+      <c r="EO76" s="40"/>
+      <c r="EP76" s="40"/>
+    </row>
+    <row r="77" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
       <c r="B77" s="32"/>
       <c r="C77" s="32"/>
@@ -13278,12 +13686,17 @@
       <c r="EE77" s="40"/>
       <c r="EF77" s="40"/>
       <c r="EG77" s="40"/>
-      <c r="EH77" s="32"/>
+      <c r="EH77" s="40"/>
       <c r="EI77" s="40"/>
       <c r="EJ77" s="40"/>
       <c r="EK77" s="40"/>
-    </row>
-    <row r="78" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL77" s="40"/>
+      <c r="EM77" s="32"/>
+      <c r="EN77" s="40"/>
+      <c r="EO77" s="40"/>
+      <c r="EP77" s="40"/>
+    </row>
+    <row r="78" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
       <c r="B78" s="32"/>
       <c r="C78" s="32"/>
@@ -13421,12 +13834,17 @@
       <c r="EE78" s="40"/>
       <c r="EF78" s="40"/>
       <c r="EG78" s="40"/>
-      <c r="EH78" s="32"/>
+      <c r="EH78" s="40"/>
       <c r="EI78" s="40"/>
       <c r="EJ78" s="40"/>
       <c r="EK78" s="40"/>
-    </row>
-    <row r="79" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL78" s="40"/>
+      <c r="EM78" s="32"/>
+      <c r="EN78" s="40"/>
+      <c r="EO78" s="40"/>
+      <c r="EP78" s="40"/>
+    </row>
+    <row r="79" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="32"/>
       <c r="B79" s="32"/>
       <c r="C79" s="32"/>
@@ -13564,12 +13982,17 @@
       <c r="EE79" s="40"/>
       <c r="EF79" s="40"/>
       <c r="EG79" s="40"/>
-      <c r="EH79" s="32"/>
+      <c r="EH79" s="40"/>
       <c r="EI79" s="40"/>
       <c r="EJ79" s="40"/>
       <c r="EK79" s="40"/>
-    </row>
-    <row r="80" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL79" s="40"/>
+      <c r="EM79" s="32"/>
+      <c r="EN79" s="40"/>
+      <c r="EO79" s="40"/>
+      <c r="EP79" s="40"/>
+    </row>
+    <row r="80" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="32"/>
       <c r="B80" s="32"/>
       <c r="C80" s="32"/>
@@ -13707,12 +14130,17 @@
       <c r="EE80" s="40"/>
       <c r="EF80" s="40"/>
       <c r="EG80" s="40"/>
-      <c r="EH80" s="32"/>
+      <c r="EH80" s="40"/>
       <c r="EI80" s="40"/>
       <c r="EJ80" s="40"/>
       <c r="EK80" s="40"/>
-    </row>
-    <row r="81" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL80" s="40"/>
+      <c r="EM80" s="32"/>
+      <c r="EN80" s="40"/>
+      <c r="EO80" s="40"/>
+      <c r="EP80" s="40"/>
+    </row>
+    <row r="81" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
       <c r="B81" s="32"/>
       <c r="C81" s="32"/>
@@ -13850,12 +14278,17 @@
       <c r="EE81" s="40"/>
       <c r="EF81" s="40"/>
       <c r="EG81" s="40"/>
-      <c r="EH81" s="32"/>
+      <c r="EH81" s="40"/>
       <c r="EI81" s="40"/>
       <c r="EJ81" s="40"/>
       <c r="EK81" s="40"/>
-    </row>
-    <row r="82" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL81" s="40"/>
+      <c r="EM81" s="32"/>
+      <c r="EN81" s="40"/>
+      <c r="EO81" s="40"/>
+      <c r="EP81" s="40"/>
+    </row>
+    <row r="82" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
       <c r="B82" s="32"/>
       <c r="C82" s="32"/>
@@ -13993,12 +14426,17 @@
       <c r="EE82" s="40"/>
       <c r="EF82" s="40"/>
       <c r="EG82" s="40"/>
-      <c r="EH82" s="32"/>
+      <c r="EH82" s="40"/>
       <c r="EI82" s="40"/>
       <c r="EJ82" s="40"/>
       <c r="EK82" s="40"/>
-    </row>
-    <row r="83" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL82" s="40"/>
+      <c r="EM82" s="32"/>
+      <c r="EN82" s="40"/>
+      <c r="EO82" s="40"/>
+      <c r="EP82" s="40"/>
+    </row>
+    <row r="83" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="32"/>
       <c r="B83" s="32"/>
       <c r="C83" s="32"/>
@@ -14136,12 +14574,17 @@
       <c r="EE83" s="40"/>
       <c r="EF83" s="40"/>
       <c r="EG83" s="40"/>
-      <c r="EH83" s="32"/>
+      <c r="EH83" s="40"/>
       <c r="EI83" s="40"/>
       <c r="EJ83" s="40"/>
       <c r="EK83" s="40"/>
-    </row>
-    <row r="84" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL83" s="40"/>
+      <c r="EM83" s="32"/>
+      <c r="EN83" s="40"/>
+      <c r="EO83" s="40"/>
+      <c r="EP83" s="40"/>
+    </row>
+    <row r="84" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
       <c r="B84" s="32"/>
       <c r="C84" s="32"/>
@@ -14279,12 +14722,17 @@
       <c r="EE84" s="40"/>
       <c r="EF84" s="40"/>
       <c r="EG84" s="40"/>
-      <c r="EH84" s="32"/>
+      <c r="EH84" s="40"/>
       <c r="EI84" s="40"/>
       <c r="EJ84" s="40"/>
       <c r="EK84" s="40"/>
-    </row>
-    <row r="85" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL84" s="40"/>
+      <c r="EM84" s="32"/>
+      <c r="EN84" s="40"/>
+      <c r="EO84" s="40"/>
+      <c r="EP84" s="40"/>
+    </row>
+    <row r="85" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="32"/>
       <c r="B85" s="32"/>
       <c r="C85" s="32"/>
@@ -14422,12 +14870,17 @@
       <c r="EE85" s="40"/>
       <c r="EF85" s="40"/>
       <c r="EG85" s="40"/>
-      <c r="EH85" s="32"/>
+      <c r="EH85" s="40"/>
       <c r="EI85" s="40"/>
       <c r="EJ85" s="40"/>
       <c r="EK85" s="40"/>
-    </row>
-    <row r="86" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL85" s="40"/>
+      <c r="EM85" s="32"/>
+      <c r="EN85" s="40"/>
+      <c r="EO85" s="40"/>
+      <c r="EP85" s="40"/>
+    </row>
+    <row r="86" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="32"/>
       <c r="B86" s="32"/>
       <c r="C86" s="32"/>
@@ -14565,12 +15018,17 @@
       <c r="EE86" s="40"/>
       <c r="EF86" s="40"/>
       <c r="EG86" s="40"/>
-      <c r="EH86" s="32"/>
+      <c r="EH86" s="40"/>
       <c r="EI86" s="40"/>
       <c r="EJ86" s="40"/>
       <c r="EK86" s="40"/>
-    </row>
-    <row r="87" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL86" s="40"/>
+      <c r="EM86" s="32"/>
+      <c r="EN86" s="40"/>
+      <c r="EO86" s="40"/>
+      <c r="EP86" s="40"/>
+    </row>
+    <row r="87" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="32"/>
       <c r="B87" s="32"/>
       <c r="C87" s="32"/>
@@ -14708,12 +15166,17 @@
       <c r="EE87" s="40"/>
       <c r="EF87" s="40"/>
       <c r="EG87" s="40"/>
-      <c r="EH87" s="32"/>
+      <c r="EH87" s="40"/>
       <c r="EI87" s="40"/>
       <c r="EJ87" s="40"/>
       <c r="EK87" s="40"/>
-    </row>
-    <row r="88" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL87" s="40"/>
+      <c r="EM87" s="32"/>
+      <c r="EN87" s="40"/>
+      <c r="EO87" s="40"/>
+      <c r="EP87" s="40"/>
+    </row>
+    <row r="88" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="32"/>
       <c r="B88" s="32"/>
       <c r="C88" s="32"/>
@@ -14851,12 +15314,17 @@
       <c r="EE88" s="40"/>
       <c r="EF88" s="40"/>
       <c r="EG88" s="40"/>
-      <c r="EH88" s="32"/>
+      <c r="EH88" s="40"/>
       <c r="EI88" s="40"/>
       <c r="EJ88" s="40"/>
       <c r="EK88" s="40"/>
-    </row>
-    <row r="89" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL88" s="40"/>
+      <c r="EM88" s="32"/>
+      <c r="EN88" s="40"/>
+      <c r="EO88" s="40"/>
+      <c r="EP88" s="40"/>
+    </row>
+    <row r="89" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
       <c r="B89" s="32"/>
       <c r="C89" s="32"/>
@@ -14994,12 +15462,17 @@
       <c r="EE89" s="40"/>
       <c r="EF89" s="40"/>
       <c r="EG89" s="40"/>
-      <c r="EH89" s="32"/>
+      <c r="EH89" s="40"/>
       <c r="EI89" s="40"/>
       <c r="EJ89" s="40"/>
       <c r="EK89" s="40"/>
-    </row>
-    <row r="90" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL89" s="40"/>
+      <c r="EM89" s="32"/>
+      <c r="EN89" s="40"/>
+      <c r="EO89" s="40"/>
+      <c r="EP89" s="40"/>
+    </row>
+    <row r="90" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="32"/>
       <c r="B90" s="32"/>
       <c r="C90" s="32"/>
@@ -15137,12 +15610,17 @@
       <c r="EE90" s="40"/>
       <c r="EF90" s="40"/>
       <c r="EG90" s="40"/>
-      <c r="EH90" s="32"/>
+      <c r="EH90" s="40"/>
       <c r="EI90" s="40"/>
       <c r="EJ90" s="40"/>
       <c r="EK90" s="40"/>
-    </row>
-    <row r="91" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL90" s="40"/>
+      <c r="EM90" s="32"/>
+      <c r="EN90" s="40"/>
+      <c r="EO90" s="40"/>
+      <c r="EP90" s="40"/>
+    </row>
+    <row r="91" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="32"/>
       <c r="B91" s="32"/>
       <c r="C91" s="32"/>
@@ -15280,12 +15758,17 @@
       <c r="EE91" s="40"/>
       <c r="EF91" s="40"/>
       <c r="EG91" s="40"/>
-      <c r="EH91" s="32"/>
+      <c r="EH91" s="40"/>
       <c r="EI91" s="40"/>
       <c r="EJ91" s="40"/>
       <c r="EK91" s="40"/>
-    </row>
-    <row r="92" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL91" s="40"/>
+      <c r="EM91" s="32"/>
+      <c r="EN91" s="40"/>
+      <c r="EO91" s="40"/>
+      <c r="EP91" s="40"/>
+    </row>
+    <row r="92" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="32"/>
       <c r="B92" s="32"/>
       <c r="C92" s="32"/>
@@ -15423,12 +15906,17 @@
       <c r="EE92" s="40"/>
       <c r="EF92" s="40"/>
       <c r="EG92" s="40"/>
-      <c r="EH92" s="32"/>
+      <c r="EH92" s="40"/>
       <c r="EI92" s="40"/>
       <c r="EJ92" s="40"/>
       <c r="EK92" s="40"/>
-    </row>
-    <row r="93" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL92" s="40"/>
+      <c r="EM92" s="32"/>
+      <c r="EN92" s="40"/>
+      <c r="EO92" s="40"/>
+      <c r="EP92" s="40"/>
+    </row>
+    <row r="93" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="32"/>
       <c r="B93" s="32"/>
       <c r="C93" s="32"/>
@@ -15566,12 +16054,17 @@
       <c r="EE93" s="40"/>
       <c r="EF93" s="40"/>
       <c r="EG93" s="40"/>
-      <c r="EH93" s="32"/>
+      <c r="EH93" s="40"/>
       <c r="EI93" s="40"/>
       <c r="EJ93" s="40"/>
       <c r="EK93" s="40"/>
-    </row>
-    <row r="94" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL93" s="40"/>
+      <c r="EM93" s="32"/>
+      <c r="EN93" s="40"/>
+      <c r="EO93" s="40"/>
+      <c r="EP93" s="40"/>
+    </row>
+    <row r="94" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="32"/>
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
@@ -15709,12 +16202,17 @@
       <c r="EE94" s="40"/>
       <c r="EF94" s="40"/>
       <c r="EG94" s="40"/>
-      <c r="EH94" s="32"/>
+      <c r="EH94" s="40"/>
       <c r="EI94" s="40"/>
       <c r="EJ94" s="40"/>
       <c r="EK94" s="40"/>
-    </row>
-    <row r="95" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL94" s="40"/>
+      <c r="EM94" s="32"/>
+      <c r="EN94" s="40"/>
+      <c r="EO94" s="40"/>
+      <c r="EP94" s="40"/>
+    </row>
+    <row r="95" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="32"/>
       <c r="B95" s="32"/>
       <c r="C95" s="32"/>
@@ -15852,12 +16350,17 @@
       <c r="EE95" s="40"/>
       <c r="EF95" s="40"/>
       <c r="EG95" s="40"/>
-      <c r="EH95" s="32"/>
+      <c r="EH95" s="40"/>
       <c r="EI95" s="40"/>
       <c r="EJ95" s="40"/>
       <c r="EK95" s="40"/>
-    </row>
-    <row r="96" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL95" s="40"/>
+      <c r="EM95" s="32"/>
+      <c r="EN95" s="40"/>
+      <c r="EO95" s="40"/>
+      <c r="EP95" s="40"/>
+    </row>
+    <row r="96" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="40"/>
       <c r="C96" s="40"/>
@@ -15999,8 +16502,13 @@
       <c r="EI96" s="40"/>
       <c r="EJ96" s="40"/>
       <c r="EK96" s="40"/>
-    </row>
-    <row r="97" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL96" s="40"/>
+      <c r="EM96" s="40"/>
+      <c r="EN96" s="40"/>
+      <c r="EO96" s="40"/>
+      <c r="EP96" s="40"/>
+    </row>
+    <row r="97" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="40"/>
       <c r="C97" s="40"/>
@@ -16142,8 +16650,13 @@
       <c r="EI97" s="40"/>
       <c r="EJ97" s="40"/>
       <c r="EK97" s="40"/>
-    </row>
-    <row r="98" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL97" s="40"/>
+      <c r="EM97" s="40"/>
+      <c r="EN97" s="40"/>
+      <c r="EO97" s="40"/>
+      <c r="EP97" s="40"/>
+    </row>
+    <row r="98" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="40"/>
       <c r="C98" s="40"/>
@@ -16285,8 +16798,13 @@
       <c r="EI98" s="40"/>
       <c r="EJ98" s="40"/>
       <c r="EK98" s="40"/>
-    </row>
-    <row r="99" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL98" s="40"/>
+      <c r="EM98" s="40"/>
+      <c r="EN98" s="40"/>
+      <c r="EO98" s="40"/>
+      <c r="EP98" s="40"/>
+    </row>
+    <row r="99" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="40"/>
       <c r="C99" s="40"/>
@@ -16428,8 +16946,13 @@
       <c r="EI99" s="40"/>
       <c r="EJ99" s="40"/>
       <c r="EK99" s="40"/>
-    </row>
-    <row r="100" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL99" s="40"/>
+      <c r="EM99" s="40"/>
+      <c r="EN99" s="40"/>
+      <c r="EO99" s="40"/>
+      <c r="EP99" s="40"/>
+    </row>
+    <row r="100" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="40"/>
       <c r="C100" s="40"/>
@@ -16571,8 +17094,13 @@
       <c r="EI100" s="40"/>
       <c r="EJ100" s="40"/>
       <c r="EK100" s="40"/>
-    </row>
-    <row r="101" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL100" s="40"/>
+      <c r="EM100" s="40"/>
+      <c r="EN100" s="40"/>
+      <c r="EO100" s="40"/>
+      <c r="EP100" s="40"/>
+    </row>
+    <row r="101" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="40"/>
       <c r="C101" s="40"/>
@@ -16714,8 +17242,13 @@
       <c r="EI101" s="40"/>
       <c r="EJ101" s="40"/>
       <c r="EK101" s="40"/>
-    </row>
-    <row r="102" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL101" s="40"/>
+      <c r="EM101" s="40"/>
+      <c r="EN101" s="40"/>
+      <c r="EO101" s="40"/>
+      <c r="EP101" s="40"/>
+    </row>
+    <row r="102" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="40"/>
       <c r="C102" s="40"/>
@@ -16857,8 +17390,13 @@
       <c r="EI102" s="40"/>
       <c r="EJ102" s="40"/>
       <c r="EK102" s="40"/>
-    </row>
-    <row r="103" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL102" s="40"/>
+      <c r="EM102" s="40"/>
+      <c r="EN102" s="40"/>
+      <c r="EO102" s="40"/>
+      <c r="EP102" s="40"/>
+    </row>
+    <row r="103" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="40"/>
       <c r="C103" s="40"/>
@@ -17000,8 +17538,13 @@
       <c r="EI103" s="40"/>
       <c r="EJ103" s="40"/>
       <c r="EK103" s="40"/>
-    </row>
-    <row r="104" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL103" s="40"/>
+      <c r="EM103" s="40"/>
+      <c r="EN103" s="40"/>
+      <c r="EO103" s="40"/>
+      <c r="EP103" s="40"/>
+    </row>
+    <row r="104" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="40"/>
       <c r="C104" s="40"/>
@@ -17143,8 +17686,13 @@
       <c r="EI104" s="40"/>
       <c r="EJ104" s="40"/>
       <c r="EK104" s="40"/>
-    </row>
-    <row r="105" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL104" s="40"/>
+      <c r="EM104" s="40"/>
+      <c r="EN104" s="40"/>
+      <c r="EO104" s="40"/>
+      <c r="EP104" s="40"/>
+    </row>
+    <row r="105" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="40"/>
       <c r="C105" s="40"/>
@@ -17286,8 +17834,13 @@
       <c r="EI105" s="40"/>
       <c r="EJ105" s="40"/>
       <c r="EK105" s="40"/>
-    </row>
-    <row r="106" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL105" s="40"/>
+      <c r="EM105" s="40"/>
+      <c r="EN105" s="40"/>
+      <c r="EO105" s="40"/>
+      <c r="EP105" s="40"/>
+    </row>
+    <row r="106" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="40"/>
       <c r="C106" s="40"/>
@@ -17429,8 +17982,13 @@
       <c r="EI106" s="40"/>
       <c r="EJ106" s="40"/>
       <c r="EK106" s="40"/>
-    </row>
-    <row r="107" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL106" s="40"/>
+      <c r="EM106" s="40"/>
+      <c r="EN106" s="40"/>
+      <c r="EO106" s="40"/>
+      <c r="EP106" s="40"/>
+    </row>
+    <row r="107" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="40"/>
       <c r="C107" s="40"/>
@@ -17572,8 +18130,13 @@
       <c r="EI107" s="40"/>
       <c r="EJ107" s="40"/>
       <c r="EK107" s="40"/>
-    </row>
-    <row r="108" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL107" s="40"/>
+      <c r="EM107" s="40"/>
+      <c r="EN107" s="40"/>
+      <c r="EO107" s="40"/>
+      <c r="EP107" s="40"/>
+    </row>
+    <row r="108" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="40"/>
       <c r="C108" s="40"/>
@@ -17715,8 +18278,13 @@
       <c r="EI108" s="40"/>
       <c r="EJ108" s="40"/>
       <c r="EK108" s="40"/>
-    </row>
-    <row r="109" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL108" s="40"/>
+      <c r="EM108" s="40"/>
+      <c r="EN108" s="40"/>
+      <c r="EO108" s="40"/>
+      <c r="EP108" s="40"/>
+    </row>
+    <row r="109" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="40"/>
       <c r="C109" s="40"/>
@@ -17858,8 +18426,13 @@
       <c r="EI109" s="40"/>
       <c r="EJ109" s="40"/>
       <c r="EK109" s="40"/>
-    </row>
-    <row r="110" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL109" s="40"/>
+      <c r="EM109" s="40"/>
+      <c r="EN109" s="40"/>
+      <c r="EO109" s="40"/>
+      <c r="EP109" s="40"/>
+    </row>
+    <row r="110" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="40"/>
       <c r="C110" s="40"/>
@@ -18001,8 +18574,13 @@
       <c r="EI110" s="40"/>
       <c r="EJ110" s="40"/>
       <c r="EK110" s="40"/>
-    </row>
-    <row r="111" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL110" s="40"/>
+      <c r="EM110" s="40"/>
+      <c r="EN110" s="40"/>
+      <c r="EO110" s="40"/>
+      <c r="EP110" s="40"/>
+    </row>
+    <row r="111" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="40"/>
       <c r="C111" s="40"/>
@@ -18144,8 +18722,13 @@
       <c r="EI111" s="40"/>
       <c r="EJ111" s="40"/>
       <c r="EK111" s="40"/>
-    </row>
-    <row r="112" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL111" s="40"/>
+      <c r="EM111" s="40"/>
+      <c r="EN111" s="40"/>
+      <c r="EO111" s="40"/>
+      <c r="EP111" s="40"/>
+    </row>
+    <row r="112" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="40"/>
       <c r="C112" s="40"/>
@@ -18287,8 +18870,13 @@
       <c r="EI112" s="40"/>
       <c r="EJ112" s="40"/>
       <c r="EK112" s="40"/>
-    </row>
-    <row r="113" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL112" s="40"/>
+      <c r="EM112" s="40"/>
+      <c r="EN112" s="40"/>
+      <c r="EO112" s="40"/>
+      <c r="EP112" s="40"/>
+    </row>
+    <row r="113" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="40"/>
       <c r="C113" s="40"/>
@@ -18430,8 +19018,13 @@
       <c r="EI113" s="40"/>
       <c r="EJ113" s="40"/>
       <c r="EK113" s="40"/>
-    </row>
-    <row r="114" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL113" s="40"/>
+      <c r="EM113" s="40"/>
+      <c r="EN113" s="40"/>
+      <c r="EO113" s="40"/>
+      <c r="EP113" s="40"/>
+    </row>
+    <row r="114" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="40"/>
       <c r="C114" s="40"/>
@@ -18573,8 +19166,13 @@
       <c r="EI114" s="40"/>
       <c r="EJ114" s="40"/>
       <c r="EK114" s="40"/>
-    </row>
-    <row r="115" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL114" s="40"/>
+      <c r="EM114" s="40"/>
+      <c r="EN114" s="40"/>
+      <c r="EO114" s="40"/>
+      <c r="EP114" s="40"/>
+    </row>
+    <row r="115" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="40"/>
       <c r="C115" s="40"/>
@@ -18716,8 +19314,13 @@
       <c r="EI115" s="40"/>
       <c r="EJ115" s="40"/>
       <c r="EK115" s="40"/>
-    </row>
-    <row r="116" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL115" s="40"/>
+      <c r="EM115" s="40"/>
+      <c r="EN115" s="40"/>
+      <c r="EO115" s="40"/>
+      <c r="EP115" s="40"/>
+    </row>
+    <row r="116" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="40"/>
       <c r="C116" s="40"/>
@@ -18859,8 +19462,13 @@
       <c r="EI116" s="40"/>
       <c r="EJ116" s="40"/>
       <c r="EK116" s="40"/>
-    </row>
-    <row r="117" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL116" s="40"/>
+      <c r="EM116" s="40"/>
+      <c r="EN116" s="40"/>
+      <c r="EO116" s="40"/>
+      <c r="EP116" s="40"/>
+    </row>
+    <row r="117" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="40"/>
       <c r="C117" s="40"/>
@@ -19002,8 +19610,13 @@
       <c r="EI117" s="40"/>
       <c r="EJ117" s="40"/>
       <c r="EK117" s="40"/>
-    </row>
-    <row r="118" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL117" s="40"/>
+      <c r="EM117" s="40"/>
+      <c r="EN117" s="40"/>
+      <c r="EO117" s="40"/>
+      <c r="EP117" s="40"/>
+    </row>
+    <row r="118" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="40"/>
       <c r="C118" s="40"/>
@@ -19145,8 +19758,13 @@
       <c r="EI118" s="40"/>
       <c r="EJ118" s="40"/>
       <c r="EK118" s="40"/>
-    </row>
-    <row r="119" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL118" s="40"/>
+      <c r="EM118" s="40"/>
+      <c r="EN118" s="40"/>
+      <c r="EO118" s="40"/>
+      <c r="EP118" s="40"/>
+    </row>
+    <row r="119" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="40"/>
       <c r="C119" s="40"/>
@@ -19288,8 +19906,13 @@
       <c r="EI119" s="40"/>
       <c r="EJ119" s="40"/>
       <c r="EK119" s="40"/>
-    </row>
-    <row r="120" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL119" s="40"/>
+      <c r="EM119" s="40"/>
+      <c r="EN119" s="40"/>
+      <c r="EO119" s="40"/>
+      <c r="EP119" s="40"/>
+    </row>
+    <row r="120" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="40"/>
       <c r="C120" s="40"/>
@@ -19431,8 +20054,13 @@
       <c r="EI120" s="40"/>
       <c r="EJ120" s="40"/>
       <c r="EK120" s="40"/>
-    </row>
-    <row r="121" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL120" s="40"/>
+      <c r="EM120" s="40"/>
+      <c r="EN120" s="40"/>
+      <c r="EO120" s="40"/>
+      <c r="EP120" s="40"/>
+    </row>
+    <row r="121" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="40"/>
       <c r="C121" s="40"/>
@@ -19574,8 +20202,13 @@
       <c r="EI121" s="40"/>
       <c r="EJ121" s="40"/>
       <c r="EK121" s="40"/>
-    </row>
-    <row r="122" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL121" s="40"/>
+      <c r="EM121" s="40"/>
+      <c r="EN121" s="40"/>
+      <c r="EO121" s="40"/>
+      <c r="EP121" s="40"/>
+    </row>
+    <row r="122" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="40"/>
       <c r="C122" s="40"/>
@@ -19717,8 +20350,13 @@
       <c r="EI122" s="40"/>
       <c r="EJ122" s="40"/>
       <c r="EK122" s="40"/>
-    </row>
-    <row r="123" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL122" s="40"/>
+      <c r="EM122" s="40"/>
+      <c r="EN122" s="40"/>
+      <c r="EO122" s="40"/>
+      <c r="EP122" s="40"/>
+    </row>
+    <row r="123" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="40"/>
       <c r="C123" s="40"/>
@@ -19860,8 +20498,13 @@
       <c r="EI123" s="40"/>
       <c r="EJ123" s="40"/>
       <c r="EK123" s="40"/>
-    </row>
-    <row r="124" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL123" s="40"/>
+      <c r="EM123" s="40"/>
+      <c r="EN123" s="40"/>
+      <c r="EO123" s="40"/>
+      <c r="EP123" s="40"/>
+    </row>
+    <row r="124" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="40"/>
       <c r="C124" s="40"/>
@@ -20003,8 +20646,13 @@
       <c r="EI124" s="40"/>
       <c r="EJ124" s="40"/>
       <c r="EK124" s="40"/>
-    </row>
-    <row r="125" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL124" s="40"/>
+      <c r="EM124" s="40"/>
+      <c r="EN124" s="40"/>
+      <c r="EO124" s="40"/>
+      <c r="EP124" s="40"/>
+    </row>
+    <row r="125" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="32"/>
       <c r="B125" s="32"/>
       <c r="C125" s="32"/>
@@ -20142,12 +20790,17 @@
       <c r="EE125" s="40"/>
       <c r="EF125" s="40"/>
       <c r="EG125" s="40"/>
-      <c r="EH125" s="32"/>
+      <c r="EH125" s="40"/>
       <c r="EI125" s="40"/>
       <c r="EJ125" s="40"/>
       <c r="EK125" s="40"/>
-    </row>
-    <row r="126" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL125" s="40"/>
+      <c r="EM125" s="32"/>
+      <c r="EN125" s="40"/>
+      <c r="EO125" s="40"/>
+      <c r="EP125" s="40"/>
+    </row>
+    <row r="126" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="32"/>
       <c r="B126" s="32"/>
       <c r="C126" s="32"/>
@@ -20285,12 +20938,17 @@
       <c r="EE126" s="40"/>
       <c r="EF126" s="40"/>
       <c r="EG126" s="40"/>
-      <c r="EH126" s="32"/>
+      <c r="EH126" s="40"/>
       <c r="EI126" s="40"/>
       <c r="EJ126" s="40"/>
       <c r="EK126" s="40"/>
-    </row>
-    <row r="127" spans="1:141" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="EL126" s="40"/>
+      <c r="EM126" s="32"/>
+      <c r="EN126" s="40"/>
+      <c r="EO126" s="40"/>
+      <c r="EP126" s="40"/>
+    </row>
+    <row r="127" spans="1:146" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="32"/>
       <c r="B127" s="32"/>
       <c r="C127" s="32"/>
@@ -20428,12 +21086,17 @@
       <c r="EE127" s="40"/>
       <c r="EF127" s="40"/>
       <c r="EG127" s="40"/>
-      <c r="EH127" s="32"/>
+      <c r="EH127" s="40"/>
       <c r="EI127" s="40"/>
       <c r="EJ127" s="40"/>
       <c r="EK127" s="40"/>
-    </row>
-    <row r="128" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="EL127" s="40"/>
+      <c r="EM127" s="32"/>
+      <c r="EN127" s="40"/>
+      <c r="EO127" s="40"/>
+      <c r="EP127" s="40"/>
+    </row>
+    <row r="128" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A128" s="32"/>
       <c r="B128" s="32"/>
       <c r="C128" s="32"/>
@@ -20465,9 +21128,9 @@
       <c r="DK128" s="32"/>
       <c r="DL128" s="32"/>
       <c r="DM128" s="32"/>
-      <c r="EH128" s="32"/>
-    </row>
-    <row r="129" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM128" s="32"/>
+    </row>
+    <row r="129" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A129" s="32"/>
       <c r="B129" s="32"/>
       <c r="C129" s="32"/>
@@ -20499,9 +21162,9 @@
       <c r="DK129" s="32"/>
       <c r="DL129" s="32"/>
       <c r="DM129" s="32"/>
-      <c r="EH129" s="32"/>
-    </row>
-    <row r="130" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM129" s="32"/>
+    </row>
+    <row r="130" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A130" s="32"/>
       <c r="B130" s="32"/>
       <c r="C130" s="32"/>
@@ -20533,9 +21196,9 @@
       <c r="DK130" s="32"/>
       <c r="DL130" s="32"/>
       <c r="DM130" s="32"/>
-      <c r="EH130" s="32"/>
-    </row>
-    <row r="131" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM130" s="32"/>
+    </row>
+    <row r="131" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A131" s="32"/>
       <c r="B131" s="32"/>
       <c r="C131" s="32"/>
@@ -20567,9 +21230,9 @@
       <c r="DK131" s="32"/>
       <c r="DL131" s="32"/>
       <c r="DM131" s="32"/>
-      <c r="EH131" s="32"/>
-    </row>
-    <row r="132" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM131" s="32"/>
+    </row>
+    <row r="132" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A132" s="32"/>
       <c r="B132" s="32"/>
       <c r="C132" s="32"/>
@@ -20601,9 +21264,9 @@
       <c r="DK132" s="32"/>
       <c r="DL132" s="32"/>
       <c r="DM132" s="32"/>
-      <c r="EH132" s="32"/>
-    </row>
-    <row r="133" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM132" s="32"/>
+    </row>
+    <row r="133" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A133" s="32"/>
       <c r="B133" s="32"/>
       <c r="C133" s="32"/>
@@ -20635,9 +21298,9 @@
       <c r="DK133" s="32"/>
       <c r="DL133" s="32"/>
       <c r="DM133" s="32"/>
-      <c r="EH133" s="32"/>
-    </row>
-    <row r="134" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM133" s="32"/>
+    </row>
+    <row r="134" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A134" s="32"/>
       <c r="B134" s="32"/>
       <c r="C134" s="32"/>
@@ -20669,9 +21332,9 @@
       <c r="DK134" s="32"/>
       <c r="DL134" s="32"/>
       <c r="DM134" s="32"/>
-      <c r="EH134" s="32"/>
-    </row>
-    <row r="135" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM134" s="32"/>
+    </row>
+    <row r="135" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A135" s="32"/>
       <c r="B135" s="32"/>
       <c r="C135" s="32"/>
@@ -20703,9 +21366,9 @@
       <c r="DK135" s="32"/>
       <c r="DL135" s="32"/>
       <c r="DM135" s="32"/>
-      <c r="EH135" s="32"/>
-    </row>
-    <row r="136" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM135" s="32"/>
+    </row>
+    <row r="136" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A136" s="32"/>
       <c r="B136" s="32"/>
       <c r="C136" s="32"/>
@@ -20737,9 +21400,9 @@
       <c r="DK136" s="32"/>
       <c r="DL136" s="32"/>
       <c r="DM136" s="32"/>
-      <c r="EH136" s="32"/>
-    </row>
-    <row r="137" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM136" s="32"/>
+    </row>
+    <row r="137" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A137" s="32"/>
       <c r="B137" s="32"/>
       <c r="C137" s="32"/>
@@ -20771,9 +21434,9 @@
       <c r="DK137" s="32"/>
       <c r="DL137" s="32"/>
       <c r="DM137" s="32"/>
-      <c r="EH137" s="32"/>
-    </row>
-    <row r="138" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM137" s="32"/>
+    </row>
+    <row r="138" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A138" s="32"/>
       <c r="B138" s="32"/>
       <c r="C138" s="32"/>
@@ -20805,9 +21468,9 @@
       <c r="DK138" s="32"/>
       <c r="DL138" s="32"/>
       <c r="DM138" s="32"/>
-      <c r="EH138" s="32"/>
-    </row>
-    <row r="139" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM138" s="32"/>
+    </row>
+    <row r="139" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A139" s="32"/>
       <c r="B139" s="32"/>
       <c r="C139" s="32"/>
@@ -20839,9 +21502,9 @@
       <c r="DK139" s="32"/>
       <c r="DL139" s="32"/>
       <c r="DM139" s="32"/>
-      <c r="EH139" s="32"/>
-    </row>
-    <row r="140" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM139" s="32"/>
+    </row>
+    <row r="140" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A140" s="32"/>
       <c r="B140" s="32"/>
       <c r="C140" s="32"/>
@@ -20873,9 +21536,9 @@
       <c r="DK140" s="32"/>
       <c r="DL140" s="32"/>
       <c r="DM140" s="32"/>
-      <c r="EH140" s="32"/>
-    </row>
-    <row r="141" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM140" s="32"/>
+    </row>
+    <row r="141" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A141" s="32"/>
       <c r="B141" s="32"/>
       <c r="C141" s="32"/>
@@ -20907,9 +21570,9 @@
       <c r="DK141" s="32"/>
       <c r="DL141" s="32"/>
       <c r="DM141" s="32"/>
-      <c r="EH141" s="32"/>
-    </row>
-    <row r="142" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM141" s="32"/>
+    </row>
+    <row r="142" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A142" s="32"/>
       <c r="B142" s="32"/>
       <c r="C142" s="32"/>
@@ -20941,9 +21604,9 @@
       <c r="DK142" s="32"/>
       <c r="DL142" s="32"/>
       <c r="DM142" s="32"/>
-      <c r="EH142" s="32"/>
-    </row>
-    <row r="143" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM142" s="32"/>
+    </row>
+    <row r="143" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A143" s="43"/>
       <c r="B143" s="32"/>
       <c r="C143" s="32"/>
@@ -20975,9 +21638,9 @@
       <c r="DK143" s="32"/>
       <c r="DL143" s="32"/>
       <c r="DM143" s="32"/>
-      <c r="EH143" s="32"/>
-    </row>
-    <row r="144" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM143" s="32"/>
+    </row>
+    <row r="144" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A144" s="43"/>
       <c r="B144" s="32"/>
       <c r="C144" s="32"/>
@@ -21009,9 +21672,9 @@
       <c r="DK144" s="32"/>
       <c r="DL144" s="32"/>
       <c r="DM144" s="32"/>
-      <c r="EH144" s="32"/>
-    </row>
-    <row r="145" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM144" s="32"/>
+    </row>
+    <row r="145" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A145" s="32"/>
       <c r="B145" s="32"/>
       <c r="C145" s="32"/>
@@ -21043,9 +21706,9 @@
       <c r="DK145" s="32"/>
       <c r="DL145" s="32"/>
       <c r="DM145" s="32"/>
-      <c r="EH145" s="32"/>
-    </row>
-    <row r="146" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM145" s="32"/>
+    </row>
+    <row r="146" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A146" s="32"/>
       <c r="B146" s="32"/>
       <c r="C146" s="32"/>
@@ -21077,9 +21740,9 @@
       <c r="DK146" s="32"/>
       <c r="DL146" s="32"/>
       <c r="DM146" s="32"/>
-      <c r="EH146" s="32"/>
-    </row>
-    <row r="147" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM146" s="32"/>
+    </row>
+    <row r="147" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A147" s="32"/>
       <c r="B147" s="32"/>
       <c r="C147" s="32"/>
@@ -21111,9 +21774,9 @@
       <c r="DK147" s="32"/>
       <c r="DL147" s="32"/>
       <c r="DM147" s="32"/>
-      <c r="EH147" s="32"/>
-    </row>
-    <row r="148" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM147" s="32"/>
+    </row>
+    <row r="148" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B148" s="32"/>
       <c r="C148" s="32"/>
       <c r="D148" s="32"/>
@@ -21144,9 +21807,9 @@
       <c r="DK148" s="32"/>
       <c r="DL148" s="32"/>
       <c r="DM148" s="32"/>
-      <c r="EH148" s="32"/>
-    </row>
-    <row r="149" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM148" s="32"/>
+    </row>
+    <row r="149" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B149" s="32"/>
       <c r="C149" s="32"/>
       <c r="D149" s="32"/>
@@ -21177,9 +21840,9 @@
       <c r="DK149" s="32"/>
       <c r="DL149" s="32"/>
       <c r="DM149" s="32"/>
-      <c r="EH149" s="32"/>
-    </row>
-    <row r="150" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM149" s="32"/>
+    </row>
+    <row r="150" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A150" s="32"/>
       <c r="B150" s="32"/>
       <c r="C150" s="32"/>
@@ -21211,9 +21874,9 @@
       <c r="DK150" s="32"/>
       <c r="DL150" s="32"/>
       <c r="DM150" s="32"/>
-      <c r="EH150" s="32"/>
-    </row>
-    <row r="151" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM150" s="32"/>
+    </row>
+    <row r="151" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A151" s="45"/>
       <c r="B151" s="32"/>
       <c r="C151" s="32"/>
@@ -21245,9 +21908,9 @@
       <c r="DK151" s="32"/>
       <c r="DL151" s="32"/>
       <c r="DM151" s="32"/>
-      <c r="EH151" s="32"/>
-    </row>
-    <row r="152" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM151" s="32"/>
+    </row>
+    <row r="152" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A152" s="45"/>
       <c r="B152" s="32"/>
       <c r="C152" s="32"/>
@@ -21279,9 +21942,9 @@
       <c r="DK152" s="32"/>
       <c r="DL152" s="32"/>
       <c r="DM152" s="32"/>
-      <c r="EH152" s="32"/>
-    </row>
-    <row r="153" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM152" s="32"/>
+    </row>
+    <row r="153" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A153" s="34"/>
       <c r="B153" s="32"/>
       <c r="C153" s="32"/>
@@ -21313,9 +21976,9 @@
       <c r="DK153" s="32"/>
       <c r="DL153" s="32"/>
       <c r="DM153" s="32"/>
-      <c r="EH153" s="32"/>
-    </row>
-    <row r="154" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM153" s="32"/>
+    </row>
+    <row r="154" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A154" s="32"/>
       <c r="B154" s="32"/>
       <c r="C154" s="32"/>
@@ -21347,9 +22010,9 @@
       <c r="DK154" s="32"/>
       <c r="DL154" s="32"/>
       <c r="DM154" s="32"/>
-      <c r="EH154" s="32"/>
-    </row>
-    <row r="155" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM154" s="32"/>
+    </row>
+    <row r="155" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A155" s="32"/>
       <c r="B155" s="32"/>
       <c r="C155" s="32"/>
@@ -21381,9 +22044,9 @@
       <c r="DK155" s="32"/>
       <c r="DL155" s="32"/>
       <c r="DM155" s="32"/>
-      <c r="EH155" s="32"/>
-    </row>
-    <row r="156" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM155" s="32"/>
+    </row>
+    <row r="156" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A156" s="32"/>
       <c r="B156" s="32"/>
       <c r="C156" s="32"/>
@@ -21415,9 +22078,9 @@
       <c r="DK156" s="32"/>
       <c r="DL156" s="32"/>
       <c r="DM156" s="32"/>
-      <c r="EH156" s="32"/>
-    </row>
-    <row r="157" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM156" s="32"/>
+    </row>
+    <row r="157" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A157" s="32"/>
       <c r="B157" s="32"/>
       <c r="C157" s="32"/>
@@ -21449,9 +22112,9 @@
       <c r="DK157" s="32"/>
       <c r="DL157" s="32"/>
       <c r="DM157" s="32"/>
-      <c r="EH157" s="32"/>
-    </row>
-    <row r="158" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM157" s="32"/>
+    </row>
+    <row r="158" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A158" s="32"/>
       <c r="B158" s="32"/>
       <c r="C158" s="32"/>
@@ -21483,9 +22146,9 @@
       <c r="DK158" s="32"/>
       <c r="DL158" s="32"/>
       <c r="DM158" s="32"/>
-      <c r="EH158" s="32"/>
-    </row>
-    <row r="159" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM158" s="32"/>
+    </row>
+    <row r="159" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A159" s="32"/>
       <c r="B159" s="32"/>
       <c r="C159" s="32"/>
@@ -21517,9 +22180,9 @@
       <c r="DK159" s="32"/>
       <c r="DL159" s="32"/>
       <c r="DM159" s="32"/>
-      <c r="EH159" s="32"/>
-    </row>
-    <row r="160" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM159" s="32"/>
+    </row>
+    <row r="160" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A160" s="46"/>
       <c r="B160" s="57"/>
       <c r="C160" s="32"/>
@@ -21551,9 +22214,9 @@
       <c r="DK160" s="32"/>
       <c r="DL160" s="32"/>
       <c r="DM160" s="32"/>
-      <c r="EH160" s="32"/>
-    </row>
-    <row r="161" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM160" s="32"/>
+    </row>
+    <row r="161" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A161" s="46"/>
       <c r="B161" s="57"/>
       <c r="C161" s="32"/>
@@ -21585,9 +22248,9 @@
       <c r="DK161" s="32"/>
       <c r="DL161" s="32"/>
       <c r="DM161" s="32"/>
-      <c r="EH161" s="32"/>
-    </row>
-    <row r="162" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM161" s="32"/>
+    </row>
+    <row r="162" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A162" s="46"/>
       <c r="B162" s="57"/>
       <c r="C162" s="32"/>
@@ -21619,9 +22282,9 @@
       <c r="DK162" s="32"/>
       <c r="DL162" s="32"/>
       <c r="DM162" s="32"/>
-      <c r="EH162" s="32"/>
-    </row>
-    <row r="163" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM162" s="32"/>
+    </row>
+    <row r="163" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A163" s="46"/>
       <c r="B163" s="57"/>
       <c r="C163" s="32"/>
@@ -21653,9 +22316,9 @@
       <c r="DK163" s="32"/>
       <c r="DL163" s="32"/>
       <c r="DM163" s="32"/>
-      <c r="EH163" s="32"/>
-    </row>
-    <row r="164" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM163" s="32"/>
+    </row>
+    <row r="164" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A164" s="46"/>
       <c r="B164" s="57"/>
       <c r="C164" s="32"/>
@@ -21687,9 +22350,9 @@
       <c r="DK164" s="32"/>
       <c r="DL164" s="32"/>
       <c r="DM164" s="32"/>
-      <c r="EH164" s="32"/>
-    </row>
-    <row r="165" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM164" s="32"/>
+    </row>
+    <row r="165" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A165" s="46"/>
       <c r="B165" s="57"/>
       <c r="C165" s="32"/>
@@ -21721,9 +22384,9 @@
       <c r="DK165" s="32"/>
       <c r="DL165" s="32"/>
       <c r="DM165" s="32"/>
-      <c r="EH165" s="32"/>
-    </row>
-    <row r="166" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM165" s="32"/>
+    </row>
+    <row r="166" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A166" s="46"/>
       <c r="B166" s="57"/>
       <c r="C166" s="32"/>
@@ -21755,9 +22418,9 @@
       <c r="DK166" s="32"/>
       <c r="DL166" s="32"/>
       <c r="DM166" s="32"/>
-      <c r="EH166" s="32"/>
-    </row>
-    <row r="167" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM166" s="32"/>
+    </row>
+    <row r="167" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A167" s="46"/>
       <c r="B167" s="57"/>
       <c r="C167" s="32"/>
@@ -21789,9 +22452,9 @@
       <c r="DK167" s="32"/>
       <c r="DL167" s="32"/>
       <c r="DM167" s="32"/>
-      <c r="EH167" s="32"/>
-    </row>
-    <row r="168" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM167" s="32"/>
+    </row>
+    <row r="168" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A168" s="46"/>
       <c r="B168" s="57"/>
       <c r="C168" s="32"/>
@@ -21823,9 +22486,9 @@
       <c r="DK168" s="32"/>
       <c r="DL168" s="32"/>
       <c r="DM168" s="32"/>
-      <c r="EH168" s="32"/>
-    </row>
-    <row r="169" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM168" s="32"/>
+    </row>
+    <row r="169" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A169" s="46"/>
       <c r="B169" s="57"/>
       <c r="C169" s="32"/>
@@ -21857,9 +22520,9 @@
       <c r="DK169" s="32"/>
       <c r="DL169" s="32"/>
       <c r="DM169" s="32"/>
-      <c r="EH169" s="32"/>
-    </row>
-    <row r="170" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM169" s="32"/>
+    </row>
+    <row r="170" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A170" s="32"/>
       <c r="B170" s="32"/>
       <c r="C170" s="32"/>
@@ -21891,9 +22554,9 @@
       <c r="DK170" s="32"/>
       <c r="DL170" s="32"/>
       <c r="DM170" s="32"/>
-      <c r="EH170" s="32"/>
-    </row>
-    <row r="171" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM170" s="32"/>
+    </row>
+    <row r="171" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A171" s="32"/>
       <c r="B171" s="32"/>
       <c r="C171" s="32"/>
@@ -21925,9 +22588,9 @@
       <c r="DK171" s="32"/>
       <c r="DL171" s="32"/>
       <c r="DM171" s="32"/>
-      <c r="EH171" s="32"/>
-    </row>
-    <row r="172" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM171" s="32"/>
+    </row>
+    <row r="172" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A172" s="32"/>
       <c r="B172" s="32"/>
       <c r="C172" s="32"/>
@@ -21959,9 +22622,9 @@
       <c r="DK172" s="32"/>
       <c r="DL172" s="32"/>
       <c r="DM172" s="32"/>
-      <c r="EH172" s="32"/>
-    </row>
-    <row r="173" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM172" s="32"/>
+    </row>
+    <row r="173" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A173" s="32"/>
       <c r="B173" s="32"/>
       <c r="C173" s="32"/>
@@ -21993,9 +22656,9 @@
       <c r="DK173" s="32"/>
       <c r="DL173" s="32"/>
       <c r="DM173" s="32"/>
-      <c r="EH173" s="32"/>
-    </row>
-    <row r="174" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM173" s="32"/>
+    </row>
+    <row r="174" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A174" s="32"/>
       <c r="B174" s="32"/>
       <c r="C174" s="32"/>
@@ -22027,9 +22690,9 @@
       <c r="DK174" s="32"/>
       <c r="DL174" s="32"/>
       <c r="DM174" s="32"/>
-      <c r="EH174" s="32"/>
-    </row>
-    <row r="175" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM174" s="32"/>
+    </row>
+    <row r="175" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A175" s="32"/>
       <c r="B175" s="32"/>
       <c r="C175" s="32"/>
@@ -22061,9 +22724,9 @@
       <c r="DK175" s="32"/>
       <c r="DL175" s="32"/>
       <c r="DM175" s="32"/>
-      <c r="EH175" s="32"/>
-    </row>
-    <row r="176" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM175" s="32"/>
+    </row>
+    <row r="176" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A176" s="32"/>
       <c r="B176" s="32"/>
       <c r="C176" s="32"/>
@@ -22095,9 +22758,9 @@
       <c r="DK176" s="32"/>
       <c r="DL176" s="32"/>
       <c r="DM176" s="32"/>
-      <c r="EH176" s="32"/>
-    </row>
-    <row r="177" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM176" s="32"/>
+    </row>
+    <row r="177" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A177" s="32"/>
       <c r="B177" s="32"/>
       <c r="C177" s="32"/>
@@ -22129,9 +22792,9 @@
       <c r="DK177" s="32"/>
       <c r="DL177" s="32"/>
       <c r="DM177" s="32"/>
-      <c r="EH177" s="32"/>
-    </row>
-    <row r="178" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM177" s="32"/>
+    </row>
+    <row r="178" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A178" s="32"/>
       <c r="B178" s="32"/>
       <c r="C178" s="32"/>
@@ -22163,9 +22826,9 @@
       <c r="DK178" s="32"/>
       <c r="DL178" s="32"/>
       <c r="DM178" s="32"/>
-      <c r="EH178" s="32"/>
-    </row>
-    <row r="179" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM178" s="32"/>
+    </row>
+    <row r="179" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A179" s="32"/>
       <c r="B179" s="32"/>
       <c r="C179" s="32"/>
@@ -22197,9 +22860,9 @@
       <c r="DK179" s="32"/>
       <c r="DL179" s="32"/>
       <c r="DM179" s="32"/>
-      <c r="EH179" s="32"/>
-    </row>
-    <row r="180" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM179" s="32"/>
+    </row>
+    <row r="180" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A180" s="32"/>
       <c r="B180" s="32"/>
       <c r="C180" s="32"/>
@@ -22231,9 +22894,9 @@
       <c r="DK180" s="32"/>
       <c r="DL180" s="32"/>
       <c r="DM180" s="32"/>
-      <c r="EH180" s="32"/>
-    </row>
-    <row r="181" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM180" s="32"/>
+    </row>
+    <row r="181" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A181" s="32"/>
       <c r="B181" s="32"/>
       <c r="C181" s="32"/>
@@ -22265,9 +22928,9 @@
       <c r="DK181" s="32"/>
       <c r="DL181" s="32"/>
       <c r="DM181" s="32"/>
-      <c r="EH181" s="32"/>
-    </row>
-    <row r="182" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM181" s="32"/>
+    </row>
+    <row r="182" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A182" s="32"/>
       <c r="B182" s="32"/>
       <c r="C182" s="32"/>
@@ -22299,9 +22962,9 @@
       <c r="DK182" s="32"/>
       <c r="DL182" s="32"/>
       <c r="DM182" s="32"/>
-      <c r="EH182" s="32"/>
-    </row>
-    <row r="183" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM182" s="32"/>
+    </row>
+    <row r="183" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A183" s="32"/>
       <c r="B183" s="32"/>
       <c r="C183" s="32"/>
@@ -22333,9 +22996,9 @@
       <c r="DK183" s="32"/>
       <c r="DL183" s="32"/>
       <c r="DM183" s="32"/>
-      <c r="EH183" s="32"/>
-    </row>
-    <row r="184" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM183" s="32"/>
+    </row>
+    <row r="184" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A184" s="32"/>
       <c r="B184" s="32"/>
       <c r="C184" s="32"/>
@@ -22367,9 +23030,9 @@
       <c r="DK184" s="32"/>
       <c r="DL184" s="32"/>
       <c r="DM184" s="32"/>
-      <c r="EH184" s="32"/>
-    </row>
-    <row r="185" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM184" s="32"/>
+    </row>
+    <row r="185" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A185" s="32"/>
       <c r="B185" s="32"/>
       <c r="C185" s="32"/>
@@ -22401,9 +23064,9 @@
       <c r="DK185" s="32"/>
       <c r="DL185" s="32"/>
       <c r="DM185" s="32"/>
-      <c r="EH185" s="32"/>
-    </row>
-    <row r="186" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM185" s="32"/>
+    </row>
+    <row r="186" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A186" s="32"/>
       <c r="B186" s="32"/>
       <c r="C186" s="32"/>
@@ -22435,9 +23098,9 @@
       <c r="DK186" s="32"/>
       <c r="DL186" s="32"/>
       <c r="DM186" s="32"/>
-      <c r="EH186" s="32"/>
-    </row>
-    <row r="187" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM186" s="32"/>
+    </row>
+    <row r="187" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A187" s="32"/>
       <c r="B187" s="32"/>
       <c r="C187" s="32"/>
@@ -22469,9 +23132,9 @@
       <c r="DK187" s="32"/>
       <c r="DL187" s="32"/>
       <c r="DM187" s="32"/>
-      <c r="EH187" s="32"/>
-    </row>
-    <row r="188" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM187" s="32"/>
+    </row>
+    <row r="188" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A188" s="32"/>
       <c r="B188" s="32"/>
       <c r="C188" s="32"/>
@@ -22503,9 +23166,9 @@
       <c r="DK188" s="32"/>
       <c r="DL188" s="32"/>
       <c r="DM188" s="32"/>
-      <c r="EH188" s="32"/>
-    </row>
-    <row r="189" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM188" s="32"/>
+    </row>
+    <row r="189" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A189" s="32"/>
       <c r="B189" s="32"/>
       <c r="C189" s="32"/>
@@ -22537,9 +23200,9 @@
       <c r="DK189" s="32"/>
       <c r="DL189" s="32"/>
       <c r="DM189" s="32"/>
-      <c r="EH189" s="32"/>
-    </row>
-    <row r="190" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM189" s="32"/>
+    </row>
+    <row r="190" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A190" s="32"/>
       <c r="B190" s="32"/>
       <c r="C190" s="32"/>
@@ -22571,9 +23234,9 @@
       <c r="DK190" s="32"/>
       <c r="DL190" s="32"/>
       <c r="DM190" s="32"/>
-      <c r="EH190" s="32"/>
-    </row>
-    <row r="191" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM190" s="32"/>
+    </row>
+    <row r="191" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A191" s="32"/>
       <c r="B191" s="32"/>
       <c r="C191" s="32"/>
@@ -22605,9 +23268,9 @@
       <c r="DK191" s="32"/>
       <c r="DL191" s="32"/>
       <c r="DM191" s="32"/>
-      <c r="EH191" s="32"/>
-    </row>
-    <row r="192" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM191" s="32"/>
+    </row>
+    <row r="192" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A192" s="32"/>
       <c r="B192" s="32"/>
       <c r="C192" s="32"/>
@@ -22639,9 +23302,9 @@
       <c r="DK192" s="32"/>
       <c r="DL192" s="32"/>
       <c r="DM192" s="32"/>
-      <c r="EH192" s="32"/>
-    </row>
-    <row r="193" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM192" s="32"/>
+    </row>
+    <row r="193" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A193" s="32"/>
       <c r="B193" s="32"/>
       <c r="C193" s="32"/>
@@ -22673,9 +23336,9 @@
       <c r="DK193" s="32"/>
       <c r="DL193" s="32"/>
       <c r="DM193" s="32"/>
-      <c r="EH193" s="32"/>
-    </row>
-    <row r="194" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM193" s="32"/>
+    </row>
+    <row r="194" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A194" s="32"/>
       <c r="B194" s="32"/>
       <c r="C194" s="32"/>
@@ -22707,9 +23370,9 @@
       <c r="DK194" s="32"/>
       <c r="DL194" s="32"/>
       <c r="DM194" s="32"/>
-      <c r="EH194" s="32"/>
-    </row>
-    <row r="195" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM194" s="32"/>
+    </row>
+    <row r="195" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A195" s="32"/>
       <c r="B195" s="32"/>
       <c r="C195" s="32"/>
@@ -22741,9 +23404,9 @@
       <c r="DK195" s="32"/>
       <c r="DL195" s="32"/>
       <c r="DM195" s="32"/>
-      <c r="EH195" s="32"/>
-    </row>
-    <row r="196" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM195" s="32"/>
+    </row>
+    <row r="196" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A196" s="32"/>
       <c r="B196" s="32"/>
       <c r="C196" s="32"/>
@@ -22775,9 +23438,9 @@
       <c r="DK196" s="32"/>
       <c r="DL196" s="32"/>
       <c r="DM196" s="32"/>
-      <c r="EH196" s="32"/>
-    </row>
-    <row r="197" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM196" s="32"/>
+    </row>
+    <row r="197" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A197" s="32"/>
       <c r="B197" s="32"/>
       <c r="C197" s="32"/>
@@ -22809,9 +23472,9 @@
       <c r="DK197" s="32"/>
       <c r="DL197" s="32"/>
       <c r="DM197" s="32"/>
-      <c r="EH197" s="32"/>
-    </row>
-    <row r="198" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM197" s="32"/>
+    </row>
+    <row r="198" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A198" s="32"/>
       <c r="B198" s="32"/>
       <c r="C198" s="32"/>
@@ -22843,9 +23506,9 @@
       <c r="DK198" s="32"/>
       <c r="DL198" s="32"/>
       <c r="DM198" s="32"/>
-      <c r="EH198" s="32"/>
-    </row>
-    <row r="199" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM198" s="32"/>
+    </row>
+    <row r="199" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A199" s="32"/>
       <c r="B199" s="32"/>
       <c r="C199" s="32"/>
@@ -22877,9 +23540,9 @@
       <c r="DK199" s="32"/>
       <c r="DL199" s="32"/>
       <c r="DM199" s="32"/>
-      <c r="EH199" s="32"/>
-    </row>
-    <row r="200" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM199" s="32"/>
+    </row>
+    <row r="200" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A200" s="32"/>
       <c r="B200" s="32"/>
       <c r="C200" s="32"/>
@@ -22911,9 +23574,9 @@
       <c r="DK200" s="32"/>
       <c r="DL200" s="32"/>
       <c r="DM200" s="32"/>
-      <c r="EH200" s="32"/>
-    </row>
-    <row r="201" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM200" s="32"/>
+    </row>
+    <row r="201" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A201" s="32"/>
       <c r="B201" s="32"/>
       <c r="C201" s="32"/>
@@ -22945,9 +23608,9 @@
       <c r="DK201" s="32"/>
       <c r="DL201" s="32"/>
       <c r="DM201" s="32"/>
-      <c r="EH201" s="32"/>
-    </row>
-    <row r="202" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM201" s="32"/>
+    </row>
+    <row r="202" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A202" s="32"/>
       <c r="B202" s="32"/>
       <c r="C202" s="32"/>
@@ -22979,9 +23642,9 @@
       <c r="DK202" s="32"/>
       <c r="DL202" s="32"/>
       <c r="DM202" s="32"/>
-      <c r="EH202" s="32"/>
-    </row>
-    <row r="203" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM202" s="32"/>
+    </row>
+    <row r="203" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A203" s="32"/>
       <c r="B203" s="32"/>
       <c r="C203" s="32"/>
@@ -23013,9 +23676,9 @@
       <c r="DK203" s="32"/>
       <c r="DL203" s="32"/>
       <c r="DM203" s="32"/>
-      <c r="EH203" s="32"/>
-    </row>
-    <row r="204" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM203" s="32"/>
+    </row>
+    <row r="204" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A204" s="32"/>
       <c r="B204" s="32"/>
       <c r="C204" s="32"/>
@@ -23047,9 +23710,9 @@
       <c r="DK204" s="32"/>
       <c r="DL204" s="32"/>
       <c r="DM204" s="32"/>
-      <c r="EH204" s="32"/>
-    </row>
-    <row r="205" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM204" s="32"/>
+    </row>
+    <row r="205" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A205" s="32"/>
       <c r="B205" s="32"/>
       <c r="C205" s="32"/>
@@ -23081,9 +23744,9 @@
       <c r="DK205" s="32"/>
       <c r="DL205" s="32"/>
       <c r="DM205" s="32"/>
-      <c r="EH205" s="32"/>
-    </row>
-    <row r="206" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM205" s="32"/>
+    </row>
+    <row r="206" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A206" s="32"/>
       <c r="B206" s="32"/>
       <c r="C206" s="32"/>
@@ -23115,9 +23778,9 @@
       <c r="DK206" s="32"/>
       <c r="DL206" s="32"/>
       <c r="DM206" s="32"/>
-      <c r="EH206" s="32"/>
-    </row>
-    <row r="207" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM206" s="32"/>
+    </row>
+    <row r="207" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A207" s="32"/>
       <c r="B207" s="32"/>
       <c r="C207" s="32"/>
@@ -23149,9 +23812,9 @@
       <c r="DK207" s="32"/>
       <c r="DL207" s="32"/>
       <c r="DM207" s="32"/>
-      <c r="EH207" s="32"/>
-    </row>
-    <row r="208" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM207" s="32"/>
+    </row>
+    <row r="208" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A208" s="32"/>
       <c r="B208" s="32"/>
       <c r="C208" s="32"/>
@@ -23183,9 +23846,9 @@
       <c r="DK208" s="32"/>
       <c r="DL208" s="32"/>
       <c r="DM208" s="32"/>
-      <c r="EH208" s="32"/>
-    </row>
-    <row r="209" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM208" s="32"/>
+    </row>
+    <row r="209" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A209" s="32"/>
       <c r="B209" s="32"/>
       <c r="C209" s="32"/>
@@ -23217,9 +23880,9 @@
       <c r="DK209" s="32"/>
       <c r="DL209" s="32"/>
       <c r="DM209" s="32"/>
-      <c r="EH209" s="32"/>
-    </row>
-    <row r="210" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM209" s="32"/>
+    </row>
+    <row r="210" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A210" s="32"/>
       <c r="B210" s="32"/>
       <c r="C210" s="32"/>
@@ -23251,9 +23914,9 @@
       <c r="DK210" s="32"/>
       <c r="DL210" s="32"/>
       <c r="DM210" s="32"/>
-      <c r="EH210" s="32"/>
-    </row>
-    <row r="211" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM210" s="32"/>
+    </row>
+    <row r="211" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A211" s="32"/>
       <c r="B211" s="32"/>
       <c r="C211" s="32"/>
@@ -23285,9 +23948,9 @@
       <c r="DK211" s="32"/>
       <c r="DL211" s="32"/>
       <c r="DM211" s="32"/>
-      <c r="EH211" s="32"/>
-    </row>
-    <row r="212" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM211" s="32"/>
+    </row>
+    <row r="212" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A212" s="32"/>
       <c r="B212" s="32"/>
       <c r="C212" s="32"/>
@@ -23319,9 +23982,9 @@
       <c r="DK212" s="32"/>
       <c r="DL212" s="32"/>
       <c r="DM212" s="32"/>
-      <c r="EH212" s="32"/>
-    </row>
-    <row r="213" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM212" s="32"/>
+    </row>
+    <row r="213" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A213" s="32"/>
       <c r="B213" s="32"/>
       <c r="C213" s="32"/>
@@ -23353,9 +24016,9 @@
       <c r="DK213" s="32"/>
       <c r="DL213" s="32"/>
       <c r="DM213" s="32"/>
-      <c r="EH213" s="32"/>
-    </row>
-    <row r="214" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM213" s="32"/>
+    </row>
+    <row r="214" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A214" s="32"/>
       <c r="B214" s="32"/>
       <c r="C214" s="32"/>
@@ -23387,9 +24050,9 @@
       <c r="DK214" s="32"/>
       <c r="DL214" s="32"/>
       <c r="DM214" s="32"/>
-      <c r="EH214" s="32"/>
-    </row>
-    <row r="215" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM214" s="32"/>
+    </row>
+    <row r="215" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A215" s="32"/>
       <c r="B215" s="32"/>
       <c r="C215" s="32"/>
@@ -23421,9 +24084,9 @@
       <c r="DK215" s="32"/>
       <c r="DL215" s="32"/>
       <c r="DM215" s="32"/>
-      <c r="EH215" s="32"/>
-    </row>
-    <row r="216" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM215" s="32"/>
+    </row>
+    <row r="216" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A216" s="32"/>
       <c r="B216" s="32"/>
       <c r="C216" s="32"/>
@@ -23455,9 +24118,9 @@
       <c r="DK216" s="32"/>
       <c r="DL216" s="32"/>
       <c r="DM216" s="32"/>
-      <c r="EH216" s="32"/>
-    </row>
-    <row r="217" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM216" s="32"/>
+    </row>
+    <row r="217" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A217" s="32"/>
       <c r="B217" s="32"/>
       <c r="C217" s="32"/>
@@ -23489,9 +24152,9 @@
       <c r="DK217" s="32"/>
       <c r="DL217" s="32"/>
       <c r="DM217" s="32"/>
-      <c r="EH217" s="32"/>
-    </row>
-    <row r="218" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM217" s="32"/>
+    </row>
+    <row r="218" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A218" s="32"/>
       <c r="B218" s="32"/>
       <c r="C218" s="32"/>
@@ -23523,9 +24186,9 @@
       <c r="DK218" s="32"/>
       <c r="DL218" s="32"/>
       <c r="DM218" s="32"/>
-      <c r="EH218" s="32"/>
-    </row>
-    <row r="219" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM218" s="32"/>
+    </row>
+    <row r="219" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A219" s="32"/>
       <c r="B219" s="32"/>
       <c r="C219" s="32"/>
@@ -23557,9 +24220,9 @@
       <c r="DK219" s="32"/>
       <c r="DL219" s="32"/>
       <c r="DM219" s="32"/>
-      <c r="EH219" s="32"/>
-    </row>
-    <row r="220" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM219" s="32"/>
+    </row>
+    <row r="220" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A220" s="32"/>
       <c r="B220" s="32"/>
       <c r="C220" s="32"/>
@@ -23591,9 +24254,9 @@
       <c r="DK220" s="32"/>
       <c r="DL220" s="32"/>
       <c r="DM220" s="32"/>
-      <c r="EH220" s="32"/>
-    </row>
-    <row r="221" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM220" s="32"/>
+    </row>
+    <row r="221" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A221" s="32"/>
       <c r="B221" s="32"/>
       <c r="C221" s="32"/>
@@ -23625,9 +24288,9 @@
       <c r="DK221" s="32"/>
       <c r="DL221" s="32"/>
       <c r="DM221" s="32"/>
-      <c r="EH221" s="32"/>
-    </row>
-    <row r="222" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM221" s="32"/>
+    </row>
+    <row r="222" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A222" s="32"/>
       <c r="B222" s="32"/>
       <c r="C222" s="32"/>
@@ -23659,9 +24322,9 @@
       <c r="DK222" s="32"/>
       <c r="DL222" s="32"/>
       <c r="DM222" s="32"/>
-      <c r="EH222" s="32"/>
-    </row>
-    <row r="223" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM222" s="32"/>
+    </row>
+    <row r="223" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A223" s="32"/>
       <c r="B223" s="32"/>
       <c r="C223" s="32"/>
@@ -23693,9 +24356,9 @@
       <c r="DK223" s="32"/>
       <c r="DL223" s="32"/>
       <c r="DM223" s="32"/>
-      <c r="EH223" s="32"/>
-    </row>
-    <row r="224" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM223" s="32"/>
+    </row>
+    <row r="224" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A224" s="32"/>
       <c r="B224" s="32"/>
       <c r="C224" s="32"/>
@@ -23727,9 +24390,9 @@
       <c r="DK224" s="32"/>
       <c r="DL224" s="32"/>
       <c r="DM224" s="32"/>
-      <c r="EH224" s="32"/>
-    </row>
-    <row r="225" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM224" s="32"/>
+    </row>
+    <row r="225" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A225" s="32"/>
       <c r="B225" s="32"/>
       <c r="C225" s="32"/>
@@ -23761,9 +24424,9 @@
       <c r="DK225" s="32"/>
       <c r="DL225" s="32"/>
       <c r="DM225" s="32"/>
-      <c r="EH225" s="32"/>
-    </row>
-    <row r="226" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM225" s="32"/>
+    </row>
+    <row r="226" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A226" s="32"/>
       <c r="B226" s="32"/>
       <c r="C226" s="32"/>
@@ -23795,9 +24458,9 @@
       <c r="DK226" s="32"/>
       <c r="DL226" s="32"/>
       <c r="DM226" s="32"/>
-      <c r="EH226" s="32"/>
-    </row>
-    <row r="227" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM226" s="32"/>
+    </row>
+    <row r="227" spans="1:143" x14ac:dyDescent="0.25">
       <c r="B227" s="32"/>
       <c r="C227" s="32"/>
       <c r="D227" s="32"/>
@@ -23828,9 +24491,9 @@
       <c r="DK227" s="32"/>
       <c r="DL227" s="32"/>
       <c r="DM227" s="32"/>
-      <c r="EH227" s="32"/>
-    </row>
-    <row r="228" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM227" s="32"/>
+    </row>
+    <row r="228" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A228" s="32"/>
       <c r="B228" s="32"/>
       <c r="C228" s="32"/>
@@ -23862,9 +24525,9 @@
       <c r="DK228" s="32"/>
       <c r="DL228" s="32"/>
       <c r="DM228" s="32"/>
-      <c r="EH228" s="32"/>
-    </row>
-    <row r="229" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM228" s="32"/>
+    </row>
+    <row r="229" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A229" s="32"/>
       <c r="B229" s="32"/>
       <c r="C229" s="32"/>
@@ -23896,9 +24559,9 @@
       <c r="DK229" s="32"/>
       <c r="DL229" s="32"/>
       <c r="DM229" s="32"/>
-      <c r="EH229" s="32"/>
-    </row>
-    <row r="230" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM229" s="32"/>
+    </row>
+    <row r="230" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A230" s="32"/>
       <c r="B230" s="32"/>
       <c r="C230" s="32"/>
@@ -23930,9 +24593,9 @@
       <c r="DK230" s="32"/>
       <c r="DL230" s="32"/>
       <c r="DM230" s="32"/>
-      <c r="EH230" s="32"/>
-    </row>
-    <row r="231" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM230" s="32"/>
+    </row>
+    <row r="231" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A231" s="32"/>
       <c r="B231" s="32"/>
       <c r="C231" s="32"/>
@@ -23964,9 +24627,9 @@
       <c r="DK231" s="32"/>
       <c r="DL231" s="32"/>
       <c r="DM231" s="32"/>
-      <c r="EH231" s="32"/>
-    </row>
-    <row r="232" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM231" s="32"/>
+    </row>
+    <row r="232" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A232" s="32"/>
       <c r="B232" s="32"/>
       <c r="C232" s="32"/>
@@ -23998,9 +24661,9 @@
       <c r="DK232" s="32"/>
       <c r="DL232" s="32"/>
       <c r="DM232" s="32"/>
-      <c r="EH232" s="32"/>
-    </row>
-    <row r="233" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM232" s="32"/>
+    </row>
+    <row r="233" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A233" s="32"/>
       <c r="B233" s="32"/>
       <c r="C233" s="32"/>
@@ -24032,9 +24695,9 @@
       <c r="DK233" s="32"/>
       <c r="DL233" s="32"/>
       <c r="DM233" s="32"/>
-      <c r="EH233" s="32"/>
-    </row>
-    <row r="234" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM233" s="32"/>
+    </row>
+    <row r="234" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A234" s="32"/>
       <c r="B234" s="32"/>
       <c r="C234" s="32"/>
@@ -24066,9 +24729,9 @@
       <c r="DK234" s="32"/>
       <c r="DL234" s="32"/>
       <c r="DM234" s="32"/>
-      <c r="EH234" s="32"/>
-    </row>
-    <row r="235" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM234" s="32"/>
+    </row>
+    <row r="235" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A235" s="32"/>
       <c r="B235" s="32"/>
       <c r="C235" s="32"/>
@@ -24100,9 +24763,9 @@
       <c r="DK235" s="32"/>
       <c r="DL235" s="32"/>
       <c r="DM235" s="32"/>
-      <c r="EH235" s="32"/>
-    </row>
-    <row r="236" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM235" s="32"/>
+    </row>
+    <row r="236" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A236" s="32"/>
       <c r="B236" s="32"/>
       <c r="C236" s="32"/>
@@ -24134,9 +24797,9 @@
       <c r="DK236" s="32"/>
       <c r="DL236" s="32"/>
       <c r="DM236" s="32"/>
-      <c r="EH236" s="32"/>
-    </row>
-    <row r="237" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM236" s="32"/>
+    </row>
+    <row r="237" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A237" s="32"/>
       <c r="B237" s="32"/>
       <c r="C237" s="32"/>
@@ -24165,9 +24828,9 @@
       <c r="DK237" s="32"/>
       <c r="DL237" s="32"/>
       <c r="DM237" s="32"/>
-      <c r="EH237" s="32"/>
-    </row>
-    <row r="238" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM237" s="32"/>
+    </row>
+    <row r="238" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A238" s="32"/>
       <c r="B238" s="32"/>
       <c r="C238" s="32"/>
@@ -24196,9 +24859,9 @@
       <c r="DK238" s="32"/>
       <c r="DL238" s="32"/>
       <c r="DM238" s="32"/>
-      <c r="EH238" s="32"/>
-    </row>
-    <row r="239" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM238" s="32"/>
+    </row>
+    <row r="239" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A239" s="32"/>
       <c r="B239" s="32"/>
       <c r="C239" s="32"/>
@@ -24227,9 +24890,9 @@
       <c r="DK239" s="32"/>
       <c r="DL239" s="32"/>
       <c r="DM239" s="32"/>
-      <c r="EH239" s="32"/>
-    </row>
-    <row r="240" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM239" s="32"/>
+    </row>
+    <row r="240" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A240" s="32"/>
       <c r="B240" s="32"/>
       <c r="C240" s="32"/>
@@ -24258,9 +24921,9 @@
       <c r="DK240" s="32"/>
       <c r="DL240" s="32"/>
       <c r="DM240" s="32"/>
-      <c r="EH240" s="32"/>
-    </row>
-    <row r="241" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM240" s="32"/>
+    </row>
+    <row r="241" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A241" s="32"/>
       <c r="B241" s="32"/>
       <c r="C241" s="32"/>
@@ -24289,9 +24952,9 @@
       <c r="DK241" s="32"/>
       <c r="DL241" s="32"/>
       <c r="DM241" s="32"/>
-      <c r="EH241" s="32"/>
-    </row>
-    <row r="242" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM241" s="32"/>
+    </row>
+    <row r="242" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A242" s="32"/>
       <c r="B242" s="32"/>
       <c r="C242" s="32"/>
@@ -24320,9 +24983,9 @@
       <c r="DK242" s="32"/>
       <c r="DL242" s="32"/>
       <c r="DM242" s="32"/>
-      <c r="EH242" s="32"/>
-    </row>
-    <row r="243" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM242" s="32"/>
+    </row>
+    <row r="243" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A243" s="32"/>
       <c r="B243" s="32"/>
       <c r="C243" s="32"/>
@@ -24351,9 +25014,9 @@
       <c r="DK243" s="32"/>
       <c r="DL243" s="32"/>
       <c r="DM243" s="32"/>
-      <c r="EH243" s="32"/>
-    </row>
-    <row r="244" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM243" s="32"/>
+    </row>
+    <row r="244" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A244" s="32"/>
       <c r="B244" s="32"/>
       <c r="C244" s="32"/>
@@ -24382,9 +25045,9 @@
       <c r="DK244" s="32"/>
       <c r="DL244" s="32"/>
       <c r="DM244" s="32"/>
-      <c r="EH244" s="32"/>
-    </row>
-    <row r="245" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM244" s="32"/>
+    </row>
+    <row r="245" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A245" s="32"/>
       <c r="B245" s="32"/>
       <c r="C245" s="32"/>
@@ -24413,9 +25076,9 @@
       <c r="DK245" s="32"/>
       <c r="DL245" s="32"/>
       <c r="DM245" s="32"/>
-      <c r="EH245" s="32"/>
-    </row>
-    <row r="246" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM245" s="32"/>
+    </row>
+    <row r="246" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A246" s="32"/>
       <c r="B246" s="32"/>
       <c r="C246" s="32"/>
@@ -24444,9 +25107,9 @@
       <c r="DK246" s="32"/>
       <c r="DL246" s="32"/>
       <c r="DM246" s="32"/>
-      <c r="EH246" s="32"/>
-    </row>
-    <row r="247" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM246" s="32"/>
+    </row>
+    <row r="247" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A247" s="32"/>
       <c r="B247" s="32"/>
       <c r="C247" s="32"/>
@@ -24475,9 +25138,9 @@
       <c r="DK247" s="32"/>
       <c r="DL247" s="32"/>
       <c r="DM247" s="32"/>
-      <c r="EH247" s="32"/>
-    </row>
-    <row r="248" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM247" s="32"/>
+    </row>
+    <row r="248" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A248" s="32"/>
       <c r="B248" s="32"/>
       <c r="C248" s="32"/>
@@ -24506,9 +25169,9 @@
       <c r="DK248" s="32"/>
       <c r="DL248" s="32"/>
       <c r="DM248" s="32"/>
-      <c r="EH248" s="32"/>
-    </row>
-    <row r="249" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM248" s="32"/>
+    </row>
+    <row r="249" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A249" s="32"/>
       <c r="B249" s="32"/>
       <c r="C249" s="32"/>
@@ -24537,9 +25200,9 @@
       <c r="DK249" s="32"/>
       <c r="DL249" s="32"/>
       <c r="DM249" s="32"/>
-      <c r="EH249" s="32"/>
-    </row>
-    <row r="250" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM249" s="32"/>
+    </row>
+    <row r="250" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A250" s="32"/>
       <c r="B250" s="32"/>
       <c r="C250" s="32"/>
@@ -24568,9 +25231,9 @@
       <c r="DK250" s="32"/>
       <c r="DL250" s="32"/>
       <c r="DM250" s="32"/>
-      <c r="EH250" s="32"/>
-    </row>
-    <row r="251" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM250" s="32"/>
+    </row>
+    <row r="251" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A251" s="32"/>
       <c r="B251" s="32"/>
       <c r="C251" s="32"/>
@@ -24599,9 +25262,9 @@
       <c r="DK251" s="32"/>
       <c r="DL251" s="32"/>
       <c r="DM251" s="32"/>
-      <c r="EH251" s="32"/>
-    </row>
-    <row r="252" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM251" s="32"/>
+    </row>
+    <row r="252" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A252" s="32"/>
       <c r="B252" s="32"/>
       <c r="C252" s="32"/>
@@ -24630,9 +25293,9 @@
       <c r="DK252" s="32"/>
       <c r="DL252" s="32"/>
       <c r="DM252" s="32"/>
-      <c r="EH252" s="32"/>
-    </row>
-    <row r="253" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM252" s="32"/>
+    </row>
+    <row r="253" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A253" s="32"/>
       <c r="B253" s="32"/>
       <c r="C253" s="32"/>
@@ -24661,9 +25324,9 @@
       <c r="DK253" s="32"/>
       <c r="DL253" s="32"/>
       <c r="DM253" s="32"/>
-      <c r="EH253" s="32"/>
-    </row>
-    <row r="254" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM253" s="32"/>
+    </row>
+    <row r="254" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A254" s="32"/>
       <c r="B254" s="32"/>
       <c r="C254" s="32"/>
@@ -24692,9 +25355,9 @@
       <c r="DK254" s="32"/>
       <c r="DL254" s="32"/>
       <c r="DM254" s="32"/>
-      <c r="EH254" s="32"/>
-    </row>
-    <row r="255" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM254" s="32"/>
+    </row>
+    <row r="255" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A255" s="32"/>
       <c r="B255" s="32"/>
       <c r="C255" s="32"/>
@@ -24723,9 +25386,9 @@
       <c r="DK255" s="32"/>
       <c r="DL255" s="32"/>
       <c r="DM255" s="32"/>
-      <c r="EH255" s="32"/>
-    </row>
-    <row r="256" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM255" s="32"/>
+    </row>
+    <row r="256" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A256" s="32"/>
       <c r="B256" s="32"/>
       <c r="C256" s="32"/>
@@ -24754,9 +25417,9 @@
       <c r="DK256" s="32"/>
       <c r="DL256" s="32"/>
       <c r="DM256" s="32"/>
-      <c r="EH256" s="32"/>
-    </row>
-    <row r="257" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM256" s="32"/>
+    </row>
+    <row r="257" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A257" s="32"/>
       <c r="B257" s="32"/>
       <c r="C257" s="32"/>
@@ -24785,9 +25448,9 @@
       <c r="DK257" s="32"/>
       <c r="DL257" s="32"/>
       <c r="DM257" s="32"/>
-      <c r="EH257" s="32"/>
-    </row>
-    <row r="258" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM257" s="32"/>
+    </row>
+    <row r="258" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A258" s="32"/>
       <c r="B258" s="32"/>
       <c r="C258" s="32"/>
@@ -24816,9 +25479,9 @@
       <c r="DK258" s="32"/>
       <c r="DL258" s="32"/>
       <c r="DM258" s="32"/>
-      <c r="EH258" s="32"/>
-    </row>
-    <row r="259" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM258" s="32"/>
+    </row>
+    <row r="259" spans="1:143" x14ac:dyDescent="0.25">
       <c r="C259" s="32"/>
       <c r="D259" s="32"/>
       <c r="E259" s="32"/>
@@ -24845,9 +25508,9 @@
       <c r="DK259" s="32"/>
       <c r="DL259" s="32"/>
       <c r="DM259" s="32"/>
-      <c r="EH259" s="32"/>
-    </row>
-    <row r="260" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM259" s="32"/>
+    </row>
+    <row r="260" spans="1:143" x14ac:dyDescent="0.25">
       <c r="C260" s="32"/>
       <c r="D260" s="32"/>
       <c r="E260" s="32"/>
@@ -24874,9 +25537,9 @@
       <c r="DK260" s="32"/>
       <c r="DL260" s="32"/>
       <c r="DM260" s="32"/>
-      <c r="EH260" s="32"/>
-    </row>
-    <row r="261" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM260" s="32"/>
+    </row>
+    <row r="261" spans="1:143" x14ac:dyDescent="0.25">
       <c r="C261" s="32"/>
       <c r="D261" s="32"/>
       <c r="E261" s="32"/>
@@ -24903,9 +25566,9 @@
       <c r="DK261" s="32"/>
       <c r="DL261" s="32"/>
       <c r="DM261" s="32"/>
-      <c r="EH261" s="32"/>
-    </row>
-    <row r="262" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM261" s="32"/>
+    </row>
+    <row r="262" spans="1:143" x14ac:dyDescent="0.25">
       <c r="C262" s="32"/>
       <c r="D262" s="32"/>
       <c r="E262" s="32"/>
@@ -24932,9 +25595,9 @@
       <c r="DK262" s="32"/>
       <c r="DL262" s="32"/>
       <c r="DM262" s="32"/>
-      <c r="EH262" s="32"/>
-    </row>
-    <row r="263" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM262" s="32"/>
+    </row>
+    <row r="263" spans="1:143" x14ac:dyDescent="0.25">
       <c r="C263" s="32"/>
       <c r="D263" s="32"/>
       <c r="E263" s="32"/>
@@ -24961,9 +25624,9 @@
       <c r="DK263" s="32"/>
       <c r="DL263" s="32"/>
       <c r="DM263" s="32"/>
-      <c r="EH263" s="32"/>
-    </row>
-    <row r="264" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM263" s="32"/>
+    </row>
+    <row r="264" spans="1:143" x14ac:dyDescent="0.25">
       <c r="C264" s="32"/>
       <c r="D264" s="32"/>
       <c r="E264" s="32"/>
@@ -24990,9 +25653,9 @@
       <c r="DK264" s="32"/>
       <c r="DL264" s="32"/>
       <c r="DM264" s="32"/>
-      <c r="EH264" s="32"/>
-    </row>
-    <row r="265" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM264" s="32"/>
+    </row>
+    <row r="265" spans="1:143" x14ac:dyDescent="0.25">
       <c r="C265" s="32"/>
       <c r="D265" s="32"/>
       <c r="E265" s="32"/>
@@ -25019,9 +25682,9 @@
       <c r="DK265" s="32"/>
       <c r="DL265" s="32"/>
       <c r="DM265" s="32"/>
-      <c r="EH265" s="32"/>
-    </row>
-    <row r="266" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM265" s="32"/>
+    </row>
+    <row r="266" spans="1:143" x14ac:dyDescent="0.25">
       <c r="C266" s="32"/>
       <c r="D266" s="32"/>
       <c r="E266" s="32"/>
@@ -25048,9 +25711,9 @@
       <c r="DK266" s="32"/>
       <c r="DL266" s="32"/>
       <c r="DM266" s="32"/>
-      <c r="EH266" s="32"/>
-    </row>
-    <row r="267" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM266" s="32"/>
+    </row>
+    <row r="267" spans="1:143" x14ac:dyDescent="0.25">
       <c r="C267" s="32"/>
       <c r="D267" s="32"/>
       <c r="E267" s="32"/>
@@ -25077,9 +25740,9 @@
       <c r="DK267" s="32"/>
       <c r="DL267" s="32"/>
       <c r="DM267" s="32"/>
-      <c r="EH267" s="32"/>
-    </row>
-    <row r="268" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM267" s="32"/>
+    </row>
+    <row r="268" spans="1:143" x14ac:dyDescent="0.25">
       <c r="C268" s="32"/>
       <c r="D268" s="32"/>
       <c r="E268" s="32"/>
@@ -25106,9 +25769,9 @@
       <c r="DK268" s="32"/>
       <c r="DL268" s="32"/>
       <c r="DM268" s="32"/>
-      <c r="EH268" s="32"/>
-    </row>
-    <row r="269" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM268" s="32"/>
+    </row>
+    <row r="269" spans="1:143" x14ac:dyDescent="0.25">
       <c r="C269" s="32"/>
       <c r="D269" s="32"/>
       <c r="E269" s="32"/>
@@ -25135,9 +25798,9 @@
       <c r="DK269" s="32"/>
       <c r="DL269" s="32"/>
       <c r="DM269" s="32"/>
-      <c r="EH269" s="32"/>
-    </row>
-    <row r="270" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM269" s="32"/>
+    </row>
+    <row r="270" spans="1:143" x14ac:dyDescent="0.25">
       <c r="C270" s="32"/>
       <c r="D270" s="32"/>
       <c r="E270" s="32"/>
@@ -25164,9 +25827,9 @@
       <c r="DK270" s="32"/>
       <c r="DL270" s="32"/>
       <c r="DM270" s="32"/>
-      <c r="EH270" s="32"/>
-    </row>
-    <row r="271" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM270" s="32"/>
+    </row>
+    <row r="271" spans="1:143" x14ac:dyDescent="0.25">
       <c r="C271" s="32"/>
       <c r="D271" s="32"/>
       <c r="E271" s="32"/>
@@ -25193,9 +25856,9 @@
       <c r="DK271" s="32"/>
       <c r="DL271" s="32"/>
       <c r="DM271" s="32"/>
-      <c r="EH271" s="32"/>
-    </row>
-    <row r="272" spans="1:138" x14ac:dyDescent="0.25">
+      <c r="EM271" s="32"/>
+    </row>
+    <row r="272" spans="1:143" x14ac:dyDescent="0.25">
       <c r="C272" s="32"/>
       <c r="D272" s="32"/>
       <c r="E272" s="32"/>
@@ -25222,9 +25885,9 @@
       <c r="DK272" s="32"/>
       <c r="DL272" s="32"/>
       <c r="DM272" s="32"/>
-      <c r="EH272" s="32"/>
-    </row>
-    <row r="273" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM272" s="32"/>
+    </row>
+    <row r="273" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C273" s="32"/>
       <c r="D273" s="32"/>
       <c r="E273" s="32"/>
@@ -25251,9 +25914,9 @@
       <c r="DK273" s="32"/>
       <c r="DL273" s="32"/>
       <c r="DM273" s="32"/>
-      <c r="EH273" s="32"/>
-    </row>
-    <row r="274" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM273" s="32"/>
+    </row>
+    <row r="274" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C274" s="32"/>
       <c r="D274" s="32"/>
       <c r="E274" s="32"/>
@@ -25280,9 +25943,9 @@
       <c r="DK274" s="32"/>
       <c r="DL274" s="32"/>
       <c r="DM274" s="32"/>
-      <c r="EH274" s="32"/>
-    </row>
-    <row r="275" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM274" s="32"/>
+    </row>
+    <row r="275" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C275" s="32"/>
       <c r="D275" s="32"/>
       <c r="E275" s="32"/>
@@ -25309,9 +25972,9 @@
       <c r="DK275" s="32"/>
       <c r="DL275" s="32"/>
       <c r="DM275" s="32"/>
-      <c r="EH275" s="32"/>
-    </row>
-    <row r="276" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM275" s="32"/>
+    </row>
+    <row r="276" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C276" s="32"/>
       <c r="D276" s="32"/>
       <c r="E276" s="32"/>
@@ -25338,9 +26001,9 @@
       <c r="DK276" s="32"/>
       <c r="DL276" s="32"/>
       <c r="DM276" s="32"/>
-      <c r="EH276" s="32"/>
-    </row>
-    <row r="277" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM276" s="32"/>
+    </row>
+    <row r="277" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C277" s="32"/>
       <c r="D277" s="32"/>
       <c r="E277" s="32"/>
@@ -25367,9 +26030,9 @@
       <c r="DK277" s="32"/>
       <c r="DL277" s="32"/>
       <c r="DM277" s="32"/>
-      <c r="EH277" s="32"/>
-    </row>
-    <row r="278" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM277" s="32"/>
+    </row>
+    <row r="278" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C278" s="32"/>
       <c r="D278" s="32"/>
       <c r="E278" s="32"/>
@@ -25396,9 +26059,9 @@
       <c r="DK278" s="32"/>
       <c r="DL278" s="32"/>
       <c r="DM278" s="32"/>
-      <c r="EH278" s="32"/>
-    </row>
-    <row r="279" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM278" s="32"/>
+    </row>
+    <row r="279" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C279" s="32"/>
       <c r="D279" s="32"/>
       <c r="E279" s="32"/>
@@ -25425,9 +26088,9 @@
       <c r="DK279" s="32"/>
       <c r="DL279" s="32"/>
       <c r="DM279" s="32"/>
-      <c r="EH279" s="32"/>
-    </row>
-    <row r="280" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM279" s="32"/>
+    </row>
+    <row r="280" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C280" s="32"/>
       <c r="D280" s="32"/>
       <c r="E280" s="32"/>
@@ -25454,9 +26117,9 @@
       <c r="DK280" s="32"/>
       <c r="DL280" s="32"/>
       <c r="DM280" s="32"/>
-      <c r="EH280" s="32"/>
-    </row>
-    <row r="281" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM280" s="32"/>
+    </row>
+    <row r="281" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C281" s="32"/>
       <c r="D281" s="32"/>
       <c r="E281" s="32"/>
@@ -25483,9 +26146,9 @@
       <c r="DK281" s="32"/>
       <c r="DL281" s="32"/>
       <c r="DM281" s="32"/>
-      <c r="EH281" s="32"/>
-    </row>
-    <row r="282" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM281" s="32"/>
+    </row>
+    <row r="282" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C282" s="32"/>
       <c r="D282" s="32"/>
       <c r="E282" s="32"/>
@@ -25512,9 +26175,9 @@
       <c r="DK282" s="32"/>
       <c r="DL282" s="32"/>
       <c r="DM282" s="32"/>
-      <c r="EH282" s="32"/>
-    </row>
-    <row r="283" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM282" s="32"/>
+    </row>
+    <row r="283" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C283" s="32"/>
       <c r="D283" s="32"/>
       <c r="E283" s="32"/>
@@ -25541,9 +26204,9 @@
       <c r="DK283" s="32"/>
       <c r="DL283" s="32"/>
       <c r="DM283" s="32"/>
-      <c r="EH283" s="32"/>
-    </row>
-    <row r="284" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM283" s="32"/>
+    </row>
+    <row r="284" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C284" s="32"/>
       <c r="D284" s="32"/>
       <c r="E284" s="32"/>
@@ -25570,9 +26233,9 @@
       <c r="DK284" s="32"/>
       <c r="DL284" s="32"/>
       <c r="DM284" s="32"/>
-      <c r="EH284" s="32"/>
-    </row>
-    <row r="285" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM284" s="32"/>
+    </row>
+    <row r="285" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C285" s="32"/>
       <c r="D285" s="32"/>
       <c r="E285" s="32"/>
@@ -25599,9 +26262,9 @@
       <c r="DK285" s="32"/>
       <c r="DL285" s="32"/>
       <c r="DM285" s="32"/>
-      <c r="EH285" s="32"/>
-    </row>
-    <row r="286" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM285" s="32"/>
+    </row>
+    <row r="286" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C286" s="32"/>
       <c r="D286" s="32"/>
       <c r="E286" s="32"/>
@@ -25628,9 +26291,9 @@
       <c r="DK286" s="32"/>
       <c r="DL286" s="32"/>
       <c r="DM286" s="32"/>
-      <c r="EH286" s="32"/>
-    </row>
-    <row r="287" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM286" s="32"/>
+    </row>
+    <row r="287" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C287" s="32"/>
       <c r="D287" s="32"/>
       <c r="E287" s="32"/>
@@ -25657,9 +26320,9 @@
       <c r="DK287" s="32"/>
       <c r="DL287" s="32"/>
       <c r="DM287" s="32"/>
-      <c r="EH287" s="32"/>
-    </row>
-    <row r="288" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM287" s="32"/>
+    </row>
+    <row r="288" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C288" s="32"/>
       <c r="D288" s="32"/>
       <c r="E288" s="32"/>
@@ -25686,9 +26349,9 @@
       <c r="DK288" s="32"/>
       <c r="DL288" s="32"/>
       <c r="DM288" s="32"/>
-      <c r="EH288" s="32"/>
-    </row>
-    <row r="289" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM288" s="32"/>
+    </row>
+    <row r="289" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C289" s="32"/>
       <c r="D289" s="32"/>
       <c r="E289" s="32"/>
@@ -25715,9 +26378,9 @@
       <c r="DK289" s="32"/>
       <c r="DL289" s="32"/>
       <c r="DM289" s="32"/>
-      <c r="EH289" s="32"/>
-    </row>
-    <row r="290" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM289" s="32"/>
+    </row>
+    <row r="290" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C290" s="32"/>
       <c r="D290" s="32"/>
       <c r="E290" s="32"/>
@@ -25744,9 +26407,9 @@
       <c r="DK290" s="32"/>
       <c r="DL290" s="32"/>
       <c r="DM290" s="32"/>
-      <c r="EH290" s="32"/>
-    </row>
-    <row r="291" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM290" s="32"/>
+    </row>
+    <row r="291" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C291" s="32"/>
       <c r="D291" s="32"/>
       <c r="E291" s="32"/>
@@ -25773,9 +26436,9 @@
       <c r="DK291" s="32"/>
       <c r="DL291" s="32"/>
       <c r="DM291" s="32"/>
-      <c r="EH291" s="32"/>
-    </row>
-    <row r="292" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM291" s="32"/>
+    </row>
+    <row r="292" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C292" s="32"/>
       <c r="D292" s="32"/>
       <c r="E292" s="32"/>
@@ -25802,9 +26465,9 @@
       <c r="DK292" s="32"/>
       <c r="DL292" s="32"/>
       <c r="DM292" s="32"/>
-      <c r="EH292" s="32"/>
-    </row>
-    <row r="293" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM292" s="32"/>
+    </row>
+    <row r="293" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C293" s="32"/>
       <c r="D293" s="32"/>
       <c r="E293" s="32"/>
@@ -25831,9 +26494,9 @@
       <c r="DK293" s="32"/>
       <c r="DL293" s="32"/>
       <c r="DM293" s="32"/>
-      <c r="EH293" s="32"/>
-    </row>
-    <row r="294" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM293" s="32"/>
+    </row>
+    <row r="294" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C294" s="32"/>
       <c r="D294" s="32"/>
       <c r="E294" s="32"/>
@@ -25860,9 +26523,9 @@
       <c r="DK294" s="32"/>
       <c r="DL294" s="32"/>
       <c r="DM294" s="32"/>
-      <c r="EH294" s="32"/>
-    </row>
-    <row r="295" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM294" s="32"/>
+    </row>
+    <row r="295" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C295" s="32"/>
       <c r="D295" s="32"/>
       <c r="E295" s="32"/>
@@ -25889,9 +26552,9 @@
       <c r="DK295" s="32"/>
       <c r="DL295" s="32"/>
       <c r="DM295" s="32"/>
-      <c r="EH295" s="32"/>
-    </row>
-    <row r="296" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM295" s="32"/>
+    </row>
+    <row r="296" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C296" s="32"/>
       <c r="D296" s="32"/>
       <c r="E296" s="32"/>
@@ -25918,9 +26581,9 @@
       <c r="DK296" s="32"/>
       <c r="DL296" s="32"/>
       <c r="DM296" s="32"/>
-      <c r="EH296" s="32"/>
-    </row>
-    <row r="297" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM296" s="32"/>
+    </row>
+    <row r="297" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C297" s="32"/>
       <c r="D297" s="32"/>
       <c r="E297" s="32"/>
@@ -25947,9 +26610,9 @@
       <c r="DK297" s="32"/>
       <c r="DL297" s="32"/>
       <c r="DM297" s="32"/>
-      <c r="EH297" s="32"/>
-    </row>
-    <row r="298" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM297" s="32"/>
+    </row>
+    <row r="298" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C298" s="32"/>
       <c r="D298" s="32"/>
       <c r="E298" s="32"/>
@@ -25976,9 +26639,9 @@
       <c r="DK298" s="32"/>
       <c r="DL298" s="32"/>
       <c r="DM298" s="32"/>
-      <c r="EH298" s="32"/>
-    </row>
-    <row r="299" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM298" s="32"/>
+    </row>
+    <row r="299" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C299" s="32"/>
       <c r="D299" s="32"/>
       <c r="E299" s="32"/>
@@ -26005,9 +26668,9 @@
       <c r="DK299" s="32"/>
       <c r="DL299" s="32"/>
       <c r="DM299" s="32"/>
-      <c r="EH299" s="32"/>
-    </row>
-    <row r="300" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM299" s="32"/>
+    </row>
+    <row r="300" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C300" s="32"/>
       <c r="D300" s="32"/>
       <c r="E300" s="32"/>
@@ -26034,9 +26697,9 @@
       <c r="DK300" s="32"/>
       <c r="DL300" s="32"/>
       <c r="DM300" s="32"/>
-      <c r="EH300" s="32"/>
-    </row>
-    <row r="301" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM300" s="32"/>
+    </row>
+    <row r="301" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C301" s="32"/>
       <c r="D301" s="32"/>
       <c r="E301" s="32"/>
@@ -26063,9 +26726,9 @@
       <c r="DK301" s="32"/>
       <c r="DL301" s="32"/>
       <c r="DM301" s="32"/>
-      <c r="EH301" s="32"/>
-    </row>
-    <row r="302" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM301" s="32"/>
+    </row>
+    <row r="302" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C302" s="32"/>
       <c r="D302" s="32"/>
       <c r="E302" s="32"/>
@@ -26092,9 +26755,9 @@
       <c r="DK302" s="32"/>
       <c r="DL302" s="32"/>
       <c r="DM302" s="32"/>
-      <c r="EH302" s="32"/>
-    </row>
-    <row r="303" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM302" s="32"/>
+    </row>
+    <row r="303" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C303" s="32"/>
       <c r="D303" s="32"/>
       <c r="E303" s="32"/>
@@ -26121,9 +26784,9 @@
       <c r="DK303" s="32"/>
       <c r="DL303" s="32"/>
       <c r="DM303" s="32"/>
-      <c r="EH303" s="32"/>
-    </row>
-    <row r="304" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM303" s="32"/>
+    </row>
+    <row r="304" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C304" s="32"/>
       <c r="D304" s="32"/>
       <c r="E304" s="32"/>
@@ -26150,9 +26813,9 @@
       <c r="DK304" s="32"/>
       <c r="DL304" s="32"/>
       <c r="DM304" s="32"/>
-      <c r="EH304" s="32"/>
-    </row>
-    <row r="305" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM304" s="32"/>
+    </row>
+    <row r="305" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C305" s="32"/>
       <c r="D305" s="32"/>
       <c r="E305" s="32"/>
@@ -26179,9 +26842,9 @@
       <c r="DK305" s="32"/>
       <c r="DL305" s="32"/>
       <c r="DM305" s="32"/>
-      <c r="EH305" s="32"/>
-    </row>
-    <row r="306" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM305" s="32"/>
+    </row>
+    <row r="306" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C306" s="32"/>
       <c r="D306" s="32"/>
       <c r="E306" s="32"/>
@@ -26208,9 +26871,9 @@
       <c r="DK306" s="32"/>
       <c r="DL306" s="32"/>
       <c r="DM306" s="32"/>
-      <c r="EH306" s="32"/>
-    </row>
-    <row r="307" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM306" s="32"/>
+    </row>
+    <row r="307" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C307" s="32"/>
       <c r="D307" s="32"/>
       <c r="E307" s="32"/>
@@ -26237,9 +26900,9 @@
       <c r="DK307" s="32"/>
       <c r="DL307" s="32"/>
       <c r="DM307" s="32"/>
-      <c r="EH307" s="32"/>
-    </row>
-    <row r="308" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM307" s="32"/>
+    </row>
+    <row r="308" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C308" s="32"/>
       <c r="D308" s="32"/>
       <c r="E308" s="32"/>
@@ -26266,9 +26929,9 @@
       <c r="DK308" s="32"/>
       <c r="DL308" s="32"/>
       <c r="DM308" s="32"/>
-      <c r="EH308" s="32"/>
-    </row>
-    <row r="309" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM308" s="32"/>
+    </row>
+    <row r="309" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C309" s="32"/>
       <c r="D309" s="32"/>
       <c r="E309" s="32"/>
@@ -26295,9 +26958,9 @@
       <c r="DK309" s="32"/>
       <c r="DL309" s="32"/>
       <c r="DM309" s="32"/>
-      <c r="EH309" s="32"/>
-    </row>
-    <row r="310" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM309" s="32"/>
+    </row>
+    <row r="310" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C310" s="32"/>
       <c r="D310" s="32"/>
       <c r="E310" s="32"/>
@@ -26324,9 +26987,9 @@
       <c r="DK310" s="32"/>
       <c r="DL310" s="32"/>
       <c r="DM310" s="32"/>
-      <c r="EH310" s="32"/>
-    </row>
-    <row r="311" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM310" s="32"/>
+    </row>
+    <row r="311" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C311" s="32"/>
       <c r="D311" s="32"/>
       <c r="E311" s="32"/>
@@ -26353,9 +27016,9 @@
       <c r="DK311" s="32"/>
       <c r="DL311" s="32"/>
       <c r="DM311" s="32"/>
-      <c r="EH311" s="32"/>
-    </row>
-    <row r="312" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM311" s="32"/>
+    </row>
+    <row r="312" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C312" s="32"/>
       <c r="D312" s="32"/>
       <c r="E312" s="32"/>
@@ -26382,9 +27045,9 @@
       <c r="DK312" s="32"/>
       <c r="DL312" s="32"/>
       <c r="DM312" s="32"/>
-      <c r="EH312" s="32"/>
-    </row>
-    <row r="313" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM312" s="32"/>
+    </row>
+    <row r="313" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C313" s="32"/>
       <c r="D313" s="32"/>
       <c r="E313" s="32"/>
@@ -26411,9 +27074,9 @@
       <c r="DK313" s="32"/>
       <c r="DL313" s="32"/>
       <c r="DM313" s="32"/>
-      <c r="EH313" s="32"/>
-    </row>
-    <row r="314" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM313" s="32"/>
+    </row>
+    <row r="314" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C314" s="32"/>
       <c r="D314" s="32"/>
       <c r="E314" s="32"/>
@@ -26440,9 +27103,9 @@
       <c r="DK314" s="32"/>
       <c r="DL314" s="32"/>
       <c r="DM314" s="32"/>
-      <c r="EH314" s="32"/>
-    </row>
-    <row r="315" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM314" s="32"/>
+    </row>
+    <row r="315" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C315" s="32"/>
       <c r="D315" s="32"/>
       <c r="E315" s="32"/>
@@ -26469,9 +27132,9 @@
       <c r="DK315" s="32"/>
       <c r="DL315" s="32"/>
       <c r="DM315" s="32"/>
-      <c r="EH315" s="32"/>
-    </row>
-    <row r="316" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM315" s="32"/>
+    </row>
+    <row r="316" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C316" s="32"/>
       <c r="D316" s="32"/>
       <c r="E316" s="32"/>
@@ -26498,9 +27161,9 @@
       <c r="DK316" s="32"/>
       <c r="DL316" s="32"/>
       <c r="DM316" s="32"/>
-      <c r="EH316" s="32"/>
-    </row>
-    <row r="317" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM316" s="32"/>
+    </row>
+    <row r="317" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C317" s="32"/>
       <c r="D317" s="32"/>
       <c r="E317" s="32"/>
@@ -26527,9 +27190,9 @@
       <c r="DK317" s="32"/>
       <c r="DL317" s="32"/>
       <c r="DM317" s="32"/>
-      <c r="EH317" s="32"/>
-    </row>
-    <row r="318" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM317" s="32"/>
+    </row>
+    <row r="318" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C318" s="32"/>
       <c r="D318" s="32"/>
       <c r="E318" s="32"/>
@@ -26556,9 +27219,9 @@
       <c r="DK318" s="32"/>
       <c r="DL318" s="32"/>
       <c r="DM318" s="32"/>
-      <c r="EH318" s="32"/>
-    </row>
-    <row r="319" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM318" s="32"/>
+    </row>
+    <row r="319" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C319" s="32"/>
       <c r="D319" s="32"/>
       <c r="E319" s="32"/>
@@ -26585,9 +27248,9 @@
       <c r="DK319" s="32"/>
       <c r="DL319" s="32"/>
       <c r="DM319" s="32"/>
-      <c r="EH319" s="32"/>
-    </row>
-    <row r="320" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM319" s="32"/>
+    </row>
+    <row r="320" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C320" s="32"/>
       <c r="D320" s="32"/>
       <c r="E320" s="32"/>
@@ -26614,9 +27277,9 @@
       <c r="DK320" s="32"/>
       <c r="DL320" s="32"/>
       <c r="DM320" s="32"/>
-      <c r="EH320" s="32"/>
-    </row>
-    <row r="321" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM320" s="32"/>
+    </row>
+    <row r="321" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C321" s="32"/>
       <c r="D321" s="32"/>
       <c r="E321" s="32"/>
@@ -26643,9 +27306,9 @@
       <c r="DK321" s="32"/>
       <c r="DL321" s="32"/>
       <c r="DM321" s="32"/>
-      <c r="EH321" s="32"/>
-    </row>
-    <row r="322" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM321" s="32"/>
+    </row>
+    <row r="322" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C322" s="32"/>
       <c r="D322" s="32"/>
       <c r="E322" s="32"/>
@@ -26672,9 +27335,9 @@
       <c r="DK322" s="32"/>
       <c r="DL322" s="32"/>
       <c r="DM322" s="32"/>
-      <c r="EH322" s="32"/>
-    </row>
-    <row r="323" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM322" s="32"/>
+    </row>
+    <row r="323" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C323" s="32"/>
       <c r="D323" s="32"/>
       <c r="E323" s="32"/>
@@ -26701,9 +27364,9 @@
       <c r="DK323" s="32"/>
       <c r="DL323" s="32"/>
       <c r="DM323" s="32"/>
-      <c r="EH323" s="32"/>
-    </row>
-    <row r="324" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM323" s="32"/>
+    </row>
+    <row r="324" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C324" s="32"/>
       <c r="D324" s="32"/>
       <c r="E324" s="32"/>
@@ -26730,9 +27393,9 @@
       <c r="DK324" s="32"/>
       <c r="DL324" s="32"/>
       <c r="DM324" s="32"/>
-      <c r="EH324" s="32"/>
-    </row>
-    <row r="325" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM324" s="32"/>
+    </row>
+    <row r="325" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C325" s="32"/>
       <c r="D325" s="32"/>
       <c r="E325" s="32"/>
@@ -26759,9 +27422,9 @@
       <c r="DK325" s="32"/>
       <c r="DL325" s="32"/>
       <c r="DM325" s="32"/>
-      <c r="EH325" s="32"/>
-    </row>
-    <row r="326" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM325" s="32"/>
+    </row>
+    <row r="326" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C326" s="32"/>
       <c r="D326" s="32"/>
       <c r="E326" s="32"/>
@@ -26788,9 +27451,9 @@
       <c r="DK326" s="32"/>
       <c r="DL326" s="32"/>
       <c r="DM326" s="32"/>
-      <c r="EH326" s="32"/>
-    </row>
-    <row r="327" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM326" s="32"/>
+    </row>
+    <row r="327" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C327" s="32"/>
       <c r="D327" s="32"/>
       <c r="E327" s="32"/>
@@ -26817,9 +27480,9 @@
       <c r="DK327" s="32"/>
       <c r="DL327" s="32"/>
       <c r="DM327" s="32"/>
-      <c r="EH327" s="32"/>
-    </row>
-    <row r="328" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM327" s="32"/>
+    </row>
+    <row r="328" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C328" s="32"/>
       <c r="D328" s="32"/>
       <c r="E328" s="32"/>
@@ -26846,9 +27509,9 @@
       <c r="DK328" s="32"/>
       <c r="DL328" s="32"/>
       <c r="DM328" s="32"/>
-      <c r="EH328" s="32"/>
-    </row>
-    <row r="329" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM328" s="32"/>
+    </row>
+    <row r="329" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C329" s="32"/>
       <c r="D329" s="32"/>
       <c r="E329" s="32"/>
@@ -26875,9 +27538,9 @@
       <c r="DK329" s="32"/>
       <c r="DL329" s="32"/>
       <c r="DM329" s="32"/>
-      <c r="EH329" s="32"/>
-    </row>
-    <row r="330" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM329" s="32"/>
+    </row>
+    <row r="330" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C330" s="32"/>
       <c r="D330" s="32"/>
       <c r="E330" s="32"/>
@@ -26904,9 +27567,9 @@
       <c r="DK330" s="32"/>
       <c r="DL330" s="32"/>
       <c r="DM330" s="32"/>
-      <c r="EH330" s="32"/>
-    </row>
-    <row r="331" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM330" s="32"/>
+    </row>
+    <row r="331" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C331" s="32"/>
       <c r="D331" s="32"/>
       <c r="E331" s="32"/>
@@ -26933,9 +27596,9 @@
       <c r="DK331" s="32"/>
       <c r="DL331" s="32"/>
       <c r="DM331" s="32"/>
-      <c r="EH331" s="32"/>
-    </row>
-    <row r="332" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM331" s="32"/>
+    </row>
+    <row r="332" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C332" s="32"/>
       <c r="D332" s="32"/>
       <c r="E332" s="32"/>
@@ -26962,9 +27625,9 @@
       <c r="DK332" s="32"/>
       <c r="DL332" s="32"/>
       <c r="DM332" s="32"/>
-      <c r="EH332" s="32"/>
-    </row>
-    <row r="333" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM332" s="32"/>
+    </row>
+    <row r="333" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C333" s="32"/>
       <c r="D333" s="32"/>
       <c r="E333" s="32"/>
@@ -26991,9 +27654,9 @@
       <c r="DK333" s="32"/>
       <c r="DL333" s="32"/>
       <c r="DM333" s="32"/>
-      <c r="EH333" s="32"/>
-    </row>
-    <row r="334" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM333" s="32"/>
+    </row>
+    <row r="334" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C334" s="32"/>
       <c r="D334" s="32"/>
       <c r="E334" s="32"/>
@@ -27020,9 +27683,9 @@
       <c r="DK334" s="32"/>
       <c r="DL334" s="32"/>
       <c r="DM334" s="32"/>
-      <c r="EH334" s="32"/>
-    </row>
-    <row r="335" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM334" s="32"/>
+    </row>
+    <row r="335" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C335" s="32"/>
       <c r="D335" s="32"/>
       <c r="E335" s="32"/>
@@ -27049,9 +27712,9 @@
       <c r="DK335" s="32"/>
       <c r="DL335" s="32"/>
       <c r="DM335" s="32"/>
-      <c r="EH335" s="32"/>
-    </row>
-    <row r="336" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM335" s="32"/>
+    </row>
+    <row r="336" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C336" s="32"/>
       <c r="D336" s="32"/>
       <c r="E336" s="32"/>
@@ -27078,9 +27741,9 @@
       <c r="DK336" s="32"/>
       <c r="DL336" s="32"/>
       <c r="DM336" s="32"/>
-      <c r="EH336" s="32"/>
-    </row>
-    <row r="337" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM336" s="32"/>
+    </row>
+    <row r="337" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C337" s="32"/>
       <c r="D337" s="32"/>
       <c r="E337" s="32"/>
@@ -27107,9 +27770,9 @@
       <c r="DK337" s="32"/>
       <c r="DL337" s="32"/>
       <c r="DM337" s="32"/>
-      <c r="EH337" s="32"/>
-    </row>
-    <row r="338" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM337" s="32"/>
+    </row>
+    <row r="338" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C338" s="32"/>
       <c r="D338" s="32"/>
       <c r="E338" s="32"/>
@@ -27136,9 +27799,9 @@
       <c r="DK338" s="32"/>
       <c r="DL338" s="32"/>
       <c r="DM338" s="32"/>
-      <c r="EH338" s="32"/>
-    </row>
-    <row r="339" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM338" s="32"/>
+    </row>
+    <row r="339" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C339" s="32"/>
       <c r="D339" s="32"/>
       <c r="E339" s="32"/>
@@ -27165,9 +27828,9 @@
       <c r="DK339" s="32"/>
       <c r="DL339" s="32"/>
       <c r="DM339" s="32"/>
-      <c r="EH339" s="32"/>
-    </row>
-    <row r="340" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM339" s="32"/>
+    </row>
+    <row r="340" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C340" s="32"/>
       <c r="D340" s="32"/>
       <c r="E340" s="32"/>
@@ -27194,9 +27857,9 @@
       <c r="DK340" s="32"/>
       <c r="DL340" s="32"/>
       <c r="DM340" s="32"/>
-      <c r="EH340" s="32"/>
-    </row>
-    <row r="341" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM340" s="32"/>
+    </row>
+    <row r="341" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C341" s="32"/>
       <c r="D341" s="32"/>
       <c r="E341" s="32"/>
@@ -27223,9 +27886,9 @@
       <c r="DK341" s="32"/>
       <c r="DL341" s="32"/>
       <c r="DM341" s="32"/>
-      <c r="EH341" s="32"/>
-    </row>
-    <row r="342" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM341" s="32"/>
+    </row>
+    <row r="342" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C342" s="32"/>
       <c r="D342" s="32"/>
       <c r="E342" s="32"/>
@@ -27252,9 +27915,9 @@
       <c r="DK342" s="32"/>
       <c r="DL342" s="32"/>
       <c r="DM342" s="32"/>
-      <c r="EH342" s="32"/>
-    </row>
-    <row r="343" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM342" s="32"/>
+    </row>
+    <row r="343" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C343" s="32"/>
       <c r="D343" s="32"/>
       <c r="E343" s="32"/>
@@ -27281,9 +27944,9 @@
       <c r="DK343" s="32"/>
       <c r="DL343" s="32"/>
       <c r="DM343" s="32"/>
-      <c r="EH343" s="32"/>
-    </row>
-    <row r="344" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM343" s="32"/>
+    </row>
+    <row r="344" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C344" s="32"/>
       <c r="D344" s="32"/>
       <c r="E344" s="32"/>
@@ -27310,9 +27973,9 @@
       <c r="DK344" s="32"/>
       <c r="DL344" s="32"/>
       <c r="DM344" s="32"/>
-      <c r="EH344" s="32"/>
-    </row>
-    <row r="345" spans="3:138" x14ac:dyDescent="0.25">
+      <c r="EM344" s="32"/>
+    </row>
+    <row r="345" spans="3:143" x14ac:dyDescent="0.25">
       <c r="C345" s="32"/>
       <c r="D345" s="32"/>
       <c r="E345" s="32"/>
@@ -27339,11 +28002,15 @@
       <c r="DK345" s="32"/>
       <c r="DL345" s="32"/>
       <c r="DM345" s="32"/>
-      <c r="EH345" s="32"/>
+      <c r="EM345" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="EG1:EK1"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AU1:BC1"/>
+    <mergeCell ref="BD1:BO1"/>
+    <mergeCell ref="EC1:EF1"/>
     <mergeCell ref="AB1:AO1"/>
     <mergeCell ref="DG1:DM1"/>
     <mergeCell ref="DN1:DP1"/>
@@ -27357,11 +28024,7 @@
     <mergeCell ref="CN1:CQ1"/>
     <mergeCell ref="CR1:DA1"/>
     <mergeCell ref="DB1:DF1"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AU1:BC1"/>
-    <mergeCell ref="BD1:BO1"/>
-    <mergeCell ref="EC1:EF1"/>
+    <mergeCell ref="EG1:EO1"/>
   </mergeCells>
   <conditionalFormatting sqref="A44 A143:A144">
     <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">

--- a/SITA Project/File/file.xlsx
+++ b/SITA Project/File/file.xlsx
@@ -941,7 +941,22 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -951,12 +966,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -974,22 +983,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1328,7 +1328,7 @@
   <dimension ref="A1:EP345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="EA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="EO4" sqref="EL4:EO4"/>
+      <selection activeCell="EO3" sqref="EO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,69 +1475,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:146" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="62" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="72" t="s">
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="66" t="s">
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="66"/>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="66"/>
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="64"/>
+      <c r="BC1" s="64"/>
       <c r="BD1" s="65" t="s">
         <v>4</v>
       </c>
@@ -1552,61 +1552,61 @@
       <c r="BM1" s="65"/>
       <c r="BN1" s="65"/>
       <c r="BO1" s="65"/>
-      <c r="BP1" s="71" t="s">
+      <c r="BP1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="71"/>
-      <c r="BR1" s="71"/>
-      <c r="BS1" s="71"/>
-      <c r="BT1" s="71"/>
-      <c r="BU1" s="71"/>
-      <c r="BV1" s="72" t="s">
+      <c r="BQ1" s="74"/>
+      <c r="BR1" s="74"/>
+      <c r="BS1" s="74"/>
+      <c r="BT1" s="74"/>
+      <c r="BU1" s="74"/>
+      <c r="BV1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="BW1" s="72"/>
-      <c r="BX1" s="72"/>
-      <c r="BY1" s="72"/>
-      <c r="BZ1" s="73" t="s">
+      <c r="BW1" s="63"/>
+      <c r="BX1" s="63"/>
+      <c r="BY1" s="63"/>
+      <c r="BZ1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="CA1" s="73"/>
-      <c r="CB1" s="73"/>
-      <c r="CC1" s="73"/>
-      <c r="CD1" s="73"/>
-      <c r="CE1" s="73"/>
-      <c r="CF1" s="73"/>
-      <c r="CG1" s="73"/>
-      <c r="CH1" s="73"/>
-      <c r="CI1" s="73"/>
-      <c r="CJ1" s="73"/>
-      <c r="CK1" s="73"/>
-      <c r="CL1" s="73"/>
-      <c r="CM1" s="73"/>
-      <c r="CN1" s="74" t="s">
+      <c r="CA1" s="75"/>
+      <c r="CB1" s="75"/>
+      <c r="CC1" s="75"/>
+      <c r="CD1" s="75"/>
+      <c r="CE1" s="75"/>
+      <c r="CF1" s="75"/>
+      <c r="CG1" s="75"/>
+      <c r="CH1" s="75"/>
+      <c r="CI1" s="75"/>
+      <c r="CJ1" s="75"/>
+      <c r="CK1" s="75"/>
+      <c r="CL1" s="75"/>
+      <c r="CM1" s="75"/>
+      <c r="CN1" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="CO1" s="74"/>
-      <c r="CP1" s="74"/>
-      <c r="CQ1" s="74"/>
-      <c r="CR1" s="71" t="s">
+      <c r="CO1" s="76"/>
+      <c r="CP1" s="76"/>
+      <c r="CQ1" s="76"/>
+      <c r="CR1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="CS1" s="71"/>
-      <c r="CT1" s="71"/>
-      <c r="CU1" s="71"/>
-      <c r="CV1" s="71"/>
-      <c r="CW1" s="71"/>
-      <c r="CX1" s="71"/>
-      <c r="CY1" s="71"/>
-      <c r="CZ1" s="71"/>
-      <c r="DA1" s="71"/>
-      <c r="DB1" s="72" t="s">
+      <c r="CS1" s="74"/>
+      <c r="CT1" s="74"/>
+      <c r="CU1" s="74"/>
+      <c r="CV1" s="74"/>
+      <c r="CW1" s="74"/>
+      <c r="CX1" s="74"/>
+      <c r="CY1" s="74"/>
+      <c r="CZ1" s="74"/>
+      <c r="DA1" s="74"/>
+      <c r="DB1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="DC1" s="72"/>
-      <c r="DD1" s="72"/>
-      <c r="DE1" s="72"/>
-      <c r="DF1" s="72"/>
+      <c r="DC1" s="63"/>
+      <c r="DD1" s="63"/>
+      <c r="DE1" s="63"/>
+      <c r="DF1" s="63"/>
       <c r="DG1" s="65" t="s">
         <v>10</v>
       </c>
@@ -1616,48 +1616,48 @@
       <c r="DK1" s="65"/>
       <c r="DL1" s="65"/>
       <c r="DM1" s="65"/>
-      <c r="DN1" s="66" t="s">
+      <c r="DN1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="DO1" s="66"/>
-      <c r="DP1" s="66"/>
-      <c r="DQ1" s="67" t="s">
+      <c r="DO1" s="64"/>
+      <c r="DP1" s="64"/>
+      <c r="DQ1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="DR1" s="67"/>
-      <c r="DS1" s="67"/>
-      <c r="DT1" s="68" t="s">
+      <c r="DR1" s="70"/>
+      <c r="DS1" s="70"/>
+      <c r="DT1" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="DU1" s="68"/>
-      <c r="DV1" s="68"/>
-      <c r="DW1" s="69" t="s">
+      <c r="DU1" s="71"/>
+      <c r="DV1" s="71"/>
+      <c r="DW1" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="DX1" s="69"/>
-      <c r="DY1" s="69"/>
-      <c r="DZ1" s="70" t="s">
+      <c r="DX1" s="72"/>
+      <c r="DY1" s="72"/>
+      <c r="DZ1" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="EA1" s="70"/>
-      <c r="EB1" s="70"/>
-      <c r="EC1" s="76" t="s">
+      <c r="EA1" s="73"/>
+      <c r="EB1" s="73"/>
+      <c r="EC1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="ED1" s="76"/>
-      <c r="EE1" s="76"/>
-      <c r="EF1" s="76"/>
-      <c r="EG1" s="61" t="s">
+      <c r="ED1" s="66"/>
+      <c r="EE1" s="66"/>
+      <c r="EF1" s="66"/>
+      <c r="EG1" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="EH1" s="61"/>
-      <c r="EI1" s="61"/>
-      <c r="EJ1" s="61"/>
-      <c r="EK1" s="61"/>
-      <c r="EL1" s="61"/>
-      <c r="EM1" s="61"/>
-      <c r="EN1" s="61"/>
-      <c r="EO1" s="61"/>
+      <c r="EH1" s="77"/>
+      <c r="EI1" s="77"/>
+      <c r="EJ1" s="77"/>
+      <c r="EK1" s="77"/>
+      <c r="EL1" s="77"/>
+      <c r="EM1" s="77"/>
+      <c r="EN1" s="77"/>
+      <c r="EO1" s="77"/>
     </row>
     <row r="2" spans="1:146" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -2450,10 +2450,10 @@
       <c r="EI3" s="1"/>
       <c r="EJ3" s="1"/>
       <c r="EK3" s="1"/>
-      <c r="EL3" s="77"/>
-      <c r="EM3" s="77"/>
-      <c r="EN3" s="77"/>
-      <c r="EO3" s="77"/>
+      <c r="EL3" s="61"/>
+      <c r="EM3" s="61"/>
+      <c r="EN3" s="61"/>
+      <c r="EO3" s="61"/>
     </row>
     <row r="4" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -28006,6 +28006,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="CR1:DA1"/>
+    <mergeCell ref="DB1:DF1"/>
+    <mergeCell ref="EG1:EO1"/>
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="AP1:AT1"/>
     <mergeCell ref="AU1:BC1"/>
@@ -28022,9 +28025,6 @@
     <mergeCell ref="BV1:BY1"/>
     <mergeCell ref="BZ1:CM1"/>
     <mergeCell ref="CN1:CQ1"/>
-    <mergeCell ref="CR1:DA1"/>
-    <mergeCell ref="DB1:DF1"/>
-    <mergeCell ref="EG1:EO1"/>
   </mergeCells>
   <conditionalFormatting sqref="A44 A143:A144">
     <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
